--- a/assets/Copy of nfl-schedule-2018.xlsx
+++ b/assets/Copy of nfl-schedule-2018.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisaronchick/GitHub/crowdsourcedscores-web/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aronc004/Desktop/github/crowdsourcedscores-web/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D40F924-BC23-1547-B839-85FD5460A9A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB91AEED-99CF-7B4A-89A0-E48F9B0E63AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1480" windowWidth="26440" windowHeight="15440" xr2:uid="{6A0A4EFD-C765-0642-93D6-F41411AE2F2F}"/>
   </bookViews>
@@ -1115,9 +1115,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1181,6 +1178,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1222,7 +1222,7 @@
   <autoFilter ref="A1:R322" xr:uid="{B933B4C6-4D5C-E549-B0B6-BB0D6045EBCE}">
     <filterColumn colId="6">
       <filters>
-        <filter val="-2"/>
+        <filter val="-1"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1254,7 +1254,7 @@
     <tableColumn id="5" xr3:uid="{2A62321C-5338-1F4D-A502-5EDAA5C3FFBB}" name="odds.total"/>
     <tableColumn id="32" xr3:uid="{5A1C37AB-5FC4-AF41-A713-00DA64B813D0}" name="startDateTime"/>
     <tableColumn id="38" xr3:uid="{F7AA31AE-2FC2-8E49-9F38-250FC90F1BEB}" name="sport"/>
-    <tableColumn id="43" xr3:uid="{5F4A1E9C-C883-CD43-87E8-E9E03A67CD9C}" name="JSON" dataDxfId="0">
+    <tableColumn id="43" xr3:uid="{5F4A1E9C-C883-CD43-87E8-E9E03A67CD9C}" name="JSON" dataDxfId="2">
       <calculatedColumnFormula>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1266,8 +1266,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72E1DCDE-BE1B-214F-8904-8D88D9C7CC43}" name="teamTable" displayName="teamTable" ref="A1:C33" totalsRowShown="0">
   <autoFilter ref="A1:C33" xr:uid="{5B4D01BB-AD1A-1A4A-B1B3-56FE51DEEA84}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DE6C6559-430E-B042-B5B6-A1C548E5B1BC}" name="ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7783754D-C3CF-A140-84E2-9D3582D7A74E}" name="Code" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{DE6C6559-430E-B042-B5B6-A1C548E5B1BC}" name="ID" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7783754D-C3CF-A140-84E2-9D3582D7A74E}" name="Code" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{8B4B49A2-67E0-104C-BAA4-7804723867B1}" name="Full Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1574,7 +1574,7 @@
   <dimension ref="A1:R322"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35:R50"/>
+      <selection activeCell="R66" sqref="R51:R66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3498,7 +3498,7 @@
         <v>{"year":2018,"gameWeek":-3,"gameId":-33,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":"2018-08-20T20:00:00-04:00"}</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>{"year":2018,"gameWeek":-2,"gameId":-32,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":-3,"total":41},"startDateTime":"2018-08-23T20:00:00-04:00"}</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>{"year":2018,"gameWeek":-2,"gameId":-31,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":-2.5,"total":42},"startDateTime":"2018-08-24T19:30:00-04:00"}</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>{"year":2018,"gameWeek":-2,"gameId":-30,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":-3,"total":43.5},"startDateTime":"2018-08-24T19:30:00-04:00"}</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>{"year":2018,"gameWeek":-2,"gameId":-29,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":-1,"total":46},"startDateTime":"2018-08-24T19:30:00-04:00"}</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>{"year":2018,"gameWeek":-2,"gameId":-28,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":-3,"total":45.5},"startDateTime":"2018-08-24T20:00:00-04:00"}</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>{"year":2018,"gameWeek":-2,"gameId":-27,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":-3.5,"total":40},"startDateTime":"2018-08-24T20:00:00-04:00"}</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>{"year":2018,"gameWeek":-2,"gameId":-26,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":-7,"total":41},"startDateTime":"2018-08-24T22:30:00-04:00"}</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>{"year":2018,"gameWeek":-2,"gameId":-25,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":-2,"total":48},"startDateTime":"2018-08-25T13:00:00-04:00"}</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>{"year":2018,"gameWeek":-2,"gameId":-24,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":-4,"total":45.5},"startDateTime":"2018-08-25T16:00:00-04:00"}</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>{"year":2018,"gameWeek":-2,"gameId":-23,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":-3,"total":42},"startDateTime":"2018-08-25T16:00:00-04:00"}</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>{"year":2018,"gameWeek":-2,"gameId":-22,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":-1,"total":43.5},"startDateTime":"2018-08-25T16:30:00-04:00"}</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>{"year":2018,"gameWeek":-2,"gameId":-21,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":-3,"total":40},"startDateTime":"2018-08-25T19:00:00-04:00"}</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>{"year":2018,"gameWeek":-2,"gameId":-20,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":0,"total":41.5},"startDateTime":"2018-08-25T19:00:00-04:00"}</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>{"year":2018,"gameWeek":-2,"gameId":-19,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":-2.5,"total":43.5},"startDateTime":"2018-08-25T20:00:00-04:00"}</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>{"year":2018,"gameWeek":-2,"gameId":-18,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":-1.5,"total":41.5},"startDateTime":"2018-08-26T16:00:00-04:00"}</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>{"year":2018,"gameWeek":-2,"gameId":-17,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":-3,"total":43.5},"startDateTime":"2018-08-26T20:00:00-04:00"}</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4535,6 +4535,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Atlanta Falcons</v>
       </c>
+      <c r="N51">
+        <v>-3</v>
+      </c>
+      <c r="O51">
+        <v>36</v>
+      </c>
       <c r="P51" t="s">
         <v>147</v>
       </c>
@@ -4543,10 +4549,10 @@
       </c>
       <c r="R51" t="str">
         <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-16,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":"2018-08-30T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+        <v>{"year":2018,"gameWeek":-1,"gameId":-16,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":-3,"total":36},"startDateTime":"2018-08-30T19:00:00-04:00"}</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4591,6 +4597,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Cincinnati Bengals</v>
       </c>
+      <c r="N52">
+        <v>-3</v>
+      </c>
+      <c r="O52">
+        <v>34</v>
+      </c>
       <c r="P52" t="s">
         <v>147</v>
       </c>
@@ -4599,10 +4611,10 @@
       </c>
       <c r="R52" t="str">
         <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-15,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":"2018-08-30T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+        <v>{"year":2018,"gameWeek":-1,"gameId":-15,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":-3,"total":34},"startDateTime":"2018-08-30T19:00:00-04:00"}</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4647,6 +4659,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Philadelphia Eagles</v>
       </c>
+      <c r="N53">
+        <v>1.5</v>
+      </c>
+      <c r="O53">
+        <v>36.5</v>
+      </c>
       <c r="P53" t="s">
         <v>147</v>
       </c>
@@ -4655,10 +4673,10 @@
       </c>
       <c r="R53" t="str">
         <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-14,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":"2018-08-30T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+        <v>{"year":2018,"gameWeek":-1,"gameId":-14,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":1.5,"total":36.5},"startDateTime":"2018-08-30T19:00:00-04:00"}</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4703,6 +4721,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Detroit Lions</v>
       </c>
+      <c r="N54">
+        <v>-2.5</v>
+      </c>
+      <c r="O54">
+        <v>35.5</v>
+      </c>
       <c r="P54" t="s">
         <v>147</v>
       </c>
@@ -4711,10 +4735,10 @@
       </c>
       <c r="R54" t="str">
         <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-13,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":"2018-08-30T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+        <v>{"year":2018,"gameWeek":-1,"gameId":-13,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":-2.5,"total":35.5},"startDateTime":"2018-08-30T19:00:00-04:00"}</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4759,6 +4783,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>New York Giants</v>
       </c>
+      <c r="N55">
+        <v>-2.5</v>
+      </c>
+      <c r="O55">
+        <v>38.5</v>
+      </c>
       <c r="P55" t="s">
         <v>147</v>
       </c>
@@ -4767,10 +4797,10 @@
       </c>
       <c r="R55" t="str">
         <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-12,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":"2018-08-30T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+        <v>{"year":2018,"gameWeek":-1,"gameId":-12,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":-2.5,"total":38.5},"startDateTime":"2018-08-30T19:00:00-04:00"}</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4815,6 +4845,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Pittsburgh Steelers</v>
       </c>
+      <c r="N56">
+        <v>-2.5</v>
+      </c>
+      <c r="O56">
+        <v>36.5</v>
+      </c>
       <c r="P56" t="s">
         <v>148</v>
       </c>
@@ -4823,10 +4859,10 @@
       </c>
       <c r="R56" t="str">
         <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-11,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":"2018-08-30T19:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+        <v>{"year":2018,"gameWeek":-1,"gameId":-11,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":-2.5,"total":36.5},"startDateTime":"2018-08-30T19:30:00-04:00"}</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4871,6 +4907,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Baltimore Ravens</v>
       </c>
+      <c r="N57">
+        <v>-3</v>
+      </c>
+      <c r="O57">
+        <v>36</v>
+      </c>
       <c r="P57" t="s">
         <v>148</v>
       </c>
@@ -4879,10 +4921,10 @@
       </c>
       <c r="R57" t="str">
         <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-10,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":"2018-08-30T19:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+        <v>{"year":2018,"gameWeek":-1,"gameId":-10,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":-3,"total":36},"startDateTime":"2018-08-30T19:30:00-04:00"}</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4927,6 +4969,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Tampa Bay Buccaneers</v>
       </c>
+      <c r="N58">
+        <v>-1</v>
+      </c>
+      <c r="O58">
+        <v>36</v>
+      </c>
       <c r="P58" t="s">
         <v>148</v>
       </c>
@@ -4935,10 +4983,10 @@
       </c>
       <c r="R58" t="str">
         <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-9,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":"2018-08-30T19:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+        <v>{"year":2018,"gameWeek":-1,"gameId":-9,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":-1,"total":36},"startDateTime":"2018-08-30T19:30:00-04:00"}</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4983,6 +5031,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Chicago Bears</v>
       </c>
+      <c r="N59">
+        <v>-3</v>
+      </c>
+      <c r="O59">
+        <v>37</v>
+      </c>
       <c r="P59" t="s">
         <v>149</v>
       </c>
@@ -4991,10 +5045,10 @@
       </c>
       <c r="R59" t="str">
         <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-8,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":"2018-08-30T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+        <v>{"year":2018,"gameWeek":-1,"gameId":-8,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":-3,"total":37},"startDateTime":"2018-08-30T20:00:00-04:00"}</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5039,6 +5093,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Tennessee Titans</v>
       </c>
+      <c r="N60">
+        <v>-1</v>
+      </c>
+      <c r="O60">
+        <v>36</v>
+      </c>
       <c r="P60" t="s">
         <v>149</v>
       </c>
@@ -5047,10 +5107,10 @@
       </c>
       <c r="R60" t="str">
         <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-7,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":"2018-08-30T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+        <v>{"year":2018,"gameWeek":-1,"gameId":-7,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":-1,"total":36},"startDateTime":"2018-08-30T20:00:00-04:00"}</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5095,6 +5155,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>New Orleans Saints</v>
       </c>
+      <c r="N61">
+        <v>-4</v>
+      </c>
+      <c r="O61">
+        <v>38</v>
+      </c>
       <c r="P61" t="s">
         <v>149</v>
       </c>
@@ -5103,10 +5169,10 @@
       </c>
       <c r="R61" t="str">
         <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-6,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":"2018-08-30T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+        <v>{"year":2018,"gameWeek":-1,"gameId":-6,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":-4,"total":38},"startDateTime":"2018-08-30T20:00:00-04:00"}</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5151,6 +5217,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Houston Texans</v>
       </c>
+      <c r="N62">
+        <v>-4</v>
+      </c>
+      <c r="O62">
+        <v>34</v>
+      </c>
       <c r="P62" t="s">
         <v>149</v>
       </c>
@@ -5159,10 +5231,10 @@
       </c>
       <c r="R62" t="str">
         <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-5,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":"2018-08-30T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+        <v>{"year":2018,"gameWeek":-1,"gameId":-5,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":-4,"total":34},"startDateTime":"2018-08-30T20:00:00-04:00"}</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5207,6 +5279,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Kansas City Chiefs</v>
       </c>
+      <c r="N63">
+        <v>-4</v>
+      </c>
+      <c r="O63">
+        <v>38.5</v>
+      </c>
       <c r="P63" t="s">
         <v>150</v>
       </c>
@@ -5215,10 +5293,10 @@
       </c>
       <c r="R63" t="str">
         <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-4,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":"2018-08-30T20:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+        <v>{"year":2018,"gameWeek":-1,"gameId":-4,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":-4,"total":38.5},"startDateTime":"2018-08-30T20:30:00-04:00"}</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5263,6 +5341,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Arizona Cardinals</v>
       </c>
+      <c r="N64">
+        <v>-2.5</v>
+      </c>
+      <c r="O64">
+        <v>35.5</v>
+      </c>
       <c r="P64" t="s">
         <v>151</v>
       </c>
@@ -5271,10 +5355,10 @@
       </c>
       <c r="R64" t="str">
         <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-3,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":"2018-08-30T21:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+        <v>{"year":2018,"gameWeek":-1,"gameId":-3,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":-2.5,"total":35.5},"startDateTime":"2018-08-30T21:00:00-04:00"}</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5319,6 +5403,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>San Francisco 49ers</v>
       </c>
+      <c r="N65">
+        <v>-3.5</v>
+      </c>
+      <c r="O65">
+        <v>35</v>
+      </c>
       <c r="P65" t="s">
         <v>152</v>
       </c>
@@ -5327,10 +5417,10 @@
       </c>
       <c r="R65" t="str">
         <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-2,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":"2018-08-30T22:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+        <v>{"year":2018,"gameWeek":-1,"gameId":-2,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":-3.5,"total":35},"startDateTime":"2018-08-30T22:00:00-04:00"}</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5375,6 +5465,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Seattle Seahawks</v>
       </c>
+      <c r="N66">
+        <v>-3</v>
+      </c>
+      <c r="O66">
+        <v>35</v>
+      </c>
       <c r="P66" t="s">
         <v>152</v>
       </c>
@@ -5383,7 +5479,7 @@
       </c>
       <c r="R66" t="str">
         <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-1,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":"2018-08-30T22:00:00-04:00"}</v>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-1,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":-3,"total":35},"startDateTime":"2018-08-30T22:00:00-04:00"}</v>
       </c>
     </row>
     <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.2">

--- a/assets/Copy of nfl-schedule-2018.xlsx
+++ b/assets/Copy of nfl-schedule-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aronc004/Desktop/github/crowdsourcedscores-web/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C075B3D-1B1C-8946-B295-779DE8B5737B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B4755A-CD34-3244-B030-78EC1DF63A86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1480" windowWidth="26440" windowHeight="15440" xr2:uid="{6A0A4EFD-C765-0642-93D6-F41411AE2F2F}"/>
+    <workbookView xWindow="-22740" yWindow="2780" windowWidth="26440" windowHeight="15440" xr2:uid="{6A0A4EFD-C765-0642-93D6-F41411AE2F2F}"/>
   </bookViews>
   <sheets>
     <sheet name="nfl-schedule-2018" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="345">
   <si>
     <t>football</t>
   </si>
@@ -1050,6 +1050,12 @@
   </si>
   <si>
     <t>odds.total</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>notStarted</t>
   </si>
 </sst>
 </file>
@@ -1115,6 +1121,9 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1178,9 +1187,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1218,15 +1224,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6214A81C-B5D5-324C-8563-2D78BADBD4F4}" name="Table1" displayName="Table1" ref="A1:R322" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:R322" xr:uid="{B933B4C6-4D5C-E549-B0B6-BB0D6045EBCE}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6214A81C-B5D5-324C-8563-2D78BADBD4F4}" name="Table1" displayName="Table1" ref="A1:S322" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:S322" xr:uid="{B933B4C6-4D5C-E549-B0B6-BB0D6045EBCE}"/>
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{069A91C4-3EF5-3A46-AAAF-E08D67517BA9}" name="Game ID"/>
     <tableColumn id="44" xr3:uid="{AA1DD1D9-827B-E940-8A89-4E97C5BD781A}" name="gameId" dataDxfId="7">
       <calculatedColumnFormula>Table1[[#This Row],[Game ID]]-66</calculatedColumnFormula>
@@ -1252,10 +1252,11 @@
     </tableColumn>
     <tableColumn id="4" xr3:uid="{59442921-D250-A743-A13B-2807DE2F69B4}" name="odds.spread"/>
     <tableColumn id="5" xr3:uid="{2A62321C-5338-1F4D-A502-5EDAA5C3FFBB}" name="odds.total"/>
+    <tableColumn id="6" xr3:uid="{8442FC93-D829-B443-89D0-EB5449218579}" name="status"/>
     <tableColumn id="32" xr3:uid="{5A1C37AB-5FC4-AF41-A713-00DA64B813D0}" name="startDateTime"/>
     <tableColumn id="38" xr3:uid="{F7AA31AE-2FC2-8E49-9F38-250FC90F1BEB}" name="sport"/>
-    <tableColumn id="43" xr3:uid="{5F4A1E9C-C883-CD43-87E8-E9E03A67CD9C}" name="JSON" dataDxfId="2">
-      <calculatedColumnFormula>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</calculatedColumnFormula>
+    <tableColumn id="43" xr3:uid="{5F4A1E9C-C883-CD43-87E8-E9E03A67CD9C}" name="JSON" dataDxfId="0">
+      <calculatedColumnFormula>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1266,8 +1267,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72E1DCDE-BE1B-214F-8904-8D88D9C7CC43}" name="teamTable" displayName="teamTable" ref="A1:C33" totalsRowShown="0">
   <autoFilter ref="A1:C33" xr:uid="{5B4D01BB-AD1A-1A4A-B1B3-56FE51DEEA84}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DE6C6559-430E-B042-B5B6-A1C548E5B1BC}" name="ID" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{7783754D-C3CF-A140-84E2-9D3582D7A74E}" name="Code" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DE6C6559-430E-B042-B5B6-A1C548E5B1BC}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7783754D-C3CF-A140-84E2-9D3582D7A74E}" name="Code" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{8B4B49A2-67E0-104C-BAA4-7804723867B1}" name="Full Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1571,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R322"/>
+  <dimension ref="A1:S322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R323" sqref="R323"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1594,7 +1595,7 @@
     <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>260</v>
       </c>
@@ -1641,16 +1642,19 @@
         <v>342</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1696,17 +1700,20 @@
         <v>Baltimore Ravens</v>
       </c>
       <c r="P2" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q2" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-5,"gameId":-65,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":"2018-08-02T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-5,"gameId":-65,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-02T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1752,17 +1759,20 @@
         <v>Buffalo Bills</v>
       </c>
       <c r="P3" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-64,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":"2018-08-09T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-64,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1808,17 +1818,20 @@
         <v>Cincinnati Bengals</v>
       </c>
       <c r="P4" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q4" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-63,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":"2018-08-09T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-63,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1864,17 +1877,20 @@
         <v>Miami Dolphins</v>
       </c>
       <c r="P5" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q5" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-62,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":"2018-08-09T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-62,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1920,17 +1936,20 @@
         <v>New York Giants</v>
       </c>
       <c r="P6" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q6" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-61,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":"2018-08-09T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-61,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1976,17 +1995,20 @@
         <v>Philadelphia Eagles</v>
       </c>
       <c r="P7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q7" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-60,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":"2018-08-09T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R7" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-60,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2032,17 +2054,20 @@
         <v>Jacksonville Jaguars</v>
       </c>
       <c r="P8" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q8" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-59,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":"2018-08-09T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-59,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2088,17 +2113,20 @@
         <v>Baltimore Ravens</v>
       </c>
       <c r="P9" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q9" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-58,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":"2018-08-09T19:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-58,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2144,17 +2172,20 @@
         <v>New England Patriots</v>
       </c>
       <c r="P10" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q10" t="s">
         <v>43</v>
       </c>
-      <c r="Q10" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-57,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":"2018-08-09T19:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-57,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2200,17 +2231,20 @@
         <v>Green Bay Packers</v>
       </c>
       <c r="P11" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q11" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-56,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":"2018-08-09T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R11" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-56,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2256,17 +2290,20 @@
         <v>Kansas City Chiefs</v>
       </c>
       <c r="P12" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q12" t="s">
         <v>61</v>
       </c>
-      <c r="Q12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-55,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":"2018-08-09T20:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-55,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T20:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2312,17 +2349,20 @@
         <v>San Francisco 49ers</v>
       </c>
       <c r="P13" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q13" t="s">
         <v>68</v>
       </c>
-      <c r="Q13" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-54,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":"2018-08-09T22:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-54,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T22:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2368,17 +2408,20 @@
         <v>Seattle Seahawks</v>
       </c>
       <c r="P14" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q14" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-53,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":"2018-08-09T22:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-53,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T22:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2424,17 +2467,20 @@
         <v>New York Jets</v>
       </c>
       <c r="P15" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q15" t="s">
         <v>78</v>
       </c>
-      <c r="Q15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-52,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":"2018-08-10T19:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-52,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-10T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2480,17 +2526,20 @@
         <v>Oakland Raiders</v>
       </c>
       <c r="P16" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q16" t="s">
         <v>84</v>
       </c>
-      <c r="Q16" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-51,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":"2018-08-10T22:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-51,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-10T22:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2536,17 +2585,20 @@
         <v>Denver Broncos</v>
       </c>
       <c r="P17" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q17" t="s">
         <v>90</v>
       </c>
-      <c r="Q17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R17" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-50,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":"2018-08-11T21:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>0</v>
+      </c>
+      <c r="S17" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-50,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-11T21:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2592,17 +2644,20 @@
         <v>Arizona Cardinals</v>
       </c>
       <c r="P18" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q18" t="s">
         <v>97</v>
       </c>
-      <c r="Q18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R18" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-49,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":"2018-08-11T22:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R18" t="s">
+        <v>0</v>
+      </c>
+      <c r="S18" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-49,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-11T22:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2648,17 +2703,20 @@
         <v>New England Patriots</v>
       </c>
       <c r="P19" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q19" t="s">
         <v>98</v>
       </c>
-      <c r="Q19" t="s">
-        <v>0</v>
-      </c>
-      <c r="R19" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-48,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":"2018-08-16T19:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-48,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-16T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2704,17 +2762,20 @@
         <v>Washington Redskins</v>
       </c>
       <c r="P20" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q20" t="s">
         <v>101</v>
       </c>
-      <c r="Q20" t="s">
-        <v>0</v>
-      </c>
-      <c r="R20" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-47,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":"2018-08-16T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R20" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-47,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-16T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2760,17 +2821,20 @@
         <v>Green Bay Packers</v>
       </c>
       <c r="P21" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q21" t="s">
         <v>101</v>
       </c>
-      <c r="Q21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R21" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-46,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":"2018-08-16T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S21" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-46,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-16T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2816,17 +2880,20 @@
         <v>Detroit Lions</v>
       </c>
       <c r="P22" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q22" t="s">
         <v>103</v>
       </c>
-      <c r="Q22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R22" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-45,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":"2018-08-17T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R22" t="s">
+        <v>0</v>
+      </c>
+      <c r="S22" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-45,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-17T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2872,17 +2939,20 @@
         <v>Cleveland Browns</v>
       </c>
       <c r="P23" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q23" t="s">
         <v>105</v>
       </c>
-      <c r="Q23" t="s">
-        <v>0</v>
-      </c>
-      <c r="R23" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-44,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":"2018-08-17T19:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R23" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-44,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-17T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2928,17 +2998,20 @@
         <v>Carolina Panthers</v>
       </c>
       <c r="P24" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q24" t="s">
         <v>105</v>
       </c>
-      <c r="Q24" t="s">
-        <v>0</v>
-      </c>
-      <c r="R24" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-43,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":"2018-08-17T19:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R24" t="s">
+        <v>0</v>
+      </c>
+      <c r="S24" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-43,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-17T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2984,17 +3057,20 @@
         <v>Atlanta Falcons</v>
       </c>
       <c r="P25" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q25" t="s">
         <v>109</v>
       </c>
-      <c r="Q25" t="s">
-        <v>0</v>
-      </c>
-      <c r="R25" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-42,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":"2018-08-17T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R25" t="s">
+        <v>0</v>
+      </c>
+      <c r="S25" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-42,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-17T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3040,17 +3116,20 @@
         <v>New Orleans Saints</v>
       </c>
       <c r="P26" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q26" t="s">
         <v>109</v>
       </c>
-      <c r="Q26" t="s">
-        <v>0</v>
-      </c>
-      <c r="R26" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-41,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":"2018-08-17T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S26" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-41,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-17T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3096,17 +3175,20 @@
         <v>Minnesota Vikings</v>
       </c>
       <c r="P27" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q27" t="s">
         <v>113</v>
       </c>
-      <c r="Q27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R27" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-40,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":"2018-08-18T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S27" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-40,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3152,17 +3234,20 @@
         <v>Los Angeles Rams</v>
       </c>
       <c r="P28" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q28" t="s">
         <v>116</v>
       </c>
-      <c r="Q28" t="s">
-        <v>0</v>
-      </c>
-      <c r="R28" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-39,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":"2018-08-18T16:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R28" t="s">
+        <v>0</v>
+      </c>
+      <c r="S28" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-39,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T16:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3208,17 +3293,20 @@
         <v>Dallas Cowboys</v>
       </c>
       <c r="P29" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q29" t="s">
         <v>120</v>
       </c>
-      <c r="Q29" t="s">
-        <v>0</v>
-      </c>
-      <c r="R29" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-38,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":"2018-08-18T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R29" t="s">
+        <v>0</v>
+      </c>
+      <c r="S29" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-38,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3264,17 +3352,20 @@
         <v>Tennessee Titans</v>
       </c>
       <c r="P30" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q30" t="s">
         <v>123</v>
       </c>
-      <c r="Q30" t="s">
-        <v>0</v>
-      </c>
-      <c r="R30" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-37,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":"2018-08-18T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R30" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-37,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3320,17 +3411,20 @@
         <v>Houston Texans</v>
       </c>
       <c r="P31" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q31" t="s">
         <v>123</v>
       </c>
-      <c r="Q31" t="s">
-        <v>0</v>
-      </c>
-      <c r="R31" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-36,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":"2018-08-18T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R31" t="s">
+        <v>0</v>
+      </c>
+      <c r="S31" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-36,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3376,17 +3470,20 @@
         <v>Denver Broncos</v>
       </c>
       <c r="P32" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q32" t="s">
         <v>125</v>
       </c>
-      <c r="Q32" t="s">
-        <v>0</v>
-      </c>
-      <c r="R32" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-35,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":"2018-08-18T21:05:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R32" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-35,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T21:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3432,17 +3529,20 @@
         <v>Los Angeles Chargers</v>
       </c>
       <c r="P33" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q33" t="s">
         <v>128</v>
       </c>
-      <c r="Q33" t="s">
-        <v>0</v>
-      </c>
-      <c r="R33" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-34,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":"2018-08-18T22:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S33" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-34,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T22:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3488,17 +3588,20 @@
         <v>Indianapolis Colts</v>
       </c>
       <c r="P34" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q34" t="s">
         <v>130</v>
       </c>
-      <c r="Q34" t="s">
-        <v>0</v>
-      </c>
-      <c r="R34" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-33,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":"2018-08-20T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S34" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-33,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-20T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3550,17 +3653,20 @@
         <v>41</v>
       </c>
       <c r="P35" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q35" t="s">
         <v>131</v>
       </c>
-      <c r="Q35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R35" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-32,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":-3,"total":41},"startDateTime":"2018-08-23T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R35" t="s">
+        <v>0</v>
+      </c>
+      <c r="S35" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-32,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":-3,"total":41},"startDateTime":{"$date":"2018-08-23T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3612,17 +3718,20 @@
         <v>42</v>
       </c>
       <c r="P36" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q36" t="s">
         <v>132</v>
       </c>
-      <c r="Q36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R36" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-31,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":-2.5,"total":42},"startDateTime":"2018-08-24T19:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R36" t="s">
+        <v>0</v>
+      </c>
+      <c r="S36" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-31,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":-2.5,"total":42},"startDateTime":{"$date":"2018-08-24T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3674,17 +3783,20 @@
         <v>43.5</v>
       </c>
       <c r="P37" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q37" t="s">
         <v>132</v>
       </c>
-      <c r="Q37" t="s">
-        <v>0</v>
-      </c>
-      <c r="R37" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-30,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":-3,"total":43.5},"startDateTime":"2018-08-24T19:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R37" t="s">
+        <v>0</v>
+      </c>
+      <c r="S37" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-30,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":-3,"total":43.5},"startDateTime":{"$date":"2018-08-24T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3736,17 +3848,20 @@
         <v>46</v>
       </c>
       <c r="P38" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q38" t="s">
         <v>132</v>
       </c>
-      <c r="Q38" t="s">
-        <v>0</v>
-      </c>
-      <c r="R38" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-29,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":-1,"total":46},"startDateTime":"2018-08-24T19:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R38" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-29,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":-1,"total":46},"startDateTime":{"$date":"2018-08-24T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3798,17 +3913,20 @@
         <v>45.5</v>
       </c>
       <c r="P39" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q39" t="s">
         <v>135</v>
       </c>
-      <c r="Q39" t="s">
-        <v>0</v>
-      </c>
-      <c r="R39" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-28,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":-3,"total":45.5},"startDateTime":"2018-08-24T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R39" t="s">
+        <v>0</v>
+      </c>
+      <c r="S39" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-28,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":-3,"total":45.5},"startDateTime":{"$date":"2018-08-24T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3860,17 +3978,20 @@
         <v>40</v>
       </c>
       <c r="P40" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q40" t="s">
         <v>135</v>
       </c>
-      <c r="Q40" t="s">
-        <v>0</v>
-      </c>
-      <c r="R40" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-27,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":-3.5,"total":40},"startDateTime":"2018-08-24T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R40" t="s">
+        <v>0</v>
+      </c>
+      <c r="S40" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-27,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":-3.5,"total":40},"startDateTime":{"$date":"2018-08-24T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3922,17 +4043,20 @@
         <v>41</v>
       </c>
       <c r="P41" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q41" t="s">
         <v>136</v>
       </c>
-      <c r="Q41" t="s">
-        <v>0</v>
-      </c>
-      <c r="R41" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-26,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":-7,"total":41},"startDateTime":"2018-08-24T22:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R41" t="s">
+        <v>0</v>
+      </c>
+      <c r="S41" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-26,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":-7,"total":41},"startDateTime":{"$date":"2018-08-24T22:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3984,17 +4108,20 @@
         <v>48</v>
       </c>
       <c r="P42" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q42" t="s">
         <v>138</v>
       </c>
-      <c r="Q42" t="s">
-        <v>0</v>
-      </c>
-      <c r="R42" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-25,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":-2,"total":48},"startDateTime":"2018-08-25T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R42" t="s">
+        <v>0</v>
+      </c>
+      <c r="S42" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-25,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":-2,"total":48},"startDateTime":{"$date":"2018-08-25T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4046,17 +4173,20 @@
         <v>45.5</v>
       </c>
       <c r="P43" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q43" t="s">
         <v>141</v>
       </c>
-      <c r="Q43" t="s">
-        <v>0</v>
-      </c>
-      <c r="R43" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-24,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":-4,"total":45.5},"startDateTime":"2018-08-25T16:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R43" t="s">
+        <v>0</v>
+      </c>
+      <c r="S43" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-24,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":-4,"total":45.5},"startDateTime":{"$date":"2018-08-25T16:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4108,17 +4238,20 @@
         <v>42</v>
       </c>
       <c r="P44" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q44" t="s">
         <v>141</v>
       </c>
-      <c r="Q44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R44" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-23,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":-3,"total":42},"startDateTime":"2018-08-25T16:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S44" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-23,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":-3,"total":42},"startDateTime":{"$date":"2018-08-25T16:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4170,17 +4303,20 @@
         <v>43.5</v>
       </c>
       <c r="P45" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q45" t="s">
         <v>142</v>
       </c>
-      <c r="Q45" t="s">
-        <v>0</v>
-      </c>
-      <c r="R45" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-22,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":-1,"total":43.5},"startDateTime":"2018-08-25T16:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R45" t="s">
+        <v>0</v>
+      </c>
+      <c r="S45" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-22,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":-1,"total":43.5},"startDateTime":{"$date":"2018-08-25T16:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4232,17 +4368,20 @@
         <v>40</v>
       </c>
       <c r="P46" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q46" t="s">
         <v>143</v>
       </c>
-      <c r="Q46" t="s">
-        <v>0</v>
-      </c>
-      <c r="R46" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-21,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":-3,"total":40},"startDateTime":"2018-08-25T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R46" t="s">
+        <v>0</v>
+      </c>
+      <c r="S46" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-21,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":-3,"total":40},"startDateTime":{"$date":"2018-08-25T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4294,17 +4433,20 @@
         <v>41.5</v>
       </c>
       <c r="P47" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q47" t="s">
         <v>143</v>
       </c>
-      <c r="Q47" t="s">
-        <v>0</v>
-      </c>
-      <c r="R47" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-20,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":0,"total":41.5},"startDateTime":"2018-08-25T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R47" t="s">
+        <v>0</v>
+      </c>
+      <c r="S47" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-20,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":0,"total":41.5},"startDateTime":{"$date":"2018-08-25T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4356,17 +4498,20 @@
         <v>43.5</v>
       </c>
       <c r="P48" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q48" t="s">
         <v>144</v>
       </c>
-      <c r="Q48" t="s">
-        <v>0</v>
-      </c>
-      <c r="R48" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-19,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":-2.5,"total":43.5},"startDateTime":"2018-08-25T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R48" t="s">
+        <v>0</v>
+      </c>
+      <c r="S48" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-19,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":-2.5,"total":43.5},"startDateTime":{"$date":"2018-08-25T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4418,17 +4563,20 @@
         <v>41.5</v>
       </c>
       <c r="P49" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q49" t="s">
         <v>145</v>
       </c>
-      <c r="Q49" t="s">
-        <v>0</v>
-      </c>
-      <c r="R49" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-18,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":-1.5,"total":41.5},"startDateTime":"2018-08-26T16:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R49" t="s">
+        <v>0</v>
+      </c>
+      <c r="S49" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-18,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":-1.5,"total":41.5},"startDateTime":{"$date":"2018-08-26T16:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4480,17 +4628,20 @@
         <v>43.5</v>
       </c>
       <c r="P50" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q50" t="s">
         <v>146</v>
       </c>
-      <c r="Q50" t="s">
-        <v>0</v>
-      </c>
-      <c r="R50" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-17,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":-3,"total":43.5},"startDateTime":"2018-08-26T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R50" t="s">
+        <v>0</v>
+      </c>
+      <c r="S50" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-17,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":-3,"total":43.5},"startDateTime":{"$date":"2018-08-26T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4542,17 +4693,20 @@
         <v>36</v>
       </c>
       <c r="P51" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q51" t="s">
         <v>147</v>
       </c>
-      <c r="Q51" t="s">
-        <v>0</v>
-      </c>
-      <c r="R51" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-16,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":-3,"total":36},"startDateTime":"2018-08-30T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R51" t="s">
+        <v>0</v>
+      </c>
+      <c r="S51" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-16,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":-3,"total":36},"startDateTime":{"$date":"2018-08-30T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4604,17 +4758,20 @@
         <v>34</v>
       </c>
       <c r="P52" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q52" t="s">
         <v>147</v>
       </c>
-      <c r="Q52" t="s">
-        <v>0</v>
-      </c>
-      <c r="R52" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-15,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":-3,"total":34},"startDateTime":"2018-08-30T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R52" t="s">
+        <v>0</v>
+      </c>
+      <c r="S52" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-15,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":-3,"total":34},"startDateTime":{"$date":"2018-08-30T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4666,17 +4823,20 @@
         <v>36.5</v>
       </c>
       <c r="P53" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q53" t="s">
         <v>147</v>
       </c>
-      <c r="Q53" t="s">
-        <v>0</v>
-      </c>
-      <c r="R53" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-14,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":1.5,"total":36.5},"startDateTime":"2018-08-30T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R53" t="s">
+        <v>0</v>
+      </c>
+      <c r="S53" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-14,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":1.5,"total":36.5},"startDateTime":{"$date":"2018-08-30T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4728,17 +4888,20 @@
         <v>35.5</v>
       </c>
       <c r="P54" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q54" t="s">
         <v>147</v>
       </c>
-      <c r="Q54" t="s">
-        <v>0</v>
-      </c>
-      <c r="R54" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-13,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":-2.5,"total":35.5},"startDateTime":"2018-08-30T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R54" t="s">
+        <v>0</v>
+      </c>
+      <c r="S54" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-13,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":-2.5,"total":35.5},"startDateTime":{"$date":"2018-08-30T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4790,17 +4953,20 @@
         <v>38.5</v>
       </c>
       <c r="P55" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q55" t="s">
         <v>147</v>
       </c>
-      <c r="Q55" t="s">
-        <v>0</v>
-      </c>
-      <c r="R55" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-12,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":-2.5,"total":38.5},"startDateTime":"2018-08-30T19:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R55" t="s">
+        <v>0</v>
+      </c>
+      <c r="S55" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-12,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":-2.5,"total":38.5},"startDateTime":{"$date":"2018-08-30T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4852,17 +5018,20 @@
         <v>36.5</v>
       </c>
       <c r="P56" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q56" t="s">
         <v>148</v>
       </c>
-      <c r="Q56" t="s">
-        <v>0</v>
-      </c>
-      <c r="R56" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-11,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":-2.5,"total":36.5},"startDateTime":"2018-08-30T19:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R56" t="s">
+        <v>0</v>
+      </c>
+      <c r="S56" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-11,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":-2.5,"total":36.5},"startDateTime":{"$date":"2018-08-30T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4914,17 +5083,20 @@
         <v>36</v>
       </c>
       <c r="P57" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q57" t="s">
         <v>148</v>
       </c>
-      <c r="Q57" t="s">
-        <v>0</v>
-      </c>
-      <c r="R57" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-10,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":-3,"total":36},"startDateTime":"2018-08-30T19:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R57" t="s">
+        <v>0</v>
+      </c>
+      <c r="S57" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-10,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":-3,"total":36},"startDateTime":{"$date":"2018-08-30T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4976,17 +5148,20 @@
         <v>36</v>
       </c>
       <c r="P58" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q58" t="s">
         <v>148</v>
       </c>
-      <c r="Q58" t="s">
-        <v>0</v>
-      </c>
-      <c r="R58" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-9,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":-1,"total":36},"startDateTime":"2018-08-30T19:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R58" t="s">
+        <v>0</v>
+      </c>
+      <c r="S58" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-9,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":-1,"total":36},"startDateTime":{"$date":"2018-08-30T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5038,17 +5213,20 @@
         <v>37</v>
       </c>
       <c r="P59" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q59" t="s">
         <v>149</v>
       </c>
-      <c r="Q59" t="s">
-        <v>0</v>
-      </c>
-      <c r="R59" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-8,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":-3,"total":37},"startDateTime":"2018-08-30T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R59" t="s">
+        <v>0</v>
+      </c>
+      <c r="S59" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-8,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":-3,"total":37},"startDateTime":{"$date":"2018-08-30T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5100,17 +5278,20 @@
         <v>36</v>
       </c>
       <c r="P60" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q60" t="s">
         <v>149</v>
       </c>
-      <c r="Q60" t="s">
-        <v>0</v>
-      </c>
-      <c r="R60" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-7,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":-1,"total":36},"startDateTime":"2018-08-30T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R60" t="s">
+        <v>0</v>
+      </c>
+      <c r="S60" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-7,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":-1,"total":36},"startDateTime":{"$date":"2018-08-30T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5162,17 +5343,20 @@
         <v>38</v>
       </c>
       <c r="P61" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q61" t="s">
         <v>149</v>
       </c>
-      <c r="Q61" t="s">
-        <v>0</v>
-      </c>
-      <c r="R61" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-6,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":-4,"total":38},"startDateTime":"2018-08-30T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R61" t="s">
+        <v>0</v>
+      </c>
+      <c r="S61" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-6,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":-4,"total":38},"startDateTime":{"$date":"2018-08-30T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5224,17 +5408,20 @@
         <v>34</v>
       </c>
       <c r="P62" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q62" t="s">
         <v>149</v>
       </c>
-      <c r="Q62" t="s">
-        <v>0</v>
-      </c>
-      <c r="R62" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-5,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":-4,"total":34},"startDateTime":"2018-08-30T20:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R62" t="s">
+        <v>0</v>
+      </c>
+      <c r="S62" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-5,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":-4,"total":34},"startDateTime":{"$date":"2018-08-30T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5286,17 +5473,20 @@
         <v>38.5</v>
       </c>
       <c r="P63" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q63" t="s">
         <v>150</v>
       </c>
-      <c r="Q63" t="s">
-        <v>0</v>
-      </c>
-      <c r="R63" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-4,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":-4,"total":38.5},"startDateTime":"2018-08-30T20:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R63" t="s">
+        <v>0</v>
+      </c>
+      <c r="S63" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-4,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":-4,"total":38.5},"startDateTime":{"$date":"2018-08-30T20:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5348,17 +5538,20 @@
         <v>35.5</v>
       </c>
       <c r="P64" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q64" t="s">
         <v>151</v>
       </c>
-      <c r="Q64" t="s">
-        <v>0</v>
-      </c>
-      <c r="R64" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-3,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":-2.5,"total":35.5},"startDateTime":"2018-08-30T21:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R64" t="s">
+        <v>0</v>
+      </c>
+      <c r="S64" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-3,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":-2.5,"total":35.5},"startDateTime":{"$date":"2018-08-30T21:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5410,17 +5603,20 @@
         <v>35</v>
       </c>
       <c r="P65" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q65" t="s">
         <v>152</v>
       </c>
-      <c r="Q65" t="s">
-        <v>0</v>
-      </c>
-      <c r="R65" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-2,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":-3.5,"total":35},"startDateTime":"2018-08-30T22:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R65" t="s">
+        <v>0</v>
+      </c>
+      <c r="S65" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-2,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":-3.5,"total":35},"startDateTime":{"$date":"2018-08-30T22:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5472,17 +5668,20 @@
         <v>35</v>
       </c>
       <c r="P66" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q66" t="s">
         <v>152</v>
       </c>
-      <c r="Q66" t="s">
-        <v>0</v>
-      </c>
-      <c r="R66" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-1,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":-3,"total":35},"startDateTime":"2018-08-30T22:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R66" t="s">
+        <v>0</v>
+      </c>
+      <c r="S66" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-1,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":-3,"total":35},"startDateTime":{"$date":"2018-08-30T22:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -5534,17 +5733,20 @@
         <v>45.5</v>
       </c>
       <c r="P67" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q67" t="s">
         <v>153</v>
       </c>
-      <c r="Q67" t="s">
-        <v>0</v>
-      </c>
-      <c r="R67" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":1,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":-3,"total":45.5},"startDateTime":"2018-09-06T20:20:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R67" t="s">
+        <v>0</v>
+      </c>
+      <c r="S67" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":1,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":-3,"total":45.5},"startDateTime":{"$date":"2018-09-06T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -5596,17 +5798,20 @@
         <v>46.5</v>
       </c>
       <c r="P68" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q68" t="s">
         <v>154</v>
       </c>
-      <c r="Q68" t="s">
-        <v>0</v>
-      </c>
-      <c r="R68" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":2,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":5.5,"total":46.5},"startDateTime":"2018-09-09T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R68" t="s">
+        <v>0</v>
+      </c>
+      <c r="S68" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":2,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":5.5,"total":46.5},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -5658,17 +5863,20 @@
         <v>46.5</v>
       </c>
       <c r="P69" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q69" t="s">
         <v>154</v>
       </c>
-      <c r="Q69" t="s">
-        <v>0</v>
-      </c>
-      <c r="R69" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":3,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":-3,"total":46.5},"startDateTime":"2018-09-09T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R69" t="s">
+        <v>0</v>
+      </c>
+      <c r="S69" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":3,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":-3,"total":46.5},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -5720,17 +5928,20 @@
         <v>45</v>
       </c>
       <c r="P70" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q70" t="s">
         <v>154</v>
       </c>
-      <c r="Q70" t="s">
-        <v>0</v>
-      </c>
-      <c r="R70" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":4,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":1,"total":45},"startDateTime":"2018-09-09T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R70" t="s">
+        <v>0</v>
+      </c>
+      <c r="S70" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":4,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":1,"total":45},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -5782,17 +5993,20 @@
         <v>46</v>
       </c>
       <c r="P71" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q71" t="s">
         <v>154</v>
       </c>
-      <c r="Q71" t="s">
-        <v>0</v>
-      </c>
-      <c r="R71" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":5,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":-6,"total":46},"startDateTime":"2018-09-09T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R71" t="s">
+        <v>0</v>
+      </c>
+      <c r="S71" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":5,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":-6,"total":46},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -5844,17 +6058,20 @@
         <v>41</v>
       </c>
       <c r="P72" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q72" t="s">
         <v>154</v>
       </c>
-      <c r="Q72" t="s">
-        <v>0</v>
-      </c>
-      <c r="R72" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":6,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":-6.5,"total":41},"startDateTime":"2018-09-09T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R72" t="s">
+        <v>0</v>
+      </c>
+      <c r="S72" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":6,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":-6.5,"total":41},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -5906,17 +6123,20 @@
         <v>51</v>
       </c>
       <c r="P73" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q73" t="s">
         <v>154</v>
       </c>
-      <c r="Q73" t="s">
-        <v>0</v>
-      </c>
-      <c r="R73" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":7,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":-6.5,"total":51},"startDateTime":"2018-09-09T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R73" t="s">
+        <v>0</v>
+      </c>
+      <c r="S73" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":7,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":-6.5,"total":51},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -5968,17 +6188,20 @@
         <v>43.5</v>
       </c>
       <c r="P74" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q74" t="s">
         <v>154</v>
       </c>
-      <c r="Q74" t="s">
-        <v>0</v>
-      </c>
-      <c r="R74" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":8,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":3,"total":43.5},"startDateTime":"2018-09-09T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R74" t="s">
+        <v>0</v>
+      </c>
+      <c r="S74" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":8,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":3,"total":43.5},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -6030,17 +6253,20 @@
         <v>49.5</v>
       </c>
       <c r="P75" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q75" t="s">
         <v>154</v>
       </c>
-      <c r="Q75" t="s">
-        <v>0</v>
-      </c>
-      <c r="R75" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":9,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":-9.5,"total":49.5},"startDateTime":"2018-09-09T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R75" t="s">
+        <v>0</v>
+      </c>
+      <c r="S75" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":9,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":-9.5,"total":49.5},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -6092,17 +6318,20 @@
         <v>48</v>
       </c>
       <c r="P76" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q76" t="s">
         <v>155</v>
       </c>
-      <c r="Q76" t="s">
-        <v>0</v>
-      </c>
-      <c r="R76" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":10,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":-3,"total":48},"startDateTime":"2018-09-09T16:05:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R76" t="s">
+        <v>0</v>
+      </c>
+      <c r="S76" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":10,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":-3,"total":48},"startDateTime":{"$date":"2018-09-09T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -6154,17 +6383,20 @@
         <v>44</v>
       </c>
       <c r="P77" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q77" t="s">
         <v>156</v>
       </c>
-      <c r="Q77" t="s">
-        <v>0</v>
-      </c>
-      <c r="R77" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":11,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":0,"total":44},"startDateTime":"2018-09-09T16:25:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R77" t="s">
+        <v>0</v>
+      </c>
+      <c r="S77" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":11,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":0,"total":44},"startDateTime":{"$date":"2018-09-09T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -6216,17 +6448,20 @@
         <v>42</v>
       </c>
       <c r="P78" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q78" t="s">
         <v>156</v>
       </c>
-      <c r="Q78" t="s">
-        <v>0</v>
-      </c>
-      <c r="R78" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":12,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":-3,"total":42},"startDateTime":"2018-09-09T16:25:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R78" t="s">
+        <v>0</v>
+      </c>
+      <c r="S78" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":12,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":-3,"total":42},"startDateTime":{"$date":"2018-09-09T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -6278,17 +6513,20 @@
         <v>42.5</v>
       </c>
       <c r="P79" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q79" t="s">
         <v>156</v>
       </c>
-      <c r="Q79" t="s">
-        <v>0</v>
-      </c>
-      <c r="R79" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":13,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":-2.5,"total":42.5},"startDateTime":"2018-09-09T16:25:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R79" t="s">
+        <v>0</v>
+      </c>
+      <c r="S79" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":13,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":-2.5,"total":42.5},"startDateTime":{"$date":"2018-09-09T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -6340,17 +6578,20 @@
         <v>47.5</v>
       </c>
       <c r="P80" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q80" t="s">
         <v>157</v>
       </c>
-      <c r="Q80" t="s">
-        <v>0</v>
-      </c>
-      <c r="R80" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":14,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":-8,"total":47.5},"startDateTime":"2018-09-09T20:20:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R80" t="s">
+        <v>0</v>
+      </c>
+      <c r="S80" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":14,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":-8,"total":47.5},"startDateTime":{"$date":"2018-09-09T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -6402,17 +6643,20 @@
         <v>44</v>
       </c>
       <c r="P81" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q81" t="s">
         <v>158</v>
       </c>
-      <c r="Q81" t="s">
-        <v>0</v>
-      </c>
-      <c r="R81" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":15,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":-6.5,"total":44},"startDateTime":"2018-09-10T19:10:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R81" t="s">
+        <v>0</v>
+      </c>
+      <c r="S81" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":15,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":-6.5,"total":44},"startDateTime":{"$date":"2018-09-10T19:10:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>82</v>
       </c>
@@ -6464,17 +6708,20 @@
         <v>49.5</v>
       </c>
       <c r="P82" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q82" t="s">
         <v>159</v>
       </c>
-      <c r="Q82" t="s">
-        <v>0</v>
-      </c>
-      <c r="R82" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":16,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":3.5,"total":49.5},"startDateTime":"2018-09-10T22:20:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R82" t="s">
+        <v>0</v>
+      </c>
+      <c r="S82" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":16,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":3.5,"total":49.5},"startDateTime":{"$date":"2018-09-10T22:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>83</v>
       </c>
@@ -6519,18 +6766,27 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Cincinnati Bengals</v>
       </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>44</v>
+      </c>
       <c r="P83" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q83" t="s">
         <v>160</v>
       </c>
-      <c r="Q83" t="s">
-        <v>0</v>
-      </c>
-      <c r="R83" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":17,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":"2018-09-13T20:20:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R83" t="s">
+        <v>0</v>
+      </c>
+      <c r="S83" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":17,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":0,"total":44},"startDateTime":{"$date":"2018-09-13T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>84</v>
       </c>
@@ -6575,18 +6831,24 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Green Bay Packers</v>
       </c>
+      <c r="N84">
+        <v>-1.5</v>
+      </c>
       <c r="P84" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q84" t="s">
         <v>161</v>
       </c>
-      <c r="Q84" t="s">
-        <v>0</v>
-      </c>
-      <c r="R84" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":18,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":"2018-09-16T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R84" t="s">
+        <v>0</v>
+      </c>
+      <c r="S84" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":18,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":-1.5,"total":},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>85</v>
       </c>
@@ -6631,18 +6893,27 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>New Orleans Saints</v>
       </c>
+      <c r="N85">
+        <v>-8</v>
+      </c>
+      <c r="O85">
+        <v>50</v>
+      </c>
       <c r="P85" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q85" t="s">
         <v>161</v>
       </c>
-      <c r="Q85" t="s">
-        <v>0</v>
-      </c>
-      <c r="R85" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":19,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":"2018-09-16T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R85" t="s">
+        <v>0</v>
+      </c>
+      <c r="S85" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":19,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":-8,"total":50},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>86</v>
       </c>
@@ -6687,18 +6958,27 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>New York Jets</v>
       </c>
+      <c r="N86">
+        <v>-3</v>
+      </c>
+      <c r="O86">
+        <v>44</v>
+      </c>
       <c r="P86" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q86" t="s">
         <v>161</v>
       </c>
-      <c r="Q86" t="s">
-        <v>0</v>
-      </c>
-      <c r="R86" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":20,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":"2018-09-16T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R86" t="s">
+        <v>0</v>
+      </c>
+      <c r="S86" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":20,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":-3,"total":44},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>87</v>
       </c>
@@ -6743,18 +7023,27 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Buffalo Bills</v>
       </c>
+      <c r="N87">
+        <v>7</v>
+      </c>
+      <c r="O87">
+        <v>42.5</v>
+      </c>
       <c r="P87" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q87" t="s">
         <v>161</v>
       </c>
-      <c r="Q87" t="s">
-        <v>0</v>
-      </c>
-      <c r="R87" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":21,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":"2018-09-16T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R87" t="s">
+        <v>0</v>
+      </c>
+      <c r="S87" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":21,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":7,"total":42.5},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>88</v>
       </c>
@@ -6799,18 +7088,27 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Atlanta Falcons</v>
       </c>
+      <c r="N88">
+        <v>-6</v>
+      </c>
+      <c r="O88">
+        <v>44</v>
+      </c>
       <c r="P88" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q88" t="s">
         <v>161</v>
       </c>
-      <c r="Q88" t="s">
-        <v>0</v>
-      </c>
-      <c r="R88" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":22,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":"2018-09-16T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R88" t="s">
+        <v>0</v>
+      </c>
+      <c r="S88" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":22,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":-6,"total":44},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>89</v>
       </c>
@@ -6855,18 +7153,27 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Pittsburgh Steelers</v>
       </c>
+      <c r="N89">
+        <v>-5</v>
+      </c>
+      <c r="O89">
+        <v>53</v>
+      </c>
       <c r="P89" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q89" t="s">
         <v>161</v>
       </c>
-      <c r="Q89" t="s">
-        <v>0</v>
-      </c>
-      <c r="R89" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":23,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":"2018-09-16T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R89" t="s">
+        <v>0</v>
+      </c>
+      <c r="S89" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":23,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":-5,"total":53},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>90</v>
       </c>
@@ -6911,18 +7218,27 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Washington Redskins</v>
       </c>
+      <c r="N90">
+        <v>-5.5</v>
+      </c>
+      <c r="O90">
+        <v>46</v>
+      </c>
       <c r="P90" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q90" t="s">
         <v>161</v>
       </c>
-      <c r="Q90" t="s">
-        <v>0</v>
-      </c>
-      <c r="R90" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":24,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":"2018-09-16T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R90" t="s">
+        <v>0</v>
+      </c>
+      <c r="S90" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":24,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":-5.5,"total":46},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>91</v>
       </c>
@@ -6968,17 +7284,20 @@
         <v>Tennessee Titans</v>
       </c>
       <c r="P91" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q91" t="s">
         <v>161</v>
       </c>
-      <c r="Q91" t="s">
-        <v>0</v>
-      </c>
-      <c r="R91" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":25,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":"2018-09-16T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R91" t="s">
+        <v>0</v>
+      </c>
+      <c r="S91" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":25,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>92</v>
       </c>
@@ -7023,18 +7342,27 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Tampa Bay Buccaneers</v>
       </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92">
+        <v>43.5</v>
+      </c>
       <c r="P92" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q92" t="s">
         <v>161</v>
       </c>
-      <c r="Q92" t="s">
-        <v>0</v>
-      </c>
-      <c r="R92" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":26,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":"2018-09-16T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R92" t="s">
+        <v>0</v>
+      </c>
+      <c r="S92" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":26,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":3,"total":43.5},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>93</v>
       </c>
@@ -7079,18 +7407,27 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>San Francisco 49ers</v>
       </c>
+      <c r="N93">
+        <v>-5.5</v>
+      </c>
+      <c r="O93">
+        <v>47.5</v>
+      </c>
       <c r="P93" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q93" t="s">
         <v>162</v>
       </c>
-      <c r="Q93" t="s">
-        <v>0</v>
-      </c>
-      <c r="R93" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":27,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":"2018-09-16T16:05:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R93" t="s">
+        <v>0</v>
+      </c>
+      <c r="S93" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":27,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":-5.5,"total":47.5},"startDateTime":{"$date":"2018-09-16T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>94</v>
       </c>
@@ -7135,18 +7472,27 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Los Angeles Rams</v>
       </c>
+      <c r="N94">
+        <v>-12.5</v>
+      </c>
+      <c r="O94">
+        <v>46.5</v>
+      </c>
       <c r="P94" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q94" t="s">
         <v>162</v>
       </c>
-      <c r="Q94" t="s">
-        <v>0</v>
-      </c>
-      <c r="R94" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":28,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":"2018-09-16T16:05:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R94" t="s">
+        <v>0</v>
+      </c>
+      <c r="S94" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":28,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":-12.5,"total":46.5},"startDateTime":{"$date":"2018-09-16T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>95</v>
       </c>
@@ -7191,18 +7537,27 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Denver Broncos</v>
       </c>
+      <c r="N95">
+        <v>-6</v>
+      </c>
+      <c r="O95">
+        <v>45</v>
+      </c>
       <c r="P95" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q95" t="s">
         <v>163</v>
       </c>
-      <c r="Q95" t="s">
-        <v>0</v>
-      </c>
-      <c r="R95" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":29,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":"2018-09-16T16:25:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R95" t="s">
+        <v>0</v>
+      </c>
+      <c r="S95" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":29,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":-6,"total":45},"startDateTime":{"$date":"2018-09-16T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>96</v>
       </c>
@@ -7247,18 +7602,27 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Jacksonville Jaguars</v>
       </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96">
+        <v>45</v>
+      </c>
       <c r="P96" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q96" t="s">
         <v>163</v>
       </c>
-      <c r="Q96" t="s">
-        <v>0</v>
-      </c>
-      <c r="R96" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":30,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":"2018-09-16T16:25:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R96" t="s">
+        <v>0</v>
+      </c>
+      <c r="S96" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":30,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":2,"total":45},"startDateTime":{"$date":"2018-09-16T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>97</v>
       </c>
@@ -7303,18 +7667,27 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Dallas Cowboys</v>
       </c>
+      <c r="N97">
+        <v>-3</v>
+      </c>
+      <c r="O97">
+        <v>42</v>
+      </c>
       <c r="P97" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q97" t="s">
         <v>164</v>
       </c>
-      <c r="Q97" t="s">
-        <v>0</v>
-      </c>
-      <c r="R97" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":31,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":"2018-09-16T20:20:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R97" t="s">
+        <v>0</v>
+      </c>
+      <c r="S97" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":31,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":-3,"total":42},"startDateTime":{"$date":"2018-09-16T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>98</v>
       </c>
@@ -7359,18 +7732,27 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Chicago Bears</v>
       </c>
+      <c r="N98">
+        <v>-3</v>
+      </c>
+      <c r="O98">
+        <v>43.5</v>
+      </c>
       <c r="P98" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q98" t="s">
         <v>165</v>
       </c>
-      <c r="Q98" t="s">
-        <v>0</v>
-      </c>
-      <c r="R98" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":32,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":"2018-09-17T20:15:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R98" t="s">
+        <v>0</v>
+      </c>
+      <c r="S98" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":32,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":-3,"total":43.5},"startDateTime":{"$date":"2018-09-17T20:15:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>99</v>
       </c>
@@ -7416,17 +7798,20 @@
         <v>Cleveland Browns</v>
       </c>
       <c r="P99" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q99" t="s">
         <v>166</v>
       </c>
-      <c r="Q99" t="s">
-        <v>0</v>
-      </c>
-      <c r="R99" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":33,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":"2018-09-20T20:20:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R99" t="s">
+        <v>0</v>
+      </c>
+      <c r="S99" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":33,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-20T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>100</v>
       </c>
@@ -7472,17 +7857,20 @@
         <v>Carolina Panthers</v>
       </c>
       <c r="P100" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q100" t="s">
         <v>167</v>
       </c>
-      <c r="Q100" t="s">
-        <v>0</v>
-      </c>
-      <c r="R100" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":34,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":"2018-09-23T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R100" t="s">
+        <v>0</v>
+      </c>
+      <c r="S100" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":34,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>101</v>
       </c>
@@ -7528,17 +7916,20 @@
         <v>Houston Texans</v>
       </c>
       <c r="P101" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q101" t="s">
         <v>167</v>
       </c>
-      <c r="Q101" t="s">
-        <v>0</v>
-      </c>
-      <c r="R101" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":35,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":"2018-09-23T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R101" t="s">
+        <v>0</v>
+      </c>
+      <c r="S101" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":35,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>102</v>
       </c>
@@ -7584,17 +7975,20 @@
         <v>Jacksonville Jaguars</v>
       </c>
       <c r="P102" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q102" t="s">
         <v>167</v>
       </c>
-      <c r="Q102" t="s">
-        <v>0</v>
-      </c>
-      <c r="R102" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":36,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":"2018-09-23T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R102" t="s">
+        <v>0</v>
+      </c>
+      <c r="S102" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":36,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>103</v>
       </c>
@@ -7640,17 +8034,20 @@
         <v>Baltimore Ravens</v>
       </c>
       <c r="P103" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q103" t="s">
         <v>167</v>
       </c>
-      <c r="Q103" t="s">
-        <v>0</v>
-      </c>
-      <c r="R103" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":37,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":"2018-09-23T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R103" t="s">
+        <v>0</v>
+      </c>
+      <c r="S103" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":37,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>104</v>
       </c>
@@ -7696,17 +8093,20 @@
         <v>Atlanta Falcons</v>
       </c>
       <c r="P104" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q104" t="s">
         <v>167</v>
       </c>
-      <c r="Q104" t="s">
-        <v>0</v>
-      </c>
-      <c r="R104" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":38,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":"2018-09-23T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R104" t="s">
+        <v>0</v>
+      </c>
+      <c r="S104" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":38,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>105</v>
       </c>
@@ -7752,17 +8152,20 @@
         <v>Kansas City Chiefs</v>
       </c>
       <c r="P105" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q105" t="s">
         <v>167</v>
       </c>
-      <c r="Q105" t="s">
-        <v>0</v>
-      </c>
-      <c r="R105" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":39,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":"2018-09-23T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R105" t="s">
+        <v>0</v>
+      </c>
+      <c r="S105" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":39,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>106</v>
       </c>
@@ -7808,17 +8211,20 @@
         <v>Washington Redskins</v>
       </c>
       <c r="P106" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q106" t="s">
         <v>167</v>
       </c>
-      <c r="Q106" t="s">
-        <v>0</v>
-      </c>
-      <c r="R106" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":40,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":"2018-09-23T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R106" t="s">
+        <v>0</v>
+      </c>
+      <c r="S106" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":40,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>107</v>
       </c>
@@ -7864,17 +8270,20 @@
         <v>Philadelphia Eagles</v>
       </c>
       <c r="P107" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q107" t="s">
         <v>167</v>
       </c>
-      <c r="Q107" t="s">
-        <v>0</v>
-      </c>
-      <c r="R107" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":41,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":"2018-09-23T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R107" t="s">
+        <v>0</v>
+      </c>
+      <c r="S107" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":41,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>108</v>
       </c>
@@ -7920,17 +8329,20 @@
         <v>Miami Dolphins</v>
       </c>
       <c r="P108" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q108" t="s">
         <v>167</v>
       </c>
-      <c r="Q108" t="s">
-        <v>0</v>
-      </c>
-      <c r="R108" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":42,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":"2018-09-23T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R108" t="s">
+        <v>0</v>
+      </c>
+      <c r="S108" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":42,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>109</v>
       </c>
@@ -7976,17 +8388,20 @@
         <v>Minnesota Vikings</v>
       </c>
       <c r="P109" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q109" t="s">
         <v>167</v>
       </c>
-      <c r="Q109" t="s">
-        <v>0</v>
-      </c>
-      <c r="R109" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":43,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":"2018-09-23T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R109" t="s">
+        <v>0</v>
+      </c>
+      <c r="S109" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":43,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>110</v>
       </c>
@@ -8032,17 +8447,20 @@
         <v>Los Angeles Rams</v>
       </c>
       <c r="P110" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q110" t="s">
         <v>168</v>
       </c>
-      <c r="Q110" t="s">
-        <v>0</v>
-      </c>
-      <c r="R110" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":44,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":"2018-09-23T16:05:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R110" t="s">
+        <v>0</v>
+      </c>
+      <c r="S110" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":44,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>111</v>
       </c>
@@ -8088,17 +8506,20 @@
         <v>Arizona Cardinals</v>
       </c>
       <c r="P111" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q111" t="s">
         <v>169</v>
       </c>
-      <c r="Q111" t="s">
-        <v>0</v>
-      </c>
-      <c r="R111" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":45,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":"2018-09-23T16:25:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R111" t="s">
+        <v>0</v>
+      </c>
+      <c r="S111" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":45,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>112</v>
       </c>
@@ -8144,17 +8565,20 @@
         <v>Seattle Seahawks</v>
       </c>
       <c r="P112" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q112" t="s">
         <v>169</v>
       </c>
-      <c r="Q112" t="s">
-        <v>0</v>
-      </c>
-      <c r="R112" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":46,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":"2018-09-23T16:25:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R112" t="s">
+        <v>0</v>
+      </c>
+      <c r="S112" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":46,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>113</v>
       </c>
@@ -8200,17 +8624,20 @@
         <v>Detroit Lions</v>
       </c>
       <c r="P113" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q113" t="s">
         <v>170</v>
       </c>
-      <c r="Q113" t="s">
-        <v>0</v>
-      </c>
-      <c r="R113" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":47,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":"2018-09-23T20:20:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R113" t="s">
+        <v>0</v>
+      </c>
+      <c r="S113" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":47,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>114</v>
       </c>
@@ -8256,17 +8683,20 @@
         <v>Tampa Bay Buccaneers</v>
       </c>
       <c r="P114" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q114" t="s">
         <v>171</v>
       </c>
-      <c r="Q114" t="s">
-        <v>0</v>
-      </c>
-      <c r="R114" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":48,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":"2018-09-24T20:15:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R114" t="s">
+        <v>0</v>
+      </c>
+      <c r="S114" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":48,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-24T20:15:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>115</v>
       </c>
@@ -8312,17 +8742,20 @@
         <v>Los Angeles Rams</v>
       </c>
       <c r="P115" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q115" t="s">
         <v>172</v>
       </c>
-      <c r="Q115" t="s">
-        <v>0</v>
-      </c>
-      <c r="R115" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":49,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":"2018-09-27T20:20:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R115" t="s">
+        <v>0</v>
+      </c>
+      <c r="S115" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":49,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-27T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>116</v>
       </c>
@@ -8368,17 +8801,20 @@
         <v>Dallas Cowboys</v>
       </c>
       <c r="P116" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q116" t="s">
         <v>173</v>
       </c>
-      <c r="Q116" t="s">
-        <v>0</v>
-      </c>
-      <c r="R116" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":50,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":"2018-09-30T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R116" t="s">
+        <v>0</v>
+      </c>
+      <c r="S116" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":50,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>117</v>
       </c>
@@ -8424,17 +8860,20 @@
         <v>Green Bay Packers</v>
       </c>
       <c r="P117" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q117" t="s">
         <v>173</v>
       </c>
-      <c r="Q117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R117" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":51,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":"2018-09-30T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R117" t="s">
+        <v>0</v>
+      </c>
+      <c r="S117" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":51,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>118</v>
       </c>
@@ -8480,17 +8919,20 @@
         <v>Indianapolis Colts</v>
       </c>
       <c r="P118" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q118" t="s">
         <v>173</v>
       </c>
-      <c r="Q118" t="s">
-        <v>0</v>
-      </c>
-      <c r="R118" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":52,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":"2018-09-30T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R118" t="s">
+        <v>0</v>
+      </c>
+      <c r="S118" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":52,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>119</v>
       </c>
@@ -8536,17 +8978,20 @@
         <v>Chicago Bears</v>
       </c>
       <c r="P119" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q119" t="s">
         <v>173</v>
       </c>
-      <c r="Q119" t="s">
-        <v>0</v>
-      </c>
-      <c r="R119" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":53,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":"2018-09-30T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R119" t="s">
+        <v>0</v>
+      </c>
+      <c r="S119" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":53,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>120</v>
       </c>
@@ -8592,17 +9037,20 @@
         <v>Atlanta Falcons</v>
       </c>
       <c r="P120" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q120" t="s">
         <v>173</v>
       </c>
-      <c r="Q120" t="s">
-        <v>0</v>
-      </c>
-      <c r="R120" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":54,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":"2018-09-30T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R120" t="s">
+        <v>0</v>
+      </c>
+      <c r="S120" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":54,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>121</v>
       </c>
@@ -8648,17 +9096,20 @@
         <v>Jacksonville Jaguars</v>
       </c>
       <c r="P121" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q121" t="s">
         <v>173</v>
       </c>
-      <c r="Q121" t="s">
-        <v>0</v>
-      </c>
-      <c r="R121" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":55,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":"2018-09-30T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R121" t="s">
+        <v>0</v>
+      </c>
+      <c r="S121" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":55,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>122</v>
       </c>
@@ -8704,17 +9155,20 @@
         <v>Tennessee Titans</v>
       </c>
       <c r="P122" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q122" t="s">
         <v>173</v>
       </c>
-      <c r="Q122" t="s">
-        <v>0</v>
-      </c>
-      <c r="R122" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":56,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":"2018-09-30T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R122" t="s">
+        <v>0</v>
+      </c>
+      <c r="S122" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":56,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>123</v>
       </c>
@@ -8760,17 +9214,20 @@
         <v>New England Patriots</v>
       </c>
       <c r="P123" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q123" t="s">
         <v>173</v>
       </c>
-      <c r="Q123" t="s">
-        <v>0</v>
-      </c>
-      <c r="R123" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":57,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":"2018-09-30T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R123" t="s">
+        <v>0</v>
+      </c>
+      <c r="S123" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":57,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>124</v>
       </c>
@@ -8816,17 +9273,20 @@
         <v>Arizona Cardinals</v>
       </c>
       <c r="P124" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q124" t="s">
         <v>174</v>
       </c>
-      <c r="Q124" t="s">
-        <v>0</v>
-      </c>
-      <c r="R124" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":58,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":"2018-09-30T16:05:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R124" t="s">
+        <v>0</v>
+      </c>
+      <c r="S124" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":58,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>125</v>
       </c>
@@ -8872,17 +9332,20 @@
         <v>Oakland Raiders</v>
       </c>
       <c r="P125" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q125" t="s">
         <v>174</v>
       </c>
-      <c r="Q125" t="s">
-        <v>0</v>
-      </c>
-      <c r="R125" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":59,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":"2018-09-30T16:05:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R125" t="s">
+        <v>0</v>
+      </c>
+      <c r="S125" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":59,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>126</v>
       </c>
@@ -8928,17 +9391,20 @@
         <v>New York Giants</v>
       </c>
       <c r="P126" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q126" t="s">
         <v>175</v>
       </c>
-      <c r="Q126" t="s">
-        <v>0</v>
-      </c>
-      <c r="R126" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":60,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":"2018-09-30T16:25:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R126" t="s">
+        <v>0</v>
+      </c>
+      <c r="S126" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":60,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>127</v>
       </c>
@@ -8984,17 +9450,20 @@
         <v>Los Angeles Chargers</v>
       </c>
       <c r="P127" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q127" t="s">
         <v>175</v>
       </c>
-      <c r="Q127" t="s">
-        <v>0</v>
-      </c>
-      <c r="R127" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":61,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":"2018-09-30T16:25:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R127" t="s">
+        <v>0</v>
+      </c>
+      <c r="S127" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":61,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>128</v>
       </c>
@@ -9040,17 +9509,20 @@
         <v>Pittsburgh Steelers</v>
       </c>
       <c r="P128" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q128" t="s">
         <v>176</v>
       </c>
-      <c r="Q128" t="s">
-        <v>0</v>
-      </c>
-      <c r="R128" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":62,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":"2018-09-30T20:20:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R128" t="s">
+        <v>0</v>
+      </c>
+      <c r="S128" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":62,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>129</v>
       </c>
@@ -9096,17 +9568,20 @@
         <v>Denver Broncos</v>
       </c>
       <c r="P129" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q129" t="s">
         <v>177</v>
       </c>
-      <c r="Q129" t="s">
-        <v>0</v>
-      </c>
-      <c r="R129" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":63,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":"2018-10-01T20:15:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R129" t="s">
+        <v>0</v>
+      </c>
+      <c r="S129" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":63,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-01T20:15:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>130</v>
       </c>
@@ -9152,17 +9627,20 @@
         <v>New England Patriots</v>
       </c>
       <c r="P130" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q130" t="s">
         <v>178</v>
       </c>
-      <c r="Q130" t="s">
-        <v>0</v>
-      </c>
-      <c r="R130" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":64,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":"2018-10-04T20:20:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R130" t="s">
+        <v>0</v>
+      </c>
+      <c r="S130" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":64,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-04T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>131</v>
       </c>
@@ -9208,17 +9686,20 @@
         <v>Cincinnati Bengals</v>
       </c>
       <c r="P131" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q131" t="s">
         <v>179</v>
       </c>
-      <c r="Q131" t="s">
-        <v>0</v>
-      </c>
-      <c r="R131" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":65,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":"2018-10-07T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R131" t="s">
+        <v>0</v>
+      </c>
+      <c r="S131" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":65,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>132</v>
       </c>
@@ -9264,17 +9745,20 @@
         <v>Cleveland Browns</v>
       </c>
       <c r="P132" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q132" t="s">
         <v>179</v>
       </c>
-      <c r="Q132" t="s">
-        <v>0</v>
-      </c>
-      <c r="R132" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":66,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":"2018-10-07T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R132" t="s">
+        <v>0</v>
+      </c>
+      <c r="S132" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":66,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>133</v>
       </c>
@@ -9320,17 +9804,20 @@
         <v>Carolina Panthers</v>
       </c>
       <c r="P133" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q133" t="s">
         <v>179</v>
       </c>
-      <c r="Q133" t="s">
-        <v>0</v>
-      </c>
-      <c r="R133" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":67,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":"2018-10-07T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R133" t="s">
+        <v>0</v>
+      </c>
+      <c r="S133" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":67,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>134</v>
       </c>
@@ -9376,17 +9863,20 @@
         <v>Buffalo Bills</v>
       </c>
       <c r="P134" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q134" t="s">
         <v>179</v>
       </c>
-      <c r="Q134" t="s">
-        <v>0</v>
-      </c>
-      <c r="R134" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":68,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":"2018-10-07T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R134" t="s">
+        <v>0</v>
+      </c>
+      <c r="S134" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":68,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>135</v>
       </c>
@@ -9432,17 +9922,20 @@
         <v>Detroit Lions</v>
       </c>
       <c r="P135" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q135" t="s">
         <v>179</v>
       </c>
-      <c r="Q135" t="s">
-        <v>0</v>
-      </c>
-      <c r="R135" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":69,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":"2018-10-07T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R135" t="s">
+        <v>0</v>
+      </c>
+      <c r="S135" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":69,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>136</v>
       </c>
@@ -9488,17 +9981,20 @@
         <v>Pittsburgh Steelers</v>
       </c>
       <c r="P136" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q136" t="s">
         <v>179</v>
       </c>
-      <c r="Q136" t="s">
-        <v>0</v>
-      </c>
-      <c r="R136" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":70,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":"2018-10-07T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R136" t="s">
+        <v>0</v>
+      </c>
+      <c r="S136" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":70,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>137</v>
       </c>
@@ -9544,17 +10040,20 @@
         <v>New York Jets</v>
       </c>
       <c r="P137" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q137" t="s">
         <v>179</v>
       </c>
-      <c r="Q137" t="s">
-        <v>0</v>
-      </c>
-      <c r="R137" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":71,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":"2018-10-07T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R137" t="s">
+        <v>0</v>
+      </c>
+      <c r="S137" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":71,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>138</v>
       </c>
@@ -9600,17 +10099,20 @@
         <v>Kansas City Chiefs</v>
       </c>
       <c r="P138" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q138" t="s">
         <v>179</v>
       </c>
-      <c r="Q138" t="s">
-        <v>0</v>
-      </c>
-      <c r="R138" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":72,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":"2018-10-07T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R138" t="s">
+        <v>0</v>
+      </c>
+      <c r="S138" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":72,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>139</v>
       </c>
@@ -9656,17 +10158,20 @@
         <v>Los Angeles Chargers</v>
       </c>
       <c r="P139" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q139" t="s">
         <v>180</v>
       </c>
-      <c r="Q139" t="s">
-        <v>0</v>
-      </c>
-      <c r="R139" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":73,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":"2018-10-07T16:05:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R139" t="s">
+        <v>0</v>
+      </c>
+      <c r="S139" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":73,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>140</v>
       </c>
@@ -9712,17 +10217,20 @@
         <v>San Francisco 49ers</v>
       </c>
       <c r="P140" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q140" t="s">
         <v>181</v>
       </c>
-      <c r="Q140" t="s">
-        <v>0</v>
-      </c>
-      <c r="R140" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":74,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":"2018-10-07T16:25:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R140" t="s">
+        <v>0</v>
+      </c>
+      <c r="S140" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":74,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>141</v>
       </c>
@@ -9768,17 +10276,20 @@
         <v>Philadelphia Eagles</v>
       </c>
       <c r="P141" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q141" t="s">
         <v>181</v>
       </c>
-      <c r="Q141" t="s">
-        <v>0</v>
-      </c>
-      <c r="R141" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":75,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":"2018-10-07T16:25:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R141" t="s">
+        <v>0</v>
+      </c>
+      <c r="S141" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":75,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>142</v>
       </c>
@@ -9824,17 +10335,20 @@
         <v>Seattle Seahawks</v>
       </c>
       <c r="P142" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q142" t="s">
         <v>181</v>
       </c>
-      <c r="Q142" t="s">
-        <v>0</v>
-      </c>
-      <c r="R142" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":76,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":"2018-10-07T16:25:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R142" t="s">
+        <v>0</v>
+      </c>
+      <c r="S142" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":76,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>143</v>
       </c>
@@ -9880,17 +10394,20 @@
         <v>Houston Texans</v>
       </c>
       <c r="P143" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q143" t="s">
         <v>182</v>
       </c>
-      <c r="Q143" t="s">
-        <v>0</v>
-      </c>
-      <c r="R143" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":77,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":"2018-10-07T20:20:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R143" t="s">
+        <v>0</v>
+      </c>
+      <c r="S143" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":77,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>144</v>
       </c>
@@ -9936,17 +10453,20 @@
         <v>New Orleans Saints</v>
       </c>
       <c r="P144" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q144" t="s">
         <v>183</v>
       </c>
-      <c r="Q144" t="s">
-        <v>0</v>
-      </c>
-      <c r="R144" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":78,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":"2018-10-08T20:15:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R144" t="s">
+        <v>0</v>
+      </c>
+      <c r="S144" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":78,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-08T20:15:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>145</v>
       </c>
@@ -9992,17 +10512,20 @@
         <v>New York Giants</v>
       </c>
       <c r="P145" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q145" t="s">
         <v>184</v>
       </c>
-      <c r="Q145" t="s">
-        <v>0</v>
-      </c>
-      <c r="R145" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":79,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":"2018-10-11T20:20:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R145" t="s">
+        <v>0</v>
+      </c>
+      <c r="S145" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":79,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-11T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>146</v>
       </c>
@@ -10048,17 +10571,20 @@
         <v>Cleveland Browns</v>
       </c>
       <c r="P146" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q146" t="s">
         <v>185</v>
       </c>
-      <c r="Q146" t="s">
-        <v>0</v>
-      </c>
-      <c r="R146" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":80,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":"2018-10-14T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R146" t="s">
+        <v>0</v>
+      </c>
+      <c r="S146" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":80,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>147</v>
       </c>
@@ -10104,17 +10630,20 @@
         <v>Houston Texans</v>
       </c>
       <c r="P147" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q147" t="s">
         <v>185</v>
       </c>
-      <c r="Q147" t="s">
-        <v>0</v>
-      </c>
-      <c r="R147" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":81,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":"2018-10-14T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R147" t="s">
+        <v>0</v>
+      </c>
+      <c r="S147" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":81,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>148</v>
       </c>
@@ -10160,17 +10689,20 @@
         <v>Cincinnati Bengals</v>
       </c>
       <c r="P148" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q148" t="s">
         <v>185</v>
       </c>
-      <c r="Q148" t="s">
-        <v>0</v>
-      </c>
-      <c r="R148" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":82,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":"2018-10-14T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R148" t="s">
+        <v>0</v>
+      </c>
+      <c r="S148" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":82,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>149</v>
       </c>
@@ -10216,17 +10748,20 @@
         <v>Atlanta Falcons</v>
       </c>
       <c r="P149" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q149" t="s">
         <v>185</v>
       </c>
-      <c r="Q149" t="s">
-        <v>0</v>
-      </c>
-      <c r="R149" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":83,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":"2018-10-14T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R149" t="s">
+        <v>0</v>
+      </c>
+      <c r="S149" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":83,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>150</v>
       </c>
@@ -10272,17 +10807,20 @@
         <v>Miami Dolphins</v>
       </c>
       <c r="P150" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q150" t="s">
         <v>185</v>
       </c>
-      <c r="Q150" t="s">
-        <v>0</v>
-      </c>
-      <c r="R150" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":84,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":"2018-10-14T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R150" t="s">
+        <v>0</v>
+      </c>
+      <c r="S150" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":84,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>151</v>
       </c>
@@ -10328,17 +10866,20 @@
         <v>Washington Redskins</v>
       </c>
       <c r="P151" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q151" t="s">
         <v>185</v>
       </c>
-      <c r="Q151" t="s">
-        <v>0</v>
-      </c>
-      <c r="R151" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":85,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":"2018-10-14T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R151" t="s">
+        <v>0</v>
+      </c>
+      <c r="S151" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":85,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>152</v>
       </c>
@@ -10384,17 +10925,20 @@
         <v>Oakland Raiders</v>
       </c>
       <c r="P152" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q152" t="s">
         <v>185</v>
       </c>
-      <c r="Q152" t="s">
-        <v>0</v>
-      </c>
-      <c r="R152" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":86,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":"2018-10-14T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R152" t="s">
+        <v>0</v>
+      </c>
+      <c r="S152" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":86,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>153</v>
       </c>
@@ -10440,17 +10984,20 @@
         <v>Minnesota Vikings</v>
       </c>
       <c r="P153" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q153" t="s">
         <v>185</v>
       </c>
-      <c r="Q153" t="s">
-        <v>0</v>
-      </c>
-      <c r="R153" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":87,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":"2018-10-14T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R153" t="s">
+        <v>0</v>
+      </c>
+      <c r="S153" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":87,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>154</v>
       </c>
@@ -10496,17 +11043,20 @@
         <v>New York Jets</v>
       </c>
       <c r="P154" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q154" t="s">
         <v>185</v>
       </c>
-      <c r="Q154" t="s">
-        <v>0</v>
-      </c>
-      <c r="R154" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":88,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":"2018-10-14T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R154" t="s">
+        <v>0</v>
+      </c>
+      <c r="S154" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":88,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>155</v>
       </c>
@@ -10552,17 +11102,20 @@
         <v>Denver Broncos</v>
       </c>
       <c r="P155" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q155" t="s">
         <v>188</v>
       </c>
-      <c r="Q155" t="s">
-        <v>0</v>
-      </c>
-      <c r="R155" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":89,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":"2018-10-14T16:05:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R155" t="s">
+        <v>0</v>
+      </c>
+      <c r="S155" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":89,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>156</v>
       </c>
@@ -10608,17 +11161,20 @@
         <v>Dallas Cowboys</v>
       </c>
       <c r="P156" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q156" t="s">
         <v>189</v>
       </c>
-      <c r="Q156" t="s">
-        <v>0</v>
-      </c>
-      <c r="R156" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":90,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":"2018-10-14T16:25:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R156" t="s">
+        <v>0</v>
+      </c>
+      <c r="S156" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":90,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>157</v>
       </c>
@@ -10664,17 +11220,20 @@
         <v>Tennessee Titans</v>
       </c>
       <c r="P157" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q157" t="s">
         <v>189</v>
       </c>
-      <c r="Q157" t="s">
-        <v>0</v>
-      </c>
-      <c r="R157" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":91,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":"2018-10-14T16:25:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R157" t="s">
+        <v>0</v>
+      </c>
+      <c r="S157" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":91,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>158</v>
       </c>
@@ -10720,17 +11279,20 @@
         <v>New England Patriots</v>
       </c>
       <c r="P158" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q158" t="s">
         <v>190</v>
       </c>
-      <c r="Q158" t="s">
-        <v>0</v>
-      </c>
-      <c r="R158" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":92,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":"2018-10-14T20:20:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R158" t="s">
+        <v>0</v>
+      </c>
+      <c r="S158" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":92,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>159</v>
       </c>
@@ -10776,17 +11338,20 @@
         <v>Green Bay Packers</v>
       </c>
       <c r="P159" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q159" t="s">
         <v>191</v>
       </c>
-      <c r="Q159" t="s">
-        <v>0</v>
-      </c>
-      <c r="R159" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":93,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":"2018-10-15T20:15:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R159" t="s">
+        <v>0</v>
+      </c>
+      <c r="S159" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":93,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-15T20:15:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>160</v>
       </c>
@@ -10832,17 +11397,20 @@
         <v>Arizona Cardinals</v>
       </c>
       <c r="P160" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q160" t="s">
         <v>192</v>
       </c>
-      <c r="Q160" t="s">
-        <v>0</v>
-      </c>
-      <c r="R160" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":94,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":"2018-10-18T20:20:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R160" t="s">
+        <v>0</v>
+      </c>
+      <c r="S160" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":94,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-18T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>161</v>
       </c>
@@ -10888,17 +11456,20 @@
         <v>Los Angeles Chargers</v>
       </c>
       <c r="P161" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q161" t="s">
         <v>194</v>
       </c>
-      <c r="Q161" t="s">
-        <v>0</v>
-      </c>
-      <c r="R161" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":95,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":"2018-10-21T09:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R161" t="s">
+        <v>0</v>
+      </c>
+      <c r="S161" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":95,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T09:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>162</v>
       </c>
@@ -10944,17 +11515,20 @@
         <v>Jacksonville Jaguars</v>
       </c>
       <c r="P162" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q162" t="s">
         <v>195</v>
       </c>
-      <c r="Q162" t="s">
-        <v>0</v>
-      </c>
-      <c r="R162" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":96,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":"2018-10-21T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R162" t="s">
+        <v>0</v>
+      </c>
+      <c r="S162" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":96,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>163</v>
       </c>
@@ -11000,17 +11574,20 @@
         <v>Tampa Bay Buccaneers</v>
       </c>
       <c r="P163" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q163" t="s">
         <v>195</v>
       </c>
-      <c r="Q163" t="s">
-        <v>0</v>
-      </c>
-      <c r="R163" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":97,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":"2018-10-21T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R163" t="s">
+        <v>0</v>
+      </c>
+      <c r="S163" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":97,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>164</v>
       </c>
@@ -11056,17 +11633,20 @@
         <v>Philadelphia Eagles</v>
       </c>
       <c r="P164" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q164" t="s">
         <v>195</v>
       </c>
-      <c r="Q164" t="s">
-        <v>0</v>
-      </c>
-      <c r="R164" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":98,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":"2018-10-21T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R164" t="s">
+        <v>0</v>
+      </c>
+      <c r="S164" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":98,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>165</v>
       </c>
@@ -11112,17 +11692,20 @@
         <v>New York Jets</v>
       </c>
       <c r="P165" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q165" t="s">
         <v>195</v>
       </c>
-      <c r="Q165" t="s">
-        <v>0</v>
-      </c>
-      <c r="R165" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":99,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":"2018-10-21T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R165" t="s">
+        <v>0</v>
+      </c>
+      <c r="S165" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":99,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>166</v>
       </c>
@@ -11168,17 +11751,20 @@
         <v>Chicago Bears</v>
       </c>
       <c r="P166" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q166" t="s">
         <v>195</v>
       </c>
-      <c r="Q166" t="s">
-        <v>0</v>
-      </c>
-      <c r="R166" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":100,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":"2018-10-21T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R166" t="s">
+        <v>0</v>
+      </c>
+      <c r="S166" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":100,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>167</v>
       </c>
@@ -11224,17 +11810,20 @@
         <v>Indianapolis Colts</v>
       </c>
       <c r="P167" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q167" t="s">
         <v>195</v>
       </c>
-      <c r="Q167" t="s">
-        <v>0</v>
-      </c>
-      <c r="R167" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":101,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":"2018-10-21T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R167" t="s">
+        <v>0</v>
+      </c>
+      <c r="S167" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":101,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>168</v>
       </c>
@@ -11280,17 +11869,20 @@
         <v>Kansas City Chiefs</v>
       </c>
       <c r="P168" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q168" t="s">
         <v>195</v>
       </c>
-      <c r="Q168" t="s">
-        <v>0</v>
-      </c>
-      <c r="R168" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":102,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":"2018-10-21T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R168" t="s">
+        <v>0</v>
+      </c>
+      <c r="S168" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":102,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>169</v>
       </c>
@@ -11336,17 +11928,20 @@
         <v>Miami Dolphins</v>
       </c>
       <c r="P169" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q169" t="s">
         <v>195</v>
       </c>
-      <c r="Q169" t="s">
-        <v>0</v>
-      </c>
-      <c r="R169" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":103,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":"2018-10-21T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R169" t="s">
+        <v>0</v>
+      </c>
+      <c r="S169" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":103,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>170</v>
       </c>
@@ -11392,17 +11987,20 @@
         <v>Baltimore Ravens</v>
       </c>
       <c r="P170" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q170" t="s">
         <v>196</v>
       </c>
-      <c r="Q170" t="s">
-        <v>0</v>
-      </c>
-      <c r="R170" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":104,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":"2018-10-21T16:05:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R170" t="s">
+        <v>0</v>
+      </c>
+      <c r="S170" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":104,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>171</v>
       </c>
@@ -11448,17 +12046,20 @@
         <v>Washington Redskins</v>
       </c>
       <c r="P171" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q171" t="s">
         <v>197</v>
       </c>
-      <c r="Q171" t="s">
-        <v>0</v>
-      </c>
-      <c r="R171" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":105,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":"2018-10-21T16:25:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R171" t="s">
+        <v>0</v>
+      </c>
+      <c r="S171" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":105,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>172</v>
       </c>
@@ -11504,17 +12105,20 @@
         <v>San Francisco 49ers</v>
       </c>
       <c r="P172" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q172" t="s">
         <v>198</v>
       </c>
-      <c r="Q172" t="s">
-        <v>0</v>
-      </c>
-      <c r="R172" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":106,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":"2018-10-21T20:20:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R172" t="s">
+        <v>0</v>
+      </c>
+      <c r="S172" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":106,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>173</v>
       </c>
@@ -11560,17 +12164,20 @@
         <v>Atlanta Falcons</v>
       </c>
       <c r="P173" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q173" t="s">
         <v>199</v>
       </c>
-      <c r="Q173" t="s">
-        <v>0</v>
-      </c>
-      <c r="R173" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":107,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":"2018-10-22T20:15:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R173" t="s">
+        <v>0</v>
+      </c>
+      <c r="S173" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":107,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-22T20:15:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>174</v>
       </c>
@@ -11616,17 +12223,20 @@
         <v>Houston Texans</v>
       </c>
       <c r="P174" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q174" t="s">
         <v>200</v>
       </c>
-      <c r="Q174" t="s">
-        <v>0</v>
-      </c>
-      <c r="R174" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":108,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":"2018-10-25T20:20:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R174" t="s">
+        <v>0</v>
+      </c>
+      <c r="S174" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":108,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-25T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>175</v>
       </c>
@@ -11672,17 +12282,20 @@
         <v>Jacksonville Jaguars</v>
       </c>
       <c r="P175" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q175" t="s">
         <v>201</v>
       </c>
-      <c r="Q175" t="s">
-        <v>0</v>
-      </c>
-      <c r="R175" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":109,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":"2018-10-28T09:30:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R175" t="s">
+        <v>0</v>
+      </c>
+      <c r="S175" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":109,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T09:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>176</v>
       </c>
@@ -11728,17 +12341,20 @@
         <v>Kansas City Chiefs</v>
       </c>
       <c r="P176" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q176" t="s">
         <v>202</v>
       </c>
-      <c r="Q176" t="s">
-        <v>0</v>
-      </c>
-      <c r="R176" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":110,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":"2018-10-28T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R176" t="s">
+        <v>0</v>
+      </c>
+      <c r="S176" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":110,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>177</v>
       </c>
@@ -11784,17 +12400,20 @@
         <v>Pittsburgh Steelers</v>
       </c>
       <c r="P177" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q177" t="s">
         <v>202</v>
       </c>
-      <c r="Q177" t="s">
-        <v>0</v>
-      </c>
-      <c r="R177" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":111,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":"2018-10-28T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R177" t="s">
+        <v>0</v>
+      </c>
+      <c r="S177" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":111,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>178</v>
       </c>
@@ -11840,17 +12459,20 @@
         <v>New York Giants</v>
       </c>
       <c r="P178" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q178" t="s">
         <v>202</v>
       </c>
-      <c r="Q178" t="s">
-        <v>0</v>
-      </c>
-      <c r="R178" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":112,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":"2018-10-28T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R178" t="s">
+        <v>0</v>
+      </c>
+      <c r="S178" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":112,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>179</v>
       </c>
@@ -11896,17 +12518,20 @@
         <v>Detroit Lions</v>
       </c>
       <c r="P179" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q179" t="s">
         <v>202</v>
       </c>
-      <c r="Q179" t="s">
-        <v>0</v>
-      </c>
-      <c r="R179" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":113,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":"2018-10-28T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R179" t="s">
+        <v>0</v>
+      </c>
+      <c r="S179" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":113,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>180</v>
       </c>
@@ -11952,17 +12577,20 @@
         <v>Cincinnati Bengals</v>
       </c>
       <c r="P180" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q180" t="s">
         <v>202</v>
       </c>
-      <c r="Q180" t="s">
-        <v>0</v>
-      </c>
-      <c r="R180" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":114,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":"2018-10-28T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R180" t="s">
+        <v>0</v>
+      </c>
+      <c r="S180" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":114,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>181</v>
       </c>
@@ -12008,17 +12636,20 @@
         <v>Chicago Bears</v>
       </c>
       <c r="P181" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q181" t="s">
         <v>202</v>
       </c>
-      <c r="Q181" t="s">
-        <v>0</v>
-      </c>
-      <c r="R181" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":115,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":"2018-10-28T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R181" t="s">
+        <v>0</v>
+      </c>
+      <c r="S181" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":115,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>182</v>
       </c>
@@ -12064,17 +12695,20 @@
         <v>Carolina Panthers</v>
       </c>
       <c r="P182" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q182" t="s">
         <v>202</v>
       </c>
-      <c r="Q182" t="s">
-        <v>0</v>
-      </c>
-      <c r="R182" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":116,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":"2018-10-28T13:00:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R182" t="s">
+        <v>0</v>
+      </c>
+      <c r="S182" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":116,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>183</v>
       </c>
@@ -12120,17 +12754,20 @@
         <v>Oakland Raiders</v>
       </c>
       <c r="P183" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q183" t="s">
         <v>203</v>
       </c>
-      <c r="Q183" t="s">
-        <v>0</v>
-      </c>
-      <c r="R183" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":117,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":"2018-10-28T16:05:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R183" t="s">
+        <v>0</v>
+      </c>
+      <c r="S183" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":117,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>184</v>
       </c>
@@ -12176,17 +12813,20 @@
         <v>Arizona Cardinals</v>
       </c>
       <c r="P184" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q184" t="s">
         <v>204</v>
       </c>
-      <c r="Q184" t="s">
-        <v>0</v>
-      </c>
-      <c r="R184" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":118,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":"2018-10-28T16:25:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R184" t="s">
+        <v>0</v>
+      </c>
+      <c r="S184" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":118,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>185</v>
       </c>
@@ -12232,17 +12872,20 @@
         <v>Los Angeles Rams</v>
       </c>
       <c r="P185" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q185" t="s">
         <v>204</v>
       </c>
-      <c r="Q185" t="s">
-        <v>0</v>
-      </c>
-      <c r="R185" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":119,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":"2018-10-28T16:25:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R185" t="s">
+        <v>0</v>
+      </c>
+      <c r="S185" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":119,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>186</v>
       </c>
@@ -12288,17 +12931,20 @@
         <v>Minnesota Vikings</v>
       </c>
       <c r="P186" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q186" t="s">
         <v>205</v>
       </c>
-      <c r="Q186" t="s">
-        <v>0</v>
-      </c>
-      <c r="R186" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":120,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":"2018-10-28T20:20:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R186" t="s">
+        <v>0</v>
+      </c>
+      <c r="S186" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":120,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>187</v>
       </c>
@@ -12344,17 +12990,20 @@
         <v>Buffalo Bills</v>
       </c>
       <c r="P187" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q187" t="s">
         <v>206</v>
       </c>
-      <c r="Q187" t="s">
-        <v>0</v>
-      </c>
-      <c r="R187" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":121,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":"2018-10-29T20:15:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R187" t="s">
+        <v>0</v>
+      </c>
+      <c r="S187" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":121,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-29T20:15:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>188</v>
       </c>
@@ -12400,17 +13049,20 @@
         <v>San Francisco 49ers</v>
       </c>
       <c r="P188" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q188" t="s">
         <v>207</v>
       </c>
-      <c r="Q188" t="s">
-        <v>0</v>
-      </c>
-      <c r="R188" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":122,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":"2018-11-01T20:20:00-04:00"}</v>
-      </c>
-    </row>
-    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R188" t="s">
+        <v>0</v>
+      </c>
+      <c r="S188" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":122,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-01T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>189</v>
       </c>
@@ -12456,17 +13108,20 @@
         <v>Baltimore Ravens</v>
       </c>
       <c r="P189" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q189" t="s">
         <v>208</v>
       </c>
-      <c r="Q189" t="s">
-        <v>0</v>
-      </c>
-      <c r="R189" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":123,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":"2018-11-04T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R189" t="s">
+        <v>0</v>
+      </c>
+      <c r="S189" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":123,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>190</v>
       </c>
@@ -12512,17 +13167,20 @@
         <v>Buffalo Bills</v>
       </c>
       <c r="P190" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q190" t="s">
         <v>208</v>
       </c>
-      <c r="Q190" t="s">
-        <v>0</v>
-      </c>
-      <c r="R190" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":124,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":"2018-11-04T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R190" t="s">
+        <v>0</v>
+      </c>
+      <c r="S190" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":124,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>191</v>
       </c>
@@ -12568,17 +13226,20 @@
         <v>Carolina Panthers</v>
       </c>
       <c r="P191" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q191" t="s">
         <v>208</v>
       </c>
-      <c r="Q191" t="s">
-        <v>0</v>
-      </c>
-      <c r="R191" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":125,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":"2018-11-04T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R191" t="s">
+        <v>0</v>
+      </c>
+      <c r="S191" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":125,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>192</v>
       </c>
@@ -12624,17 +13285,20 @@
         <v>Cleveland Browns</v>
       </c>
       <c r="P192" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q192" t="s">
         <v>208</v>
       </c>
-      <c r="Q192" t="s">
-        <v>0</v>
-      </c>
-      <c r="R192" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":126,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":"2018-11-04T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R192" t="s">
+        <v>0</v>
+      </c>
+      <c r="S192" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":126,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>193</v>
       </c>
@@ -12680,17 +13344,20 @@
         <v>Miami Dolphins</v>
       </c>
       <c r="P193" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q193" t="s">
         <v>208</v>
       </c>
-      <c r="Q193" t="s">
-        <v>0</v>
-      </c>
-      <c r="R193" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":127,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":"2018-11-04T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R193" t="s">
+        <v>0</v>
+      </c>
+      <c r="S193" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":127,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>194</v>
       </c>
@@ -12736,17 +13403,20 @@
         <v>Minnesota Vikings</v>
       </c>
       <c r="P194" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q194" t="s">
         <v>208</v>
       </c>
-      <c r="Q194" t="s">
-        <v>0</v>
-      </c>
-      <c r="R194" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":128,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":"2018-11-04T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R194" t="s">
+        <v>0</v>
+      </c>
+      <c r="S194" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":128,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>195</v>
       </c>
@@ -12792,17 +13462,20 @@
         <v>Washington Redskins</v>
       </c>
       <c r="P195" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q195" t="s">
         <v>208</v>
       </c>
-      <c r="Q195" t="s">
-        <v>0</v>
-      </c>
-      <c r="R195" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":129,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":"2018-11-04T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R195" t="s">
+        <v>0</v>
+      </c>
+      <c r="S195" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":129,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>196</v>
       </c>
@@ -12848,17 +13521,20 @@
         <v>Denver Broncos</v>
       </c>
       <c r="P196" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q196" t="s">
         <v>209</v>
       </c>
-      <c r="Q196" t="s">
-        <v>0</v>
-      </c>
-      <c r="R196" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":130,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":"2018-11-04T16:05:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R196" t="s">
+        <v>0</v>
+      </c>
+      <c r="S196" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":130,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>197</v>
       </c>
@@ -12904,17 +13580,20 @@
         <v>Seattle Seahawks</v>
       </c>
       <c r="P197" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q197" t="s">
         <v>209</v>
       </c>
-      <c r="Q197" t="s">
-        <v>0</v>
-      </c>
-      <c r="R197" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":131,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":"2018-11-04T16:05:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R197" t="s">
+        <v>0</v>
+      </c>
+      <c r="S197" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":131,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>198</v>
       </c>
@@ -12960,17 +13639,20 @@
         <v>New Orleans Saints</v>
       </c>
       <c r="P198" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q198" t="s">
         <v>210</v>
       </c>
-      <c r="Q198" t="s">
-        <v>0</v>
-      </c>
-      <c r="R198" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":132,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":"2018-11-04T16:25:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R198" t="s">
+        <v>0</v>
+      </c>
+      <c r="S198" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":132,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>199</v>
       </c>
@@ -13016,17 +13698,20 @@
         <v>New England Patriots</v>
       </c>
       <c r="P199" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q199" t="s">
         <v>211</v>
       </c>
-      <c r="Q199" t="s">
-        <v>0</v>
-      </c>
-      <c r="R199" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":133,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":"2018-11-04T20:20:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R199" t="s">
+        <v>0</v>
+      </c>
+      <c r="S199" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":133,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>200</v>
       </c>
@@ -13072,17 +13757,20 @@
         <v>Dallas Cowboys</v>
       </c>
       <c r="P200" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q200" t="s">
         <v>212</v>
       </c>
-      <c r="Q200" t="s">
-        <v>0</v>
-      </c>
-      <c r="R200" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":134,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":"2018-11-05T20:15:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R200" t="s">
+        <v>0</v>
+      </c>
+      <c r="S200" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":134,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-05T20:15:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>201</v>
       </c>
@@ -13128,17 +13816,20 @@
         <v>Pittsburgh Steelers</v>
       </c>
       <c r="P201" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q201" t="s">
         <v>213</v>
       </c>
-      <c r="Q201" t="s">
-        <v>0</v>
-      </c>
-      <c r="R201" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":135,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":"2018-11-08T20:20:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R201" t="s">
+        <v>0</v>
+      </c>
+      <c r="S201" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":135,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-08T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>202</v>
       </c>
@@ -13184,17 +13875,20 @@
         <v>Cleveland Browns</v>
       </c>
       <c r="P202" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q202" t="s">
         <v>214</v>
       </c>
-      <c r="Q202" t="s">
-        <v>0</v>
-      </c>
-      <c r="R202" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":136,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":"2018-11-11T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R202" t="s">
+        <v>0</v>
+      </c>
+      <c r="S202" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":136,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>203</v>
       </c>
@@ -13240,17 +13934,20 @@
         <v>Cincinnati Bengals</v>
       </c>
       <c r="P203" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q203" t="s">
         <v>214</v>
       </c>
-      <c r="Q203" t="s">
-        <v>0</v>
-      </c>
-      <c r="R203" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":137,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":"2018-11-11T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R203" t="s">
+        <v>0</v>
+      </c>
+      <c r="S203" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":137,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>204</v>
       </c>
@@ -13296,17 +13993,20 @@
         <v>Chicago Bears</v>
       </c>
       <c r="P204" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q204" t="s">
         <v>214</v>
       </c>
-      <c r="Q204" t="s">
-        <v>0</v>
-      </c>
-      <c r="R204" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":138,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":"2018-11-11T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R204" t="s">
+        <v>0</v>
+      </c>
+      <c r="S204" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":138,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>205</v>
       </c>
@@ -13352,17 +14052,20 @@
         <v>Green Bay Packers</v>
       </c>
       <c r="P205" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q205" t="s">
         <v>214</v>
       </c>
-      <c r="Q205" t="s">
-        <v>0</v>
-      </c>
-      <c r="R205" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":139,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":"2018-11-11T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R205" t="s">
+        <v>0</v>
+      </c>
+      <c r="S205" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":139,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>206</v>
       </c>
@@ -13408,17 +14111,20 @@
         <v>Tennessee Titans</v>
       </c>
       <c r="P206" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q206" t="s">
         <v>214</v>
       </c>
-      <c r="Q206" t="s">
-        <v>0</v>
-      </c>
-      <c r="R206" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":140,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":"2018-11-11T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R206" t="s">
+        <v>0</v>
+      </c>
+      <c r="S206" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":140,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>207</v>
       </c>
@@ -13464,17 +14170,20 @@
         <v>Tampa Bay Buccaneers</v>
       </c>
       <c r="P207" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q207" t="s">
         <v>214</v>
       </c>
-      <c r="Q207" t="s">
-        <v>0</v>
-      </c>
-      <c r="R207" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":141,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":"2018-11-11T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R207" t="s">
+        <v>0</v>
+      </c>
+      <c r="S207" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":141,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>208</v>
       </c>
@@ -13520,17 +14229,20 @@
         <v>New York Jets</v>
       </c>
       <c r="P208" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q208" t="s">
         <v>214</v>
       </c>
-      <c r="Q208" t="s">
-        <v>0</v>
-      </c>
-      <c r="R208" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":142,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":"2018-11-11T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R208" t="s">
+        <v>0</v>
+      </c>
+      <c r="S208" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":142,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>209</v>
       </c>
@@ -13576,17 +14288,20 @@
         <v>Kansas City Chiefs</v>
       </c>
       <c r="P209" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q209" t="s">
         <v>214</v>
       </c>
-      <c r="Q209" t="s">
-        <v>0</v>
-      </c>
-      <c r="R209" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":143,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":"2018-11-11T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R209" t="s">
+        <v>0</v>
+      </c>
+      <c r="S209" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":143,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>210</v>
       </c>
@@ -13632,17 +14347,20 @@
         <v>Indianapolis Colts</v>
       </c>
       <c r="P210" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q210" t="s">
         <v>214</v>
       </c>
-      <c r="Q210" t="s">
-        <v>0</v>
-      </c>
-      <c r="R210" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":144,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":"2018-11-11T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R210" t="s">
+        <v>0</v>
+      </c>
+      <c r="S210" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":144,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>211</v>
       </c>
@@ -13688,17 +14406,20 @@
         <v>Oakland Raiders</v>
       </c>
       <c r="P211" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q211" t="s">
         <v>215</v>
       </c>
-      <c r="Q211" t="s">
-        <v>0</v>
-      </c>
-      <c r="R211" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":145,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":"2018-11-11T16:05:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R211" t="s">
+        <v>0</v>
+      </c>
+      <c r="S211" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":145,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>212</v>
       </c>
@@ -13744,17 +14465,20 @@
         <v>Los Angeles Rams</v>
       </c>
       <c r="P212" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q212" t="s">
         <v>216</v>
       </c>
-      <c r="Q212" t="s">
-        <v>0</v>
-      </c>
-      <c r="R212" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":146,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":"2018-11-11T16:25:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R212" t="s">
+        <v>0</v>
+      </c>
+      <c r="S212" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":146,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>213</v>
       </c>
@@ -13800,17 +14524,20 @@
         <v>Philadelphia Eagles</v>
       </c>
       <c r="P213" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q213" t="s">
         <v>217</v>
       </c>
-      <c r="Q213" t="s">
-        <v>0</v>
-      </c>
-      <c r="R213" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":147,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":"2018-11-11T20:20:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R213" t="s">
+        <v>0</v>
+      </c>
+      <c r="S213" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":147,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>214</v>
       </c>
@@ -13856,17 +14583,20 @@
         <v>San Francisco 49ers</v>
       </c>
       <c r="P214" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q214" t="s">
         <v>218</v>
       </c>
-      <c r="Q214" t="s">
-        <v>0</v>
-      </c>
-      <c r="R214" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":148,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":"2018-11-12T20:15:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R214" t="s">
+        <v>0</v>
+      </c>
+      <c r="S214" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":148,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-12T20:15:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>215</v>
       </c>
@@ -13912,17 +14642,20 @@
         <v>Seattle Seahawks</v>
       </c>
       <c r="P215" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q215" t="s">
         <v>219</v>
       </c>
-      <c r="Q215" t="s">
-        <v>0</v>
-      </c>
-      <c r="R215" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":149,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":"2018-11-15T20:20:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R215" t="s">
+        <v>0</v>
+      </c>
+      <c r="S215" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":149,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-15T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>216</v>
       </c>
@@ -13968,17 +14701,20 @@
         <v>Chicago Bears</v>
       </c>
       <c r="P216" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q216" t="s">
         <v>220</v>
       </c>
-      <c r="Q216" t="s">
-        <v>0</v>
-      </c>
-      <c r="R216" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":150,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":"2018-11-18T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R216" t="s">
+        <v>0</v>
+      </c>
+      <c r="S216" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":150,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>217</v>
       </c>
@@ -14024,17 +14760,20 @@
         <v>Baltimore Ravens</v>
       </c>
       <c r="P217" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q217" t="s">
         <v>220</v>
       </c>
-      <c r="Q217" t="s">
-        <v>0</v>
-      </c>
-      <c r="R217" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":151,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":"2018-11-18T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R217" t="s">
+        <v>0</v>
+      </c>
+      <c r="S217" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":151,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>218</v>
       </c>
@@ -14080,17 +14819,20 @@
         <v>Atlanta Falcons</v>
       </c>
       <c r="P218" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q218" t="s">
         <v>220</v>
       </c>
-      <c r="Q218" t="s">
-        <v>0</v>
-      </c>
-      <c r="R218" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":152,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":"2018-11-18T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R218" t="s">
+        <v>0</v>
+      </c>
+      <c r="S218" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":152,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>219</v>
       </c>
@@ -14136,17 +14878,20 @@
         <v>Detroit Lions</v>
       </c>
       <c r="P219" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q219" t="s">
         <v>220</v>
       </c>
-      <c r="Q219" t="s">
-        <v>0</v>
-      </c>
-      <c r="R219" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":153,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":"2018-11-18T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R219" t="s">
+        <v>0</v>
+      </c>
+      <c r="S219" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":153,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>220</v>
       </c>
@@ -14192,17 +14937,20 @@
         <v>New Orleans Saints</v>
       </c>
       <c r="P220" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q220" t="s">
         <v>220</v>
       </c>
-      <c r="Q220" t="s">
-        <v>0</v>
-      </c>
-      <c r="R220" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":154,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":"2018-11-18T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R220" t="s">
+        <v>0</v>
+      </c>
+      <c r="S220" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":154,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>221</v>
       </c>
@@ -14248,17 +14996,20 @@
         <v>Washington Redskins</v>
       </c>
       <c r="P221" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q221" t="s">
         <v>220</v>
       </c>
-      <c r="Q221" t="s">
-        <v>0</v>
-      </c>
-      <c r="R221" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":155,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":"2018-11-18T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R221" t="s">
+        <v>0</v>
+      </c>
+      <c r="S221" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":155,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>222</v>
       </c>
@@ -14304,17 +15055,20 @@
         <v>New York Giants</v>
       </c>
       <c r="P222" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q222" t="s">
         <v>220</v>
       </c>
-      <c r="Q222" t="s">
-        <v>0</v>
-      </c>
-      <c r="R222" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":156,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":"2018-11-18T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R222" t="s">
+        <v>0</v>
+      </c>
+      <c r="S222" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":156,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>223</v>
       </c>
@@ -14360,17 +15114,20 @@
         <v>Indianapolis Colts</v>
       </c>
       <c r="P223" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q223" t="s">
         <v>220</v>
       </c>
-      <c r="Q223" t="s">
-        <v>0</v>
-      </c>
-      <c r="R223" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":157,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":"2018-11-18T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R223" t="s">
+        <v>0</v>
+      </c>
+      <c r="S223" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":157,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>224</v>
       </c>
@@ -14416,17 +15173,20 @@
         <v>Arizona Cardinals</v>
       </c>
       <c r="P224" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q224" t="s">
         <v>221</v>
       </c>
-      <c r="Q224" t="s">
-        <v>0</v>
-      </c>
-      <c r="R224" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":158,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":"2018-11-18T16:05:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R224" t="s">
+        <v>0</v>
+      </c>
+      <c r="S224" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":158,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>225</v>
       </c>
@@ -14472,17 +15232,20 @@
         <v>Los Angeles Chargers</v>
       </c>
       <c r="P225" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q225" t="s">
         <v>221</v>
       </c>
-      <c r="Q225" t="s">
-        <v>0</v>
-      </c>
-      <c r="R225" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":159,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":"2018-11-18T16:05:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R225" t="s">
+        <v>0</v>
+      </c>
+      <c r="S225" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":159,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>226</v>
       </c>
@@ -14528,17 +15291,20 @@
         <v>Jacksonville Jaguars</v>
       </c>
       <c r="P226" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q226" t="s">
         <v>222</v>
       </c>
-      <c r="Q226" t="s">
-        <v>0</v>
-      </c>
-      <c r="R226" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":160,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":"2018-11-18T20:20:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R226" t="s">
+        <v>0</v>
+      </c>
+      <c r="S226" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":160,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>227</v>
       </c>
@@ -14584,17 +15350,20 @@
         <v>Los Angeles Rams</v>
       </c>
       <c r="P227" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q227" t="s">
         <v>225</v>
       </c>
-      <c r="Q227" t="s">
-        <v>0</v>
-      </c>
-      <c r="R227" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":161,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":"2018-11-19T20:15:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R227" t="s">
+        <v>0</v>
+      </c>
+      <c r="S227" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":161,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-19T20:15:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>228</v>
       </c>
@@ -14640,17 +15409,20 @@
         <v>Detroit Lions</v>
       </c>
       <c r="P228" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q228" t="s">
         <v>226</v>
       </c>
-      <c r="Q228" t="s">
-        <v>0</v>
-      </c>
-      <c r="R228" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":162,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":"2018-11-22T12:30:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R228" t="s">
+        <v>0</v>
+      </c>
+      <c r="S228" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":162,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-22T12:30:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>229</v>
       </c>
@@ -14696,17 +15468,20 @@
         <v>Dallas Cowboys</v>
       </c>
       <c r="P229" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q229" t="s">
         <v>227</v>
       </c>
-      <c r="Q229" t="s">
-        <v>0</v>
-      </c>
-      <c r="R229" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":163,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":"2018-11-22T16:30:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R229" t="s">
+        <v>0</v>
+      </c>
+      <c r="S229" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":163,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-22T16:30:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>230</v>
       </c>
@@ -14752,17 +15527,20 @@
         <v>New Orleans Saints</v>
       </c>
       <c r="P230" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q230" t="s">
         <v>228</v>
       </c>
-      <c r="Q230" t="s">
-        <v>0</v>
-      </c>
-      <c r="R230" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":164,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":"2018-11-22T20:20:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R230" t="s">
+        <v>0</v>
+      </c>
+      <c r="S230" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":164,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-22T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>231</v>
       </c>
@@ -14808,17 +15586,20 @@
         <v>Philadelphia Eagles</v>
       </c>
       <c r="P231" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q231" t="s">
         <v>229</v>
       </c>
-      <c r="Q231" t="s">
-        <v>0</v>
-      </c>
-      <c r="R231" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":165,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":"2018-11-25T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R231" t="s">
+        <v>0</v>
+      </c>
+      <c r="S231" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":165,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>232</v>
       </c>
@@ -14864,17 +15645,20 @@
         <v>New York Jets</v>
       </c>
       <c r="P232" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q232" t="s">
         <v>229</v>
       </c>
-      <c r="Q232" t="s">
-        <v>0</v>
-      </c>
-      <c r="R232" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":166,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":"2018-11-25T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R232" t="s">
+        <v>0</v>
+      </c>
+      <c r="S232" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":166,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>233</v>
       </c>
@@ -14920,17 +15704,20 @@
         <v>Indianapolis Colts</v>
       </c>
       <c r="P233" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q233" t="s">
         <v>229</v>
       </c>
-      <c r="Q233" t="s">
-        <v>0</v>
-      </c>
-      <c r="R233" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":167,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":"2018-11-25T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R233" t="s">
+        <v>0</v>
+      </c>
+      <c r="S233" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":167,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>234</v>
       </c>
@@ -14976,17 +15763,20 @@
         <v>Cincinnati Bengals</v>
       </c>
       <c r="P234" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q234" t="s">
         <v>229</v>
       </c>
-      <c r="Q234" t="s">
-        <v>0</v>
-      </c>
-      <c r="R234" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":168,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":"2018-11-25T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R234" t="s">
+        <v>0</v>
+      </c>
+      <c r="S234" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":168,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>235</v>
       </c>
@@ -15032,17 +15822,20 @@
         <v>Carolina Panthers</v>
       </c>
       <c r="P235" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q235" t="s">
         <v>229</v>
       </c>
-      <c r="Q235" t="s">
-        <v>0</v>
-      </c>
-      <c r="R235" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":169,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":"2018-11-25T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R235" t="s">
+        <v>0</v>
+      </c>
+      <c r="S235" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":169,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>236</v>
       </c>
@@ -15088,17 +15881,20 @@
         <v>Buffalo Bills</v>
       </c>
       <c r="P236" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q236" t="s">
         <v>229</v>
       </c>
-      <c r="Q236" t="s">
-        <v>0</v>
-      </c>
-      <c r="R236" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":170,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":"2018-11-25T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R236" t="s">
+        <v>0</v>
+      </c>
+      <c r="S236" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":170,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>237</v>
       </c>
@@ -15144,17 +15940,20 @@
         <v>Tampa Bay Buccaneers</v>
       </c>
       <c r="P237" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q237" t="s">
         <v>229</v>
       </c>
-      <c r="Q237" t="s">
-        <v>0</v>
-      </c>
-      <c r="R237" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":171,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":"2018-11-25T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R237" t="s">
+        <v>0</v>
+      </c>
+      <c r="S237" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":171,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>238</v>
       </c>
@@ -15200,17 +15999,20 @@
         <v>Baltimore Ravens</v>
       </c>
       <c r="P238" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q238" t="s">
         <v>229</v>
       </c>
-      <c r="Q238" t="s">
-        <v>0</v>
-      </c>
-      <c r="R238" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":172,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":"2018-11-25T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R238" t="s">
+        <v>0</v>
+      </c>
+      <c r="S238" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":172,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>239</v>
       </c>
@@ -15256,17 +16058,20 @@
         <v>Los Angeles Chargers</v>
       </c>
       <c r="P239" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q239" t="s">
         <v>230</v>
       </c>
-      <c r="Q239" t="s">
-        <v>0</v>
-      </c>
-      <c r="R239" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":173,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":"2018-11-25T16:05:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R239" t="s">
+        <v>0</v>
+      </c>
+      <c r="S239" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":173,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>240</v>
       </c>
@@ -15312,17 +16117,20 @@
         <v>Denver Broncos</v>
       </c>
       <c r="P240" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q240" t="s">
         <v>231</v>
       </c>
-      <c r="Q240" t="s">
-        <v>0</v>
-      </c>
-      <c r="R240" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":174,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":"2018-11-25T16:25:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R240" t="s">
+        <v>0</v>
+      </c>
+      <c r="S240" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":174,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>241</v>
       </c>
@@ -15368,17 +16176,20 @@
         <v>Minnesota Vikings</v>
       </c>
       <c r="P241" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q241" t="s">
         <v>232</v>
       </c>
-      <c r="Q241" t="s">
-        <v>0</v>
-      </c>
-      <c r="R241" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":175,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":"2018-11-25T20:20:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R241" t="s">
+        <v>0</v>
+      </c>
+      <c r="S241" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":175,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>242</v>
       </c>
@@ -15424,17 +16235,20 @@
         <v>Houston Texans</v>
       </c>
       <c r="P242" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q242" t="s">
         <v>233</v>
       </c>
-      <c r="Q242" t="s">
-        <v>0</v>
-      </c>
-      <c r="R242" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":176,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":"2018-11-26T20:15:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R242" t="s">
+        <v>0</v>
+      </c>
+      <c r="S242" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":176,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-26T20:15:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>243</v>
       </c>
@@ -15480,17 +16294,20 @@
         <v>Dallas Cowboys</v>
       </c>
       <c r="P243" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q243" t="s">
         <v>234</v>
       </c>
-      <c r="Q243" t="s">
-        <v>0</v>
-      </c>
-      <c r="R243" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":177,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":"2018-11-29T20:20:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R243" t="s">
+        <v>0</v>
+      </c>
+      <c r="S243" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":177,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-29T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>244</v>
       </c>
@@ -15536,17 +16353,20 @@
         <v>Atlanta Falcons</v>
       </c>
       <c r="P244" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q244" t="s">
         <v>235</v>
       </c>
-      <c r="Q244" t="s">
-        <v>0</v>
-      </c>
-      <c r="R244" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":178,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":"2018-12-02T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R244" t="s">
+        <v>0</v>
+      </c>
+      <c r="S244" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":178,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>245</v>
       </c>
@@ -15592,17 +16412,20 @@
         <v>Cincinnati Bengals</v>
       </c>
       <c r="P245" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q245" t="s">
         <v>235</v>
       </c>
-      <c r="Q245" t="s">
-        <v>0</v>
-      </c>
-      <c r="R245" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":179,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":"2018-12-02T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R245" t="s">
+        <v>0</v>
+      </c>
+      <c r="S245" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":179,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>246</v>
       </c>
@@ -15648,17 +16471,20 @@
         <v>Tampa Bay Buccaneers</v>
       </c>
       <c r="P246" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q246" t="s">
         <v>235</v>
       </c>
-      <c r="Q246" t="s">
-        <v>0</v>
-      </c>
-      <c r="R246" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":180,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":"2018-12-02T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R246" t="s">
+        <v>0</v>
+      </c>
+      <c r="S246" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":180,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>247</v>
       </c>
@@ -15704,17 +16530,20 @@
         <v>Pittsburgh Steelers</v>
       </c>
       <c r="P247" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q247" t="s">
         <v>235</v>
       </c>
-      <c r="Q247" t="s">
-        <v>0</v>
-      </c>
-      <c r="R247" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":181,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":"2018-12-02T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R247" t="s">
+        <v>0</v>
+      </c>
+      <c r="S247" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":181,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>248</v>
       </c>
@@ -15760,17 +16589,20 @@
         <v>New York Giants</v>
       </c>
       <c r="P248" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q248" t="s">
         <v>235</v>
       </c>
-      <c r="Q248" t="s">
-        <v>0</v>
-      </c>
-      <c r="R248" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":182,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":"2018-12-02T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R248" t="s">
+        <v>0</v>
+      </c>
+      <c r="S248" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":182,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>249</v>
       </c>
@@ -15816,17 +16648,20 @@
         <v>Miami Dolphins</v>
       </c>
       <c r="P249" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q249" t="s">
         <v>235</v>
       </c>
-      <c r="Q249" t="s">
-        <v>0</v>
-      </c>
-      <c r="R249" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":183,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":"2018-12-02T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R249" t="s">
+        <v>0</v>
+      </c>
+      <c r="S249" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":183,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>250</v>
       </c>
@@ -15872,17 +16707,20 @@
         <v>Detroit Lions</v>
       </c>
       <c r="P250" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q250" t="s">
         <v>235</v>
       </c>
-      <c r="Q250" t="s">
-        <v>0</v>
-      </c>
-      <c r="R250" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":184,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":"2018-12-02T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="251" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R250" t="s">
+        <v>0</v>
+      </c>
+      <c r="S250" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":184,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>251</v>
       </c>
@@ -15928,17 +16766,20 @@
         <v>Green Bay Packers</v>
       </c>
       <c r="P251" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q251" t="s">
         <v>235</v>
       </c>
-      <c r="Q251" t="s">
-        <v>0</v>
-      </c>
-      <c r="R251" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":185,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":"2018-12-02T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R251" t="s">
+        <v>0</v>
+      </c>
+      <c r="S251" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":185,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>252</v>
       </c>
@@ -15984,17 +16825,20 @@
         <v>Houston Texans</v>
       </c>
       <c r="P252" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q252" t="s">
         <v>235</v>
       </c>
-      <c r="Q252" t="s">
-        <v>0</v>
-      </c>
-      <c r="R252" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":186,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":"2018-12-02T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R252" t="s">
+        <v>0</v>
+      </c>
+      <c r="S252" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":186,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>253</v>
       </c>
@@ -16040,17 +16884,20 @@
         <v>Jacksonville Jaguars</v>
       </c>
       <c r="P253" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q253" t="s">
         <v>235</v>
       </c>
-      <c r="Q253" t="s">
-        <v>0</v>
-      </c>
-      <c r="R253" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":187,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":"2018-12-02T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R253" t="s">
+        <v>0</v>
+      </c>
+      <c r="S253" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":187,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>254</v>
       </c>
@@ -16096,17 +16943,20 @@
         <v>Tennessee Titans</v>
       </c>
       <c r="P254" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q254" t="s">
         <v>236</v>
       </c>
-      <c r="Q254" t="s">
-        <v>0</v>
-      </c>
-      <c r="R254" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":188,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":"2018-12-02T16:05:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R254" t="s">
+        <v>0</v>
+      </c>
+      <c r="S254" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":188,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>255</v>
       </c>
@@ -16152,17 +17002,20 @@
         <v>Oakland Raiders</v>
       </c>
       <c r="P255" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q255" t="s">
         <v>236</v>
       </c>
-      <c r="Q255" t="s">
-        <v>0</v>
-      </c>
-      <c r="R255" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":189,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":"2018-12-02T16:05:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R255" t="s">
+        <v>0</v>
+      </c>
+      <c r="S255" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":189,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>256</v>
       </c>
@@ -16208,17 +17061,20 @@
         <v>New England Patriots</v>
       </c>
       <c r="P256" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q256" t="s">
         <v>237</v>
       </c>
-      <c r="Q256" t="s">
-        <v>0</v>
-      </c>
-      <c r="R256" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":190,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":"2018-12-02T16:25:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R256" t="s">
+        <v>0</v>
+      </c>
+      <c r="S256" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":190,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>257</v>
       </c>
@@ -16264,17 +17120,20 @@
         <v>Seattle Seahawks</v>
       </c>
       <c r="P257" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q257" t="s">
         <v>238</v>
       </c>
-      <c r="Q257" t="s">
-        <v>0</v>
-      </c>
-      <c r="R257" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":191,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":"2018-12-02T20:20:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R257" t="s">
+        <v>0</v>
+      </c>
+      <c r="S257" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":191,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>258</v>
       </c>
@@ -16320,17 +17179,20 @@
         <v>Philadelphia Eagles</v>
       </c>
       <c r="P258" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q258" t="s">
         <v>239</v>
       </c>
-      <c r="Q258" t="s">
-        <v>0</v>
-      </c>
-      <c r="R258" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":192,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":"2018-12-03T20:15:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R258" t="s">
+        <v>0</v>
+      </c>
+      <c r="S258" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":192,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-03T20:15:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>259</v>
       </c>
@@ -16376,17 +17238,20 @@
         <v>Tennessee Titans</v>
       </c>
       <c r="P259" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q259" t="s">
         <v>240</v>
       </c>
-      <c r="Q259" t="s">
-        <v>0</v>
-      </c>
-      <c r="R259" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":193,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":"2018-12-06T20:20:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R259" t="s">
+        <v>0</v>
+      </c>
+      <c r="S259" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":193,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-06T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>260</v>
       </c>
@@ -16432,17 +17297,20 @@
         <v>Buffalo Bills</v>
       </c>
       <c r="P260" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q260" t="s">
         <v>241</v>
       </c>
-      <c r="Q260" t="s">
-        <v>0</v>
-      </c>
-      <c r="R260" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":194,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":"2018-12-09T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R260" t="s">
+        <v>0</v>
+      </c>
+      <c r="S260" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":194,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>261</v>
       </c>
@@ -16488,17 +17356,20 @@
         <v>Chicago Bears</v>
       </c>
       <c r="P261" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q261" t="s">
         <v>241</v>
       </c>
-      <c r="Q261" t="s">
-        <v>0</v>
-      </c>
-      <c r="R261" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":195,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":"2018-12-09T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R261" t="s">
+        <v>0</v>
+      </c>
+      <c r="S261" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":195,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>262</v>
       </c>
@@ -16544,17 +17415,20 @@
         <v>Washington Redskins</v>
       </c>
       <c r="P262" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q262" t="s">
         <v>241</v>
       </c>
-      <c r="Q262" t="s">
-        <v>0</v>
-      </c>
-      <c r="R262" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":196,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":"2018-12-09T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R262" t="s">
+        <v>0</v>
+      </c>
+      <c r="S262" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":196,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>263</v>
       </c>
@@ -16600,17 +17474,20 @@
         <v>Tampa Bay Buccaneers</v>
       </c>
       <c r="P263" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q263" t="s">
         <v>241</v>
       </c>
-      <c r="Q263" t="s">
-        <v>0</v>
-      </c>
-      <c r="R263" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":197,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":"2018-12-09T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R263" t="s">
+        <v>0</v>
+      </c>
+      <c r="S263" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":197,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>264</v>
       </c>
@@ -16656,17 +17533,20 @@
         <v>Miami Dolphins</v>
       </c>
       <c r="P264" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q264" t="s">
         <v>241</v>
       </c>
-      <c r="Q264" t="s">
-        <v>0</v>
-      </c>
-      <c r="R264" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":198,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":"2018-12-09T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R264" t="s">
+        <v>0</v>
+      </c>
+      <c r="S264" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":198,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>265</v>
       </c>
@@ -16712,17 +17592,20 @@
         <v>Kansas City Chiefs</v>
       </c>
       <c r="P265" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q265" t="s">
         <v>241</v>
       </c>
-      <c r="Q265" t="s">
-        <v>0</v>
-      </c>
-      <c r="R265" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":199,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":"2018-12-09T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R265" t="s">
+        <v>0</v>
+      </c>
+      <c r="S265" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":199,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>266</v>
       </c>
@@ -16768,17 +17651,20 @@
         <v>Houston Texans</v>
       </c>
       <c r="P266" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q266" t="s">
         <v>241</v>
       </c>
-      <c r="Q266" t="s">
-        <v>0</v>
-      </c>
-      <c r="R266" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":200,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":"2018-12-09T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R266" t="s">
+        <v>0</v>
+      </c>
+      <c r="S266" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":200,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>267</v>
       </c>
@@ -16824,17 +17710,20 @@
         <v>Cleveland Browns</v>
       </c>
       <c r="P267" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q267" t="s">
         <v>241</v>
       </c>
-      <c r="Q267" t="s">
-        <v>0</v>
-      </c>
-      <c r="R267" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":201,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":"2018-12-09T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R267" t="s">
+        <v>0</v>
+      </c>
+      <c r="S267" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":201,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>268</v>
       </c>
@@ -16880,17 +17769,20 @@
         <v>Green Bay Packers</v>
       </c>
       <c r="P268" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q268" t="s">
         <v>241</v>
       </c>
-      <c r="Q268" t="s">
-        <v>0</v>
-      </c>
-      <c r="R268" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":202,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":"2018-12-09T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R268" t="s">
+        <v>0</v>
+      </c>
+      <c r="S268" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":202,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>269</v>
       </c>
@@ -16936,17 +17828,20 @@
         <v>San Francisco 49ers</v>
       </c>
       <c r="P269" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q269" t="s">
         <v>242</v>
       </c>
-      <c r="Q269" t="s">
-        <v>0</v>
-      </c>
-      <c r="R269" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":203,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":"2018-12-09T16:05:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R269" t="s">
+        <v>0</v>
+      </c>
+      <c r="S269" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":203,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>270</v>
       </c>
@@ -16992,17 +17887,20 @@
         <v>Los Angeles Chargers</v>
       </c>
       <c r="P270" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q270" t="s">
         <v>242</v>
       </c>
-      <c r="Q270" t="s">
-        <v>0</v>
-      </c>
-      <c r="R270" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":204,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":"2018-12-09T16:05:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R270" t="s">
+        <v>0</v>
+      </c>
+      <c r="S270" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":204,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>271</v>
       </c>
@@ -17048,17 +17946,20 @@
         <v>Arizona Cardinals</v>
       </c>
       <c r="P271" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q271" t="s">
         <v>243</v>
       </c>
-      <c r="Q271" t="s">
-        <v>0</v>
-      </c>
-      <c r="R271" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":205,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":"2018-12-09T16:25:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R271" t="s">
+        <v>0</v>
+      </c>
+      <c r="S271" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":205,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>272</v>
       </c>
@@ -17104,17 +18005,20 @@
         <v>Dallas Cowboys</v>
       </c>
       <c r="P272" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q272" t="s">
         <v>243</v>
       </c>
-      <c r="Q272" t="s">
-        <v>0</v>
-      </c>
-      <c r="R272" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":206,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":"2018-12-09T16:25:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R272" t="s">
+        <v>0</v>
+      </c>
+      <c r="S272" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":206,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>273</v>
       </c>
@@ -17160,17 +18064,20 @@
         <v>Oakland Raiders</v>
       </c>
       <c r="P273" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q273" t="s">
         <v>244</v>
       </c>
-      <c r="Q273" t="s">
-        <v>0</v>
-      </c>
-      <c r="R273" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":207,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":"2018-12-09T20:20:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R273" t="s">
+        <v>0</v>
+      </c>
+      <c r="S273" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":207,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>274</v>
       </c>
@@ -17216,17 +18123,20 @@
         <v>Seattle Seahawks</v>
       </c>
       <c r="P274" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q274" t="s">
         <v>245</v>
       </c>
-      <c r="Q274" t="s">
-        <v>0</v>
-      </c>
-      <c r="R274" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":208,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":"2018-12-10T20:15:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R274" t="s">
+        <v>0</v>
+      </c>
+      <c r="S274" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":208,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-10T20:15:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>275</v>
       </c>
@@ -17272,17 +18182,20 @@
         <v>Kansas City Chiefs</v>
       </c>
       <c r="P275" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q275" t="s">
         <v>246</v>
       </c>
-      <c r="Q275" t="s">
-        <v>0</v>
-      </c>
-      <c r="R275" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":209,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":"2018-12-13T20:20:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R275" t="s">
+        <v>0</v>
+      </c>
+      <c r="S275" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":209,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-13T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>276</v>
       </c>
@@ -17328,17 +18241,20 @@
         <v>New York Jets</v>
       </c>
       <c r="P276" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q276" t="s">
         <v>247</v>
       </c>
-      <c r="Q276" t="s">
-        <v>0</v>
-      </c>
-      <c r="R276" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":210,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":"2018-12-15T16:30:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R276" t="s">
+        <v>0</v>
+      </c>
+      <c r="S276" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":210,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-15T16:30:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>277</v>
       </c>
@@ -17384,17 +18300,20 @@
         <v>Denver Broncos</v>
       </c>
       <c r="P277" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q277" t="s">
         <v>247</v>
       </c>
-      <c r="Q277" t="s">
-        <v>0</v>
-      </c>
-      <c r="R277" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":211,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":"2018-12-15T16:30:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R277" t="s">
+        <v>0</v>
+      </c>
+      <c r="S277" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":211,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-15T16:30:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>278</v>
       </c>
@@ -17440,17 +18359,20 @@
         <v>Buffalo Bills</v>
       </c>
       <c r="P278" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q278" t="s">
         <v>248</v>
       </c>
-      <c r="Q278" t="s">
-        <v>0</v>
-      </c>
-      <c r="R278" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":212,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":"2018-12-16T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R278" t="s">
+        <v>0</v>
+      </c>
+      <c r="S278" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":212,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>279</v>
       </c>
@@ -17496,17 +18418,20 @@
         <v>Chicago Bears</v>
       </c>
       <c r="P279" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q279" t="s">
         <v>248</v>
       </c>
-      <c r="Q279" t="s">
-        <v>0</v>
-      </c>
-      <c r="R279" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":213,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":"2018-12-16T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R279" t="s">
+        <v>0</v>
+      </c>
+      <c r="S279" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":213,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>280</v>
       </c>
@@ -17552,17 +18477,20 @@
         <v>Cincinnati Bengals</v>
       </c>
       <c r="P280" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q280" t="s">
         <v>248</v>
       </c>
-      <c r="Q280" t="s">
-        <v>0</v>
-      </c>
-      <c r="R280" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":214,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":"2018-12-16T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R280" t="s">
+        <v>0</v>
+      </c>
+      <c r="S280" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":214,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>281</v>
       </c>
@@ -17608,17 +18536,20 @@
         <v>Baltimore Ravens</v>
       </c>
       <c r="P281" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q281" t="s">
         <v>248</v>
       </c>
-      <c r="Q281" t="s">
-        <v>0</v>
-      </c>
-      <c r="R281" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":215,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":"2018-12-16T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R281" t="s">
+        <v>0</v>
+      </c>
+      <c r="S281" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":215,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>282</v>
       </c>
@@ -17664,17 +18595,20 @@
         <v>Atlanta Falcons</v>
       </c>
       <c r="P282" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q282" t="s">
         <v>248</v>
       </c>
-      <c r="Q282" t="s">
-        <v>0</v>
-      </c>
-      <c r="R282" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":216,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":"2018-12-16T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R282" t="s">
+        <v>0</v>
+      </c>
+      <c r="S282" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":216,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>283</v>
       </c>
@@ -17720,17 +18654,20 @@
         <v>Indianapolis Colts</v>
       </c>
       <c r="P283" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q283" t="s">
         <v>248</v>
       </c>
-      <c r="Q283" t="s">
-        <v>0</v>
-      </c>
-      <c r="R283" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":217,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":"2018-12-16T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R283" t="s">
+        <v>0</v>
+      </c>
+      <c r="S283" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":217,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>284</v>
       </c>
@@ -17776,17 +18713,20 @@
         <v>New York Giants</v>
       </c>
       <c r="P284" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q284" t="s">
         <v>248</v>
       </c>
-      <c r="Q284" t="s">
-        <v>0</v>
-      </c>
-      <c r="R284" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":218,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":"2018-12-16T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R284" t="s">
+        <v>0</v>
+      </c>
+      <c r="S284" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":218,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>285</v>
       </c>
@@ -17832,17 +18772,20 @@
         <v>Minnesota Vikings</v>
       </c>
       <c r="P285" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q285" t="s">
         <v>248</v>
       </c>
-      <c r="Q285" t="s">
-        <v>0</v>
-      </c>
-      <c r="R285" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":219,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":"2018-12-16T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R285" t="s">
+        <v>0</v>
+      </c>
+      <c r="S285" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":219,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>286</v>
       </c>
@@ -17888,17 +18831,20 @@
         <v>Jacksonville Jaguars</v>
       </c>
       <c r="P286" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q286" t="s">
         <v>248</v>
       </c>
-      <c r="Q286" t="s">
-        <v>0</v>
-      </c>
-      <c r="R286" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":220,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":"2018-12-16T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R286" t="s">
+        <v>0</v>
+      </c>
+      <c r="S286" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":220,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>287</v>
       </c>
@@ -17944,17 +18890,20 @@
         <v>San Francisco 49ers</v>
       </c>
       <c r="P287" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q287" t="s">
         <v>249</v>
       </c>
-      <c r="Q287" t="s">
-        <v>0</v>
-      </c>
-      <c r="R287" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":221,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":"2018-12-16T16:05:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R287" t="s">
+        <v>0</v>
+      </c>
+      <c r="S287" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":221,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>288</v>
       </c>
@@ -18000,17 +18949,20 @@
         <v>Pittsburgh Steelers</v>
       </c>
       <c r="P288" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q288" t="s">
         <v>250</v>
       </c>
-      <c r="Q288" t="s">
-        <v>0</v>
-      </c>
-      <c r="R288" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":222,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":"2018-12-16T16:25:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R288" t="s">
+        <v>0</v>
+      </c>
+      <c r="S288" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":222,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>289</v>
       </c>
@@ -18056,17 +19008,20 @@
         <v>Los Angeles Rams</v>
       </c>
       <c r="P289" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q289" t="s">
         <v>251</v>
       </c>
-      <c r="Q289" t="s">
-        <v>0</v>
-      </c>
-      <c r="R289" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":223,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":"2018-12-16T20:20:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R289" t="s">
+        <v>0</v>
+      </c>
+      <c r="S289" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":223,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>290</v>
       </c>
@@ -18112,17 +19067,20 @@
         <v>Carolina Panthers</v>
       </c>
       <c r="P290" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q290" t="s">
         <v>252</v>
       </c>
-      <c r="Q290" t="s">
-        <v>0</v>
-      </c>
-      <c r="R290" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":224,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":"2018-12-17T20:15:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R290" t="s">
+        <v>0</v>
+      </c>
+      <c r="S290" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":224,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-17T20:15:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>291</v>
       </c>
@@ -18168,17 +19126,20 @@
         <v>Indianapolis Colts</v>
       </c>
       <c r="P291" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q291" t="s">
         <v>253</v>
       </c>
-      <c r="Q291" t="s">
-        <v>0</v>
-      </c>
-      <c r="R291" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":225,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":"2018-12-23T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R291" t="s">
+        <v>0</v>
+      </c>
+      <c r="S291" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":225,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>292</v>
       </c>
@@ -18224,17 +19185,20 @@
         <v>Philadelphia Eagles</v>
       </c>
       <c r="P292" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q292" t="s">
         <v>253</v>
       </c>
-      <c r="Q292" t="s">
-        <v>0</v>
-      </c>
-      <c r="R292" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":226,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":"2018-12-23T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R292" t="s">
+        <v>0</v>
+      </c>
+      <c r="S292" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":226,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>293</v>
       </c>
@@ -18280,17 +19244,20 @@
         <v>New York Jets</v>
       </c>
       <c r="P293" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q293" t="s">
         <v>253</v>
       </c>
-      <c r="Q293" t="s">
-        <v>0</v>
-      </c>
-      <c r="R293" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":227,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":"2018-12-23T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R293" t="s">
+        <v>0</v>
+      </c>
+      <c r="S293" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":227,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>294</v>
       </c>
@@ -18336,17 +19303,20 @@
         <v>New England Patriots</v>
       </c>
       <c r="P294" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q294" t="s">
         <v>253</v>
       </c>
-      <c r="Q294" t="s">
-        <v>0</v>
-      </c>
-      <c r="R294" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":228,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":"2018-12-23T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R294" t="s">
+        <v>0</v>
+      </c>
+      <c r="S294" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":228,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>295</v>
       </c>
@@ -18392,17 +19362,20 @@
         <v>Detroit Lions</v>
       </c>
       <c r="P295" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q295" t="s">
         <v>253</v>
       </c>
-      <c r="Q295" t="s">
-        <v>0</v>
-      </c>
-      <c r="R295" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":229,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":"2018-12-23T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R295" t="s">
+        <v>0</v>
+      </c>
+      <c r="S295" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":229,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>296</v>
       </c>
@@ -18448,17 +19421,20 @@
         <v>Dallas Cowboys</v>
       </c>
       <c r="P296" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q296" t="s">
         <v>253</v>
       </c>
-      <c r="Q296" t="s">
-        <v>0</v>
-      </c>
-      <c r="R296" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":230,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":"2018-12-23T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R296" t="s">
+        <v>0</v>
+      </c>
+      <c r="S296" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":230,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>297</v>
       </c>
@@ -18504,17 +19480,20 @@
         <v>Miami Dolphins</v>
       </c>
       <c r="P297" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q297" t="s">
         <v>253</v>
       </c>
-      <c r="Q297" t="s">
-        <v>0</v>
-      </c>
-      <c r="R297" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":231,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":"2018-12-23T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R297" t="s">
+        <v>0</v>
+      </c>
+      <c r="S297" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":231,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>298</v>
       </c>
@@ -18560,17 +19539,20 @@
         <v>Tennessee Titans</v>
       </c>
       <c r="P298" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q298" t="s">
         <v>253</v>
       </c>
-      <c r="Q298" t="s">
-        <v>0</v>
-      </c>
-      <c r="R298" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":232,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":"2018-12-23T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R298" t="s">
+        <v>0</v>
+      </c>
+      <c r="S298" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":232,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>299</v>
       </c>
@@ -18616,17 +19598,20 @@
         <v>Carolina Panthers</v>
       </c>
       <c r="P299" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q299" t="s">
         <v>253</v>
       </c>
-      <c r="Q299" t="s">
-        <v>0</v>
-      </c>
-      <c r="R299" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":233,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":"2018-12-23T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R299" t="s">
+        <v>0</v>
+      </c>
+      <c r="S299" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":233,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>300</v>
       </c>
@@ -18672,17 +19657,20 @@
         <v>Cleveland Browns</v>
       </c>
       <c r="P300" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q300" t="s">
         <v>253</v>
       </c>
-      <c r="Q300" t="s">
-        <v>0</v>
-      </c>
-      <c r="R300" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":234,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":"2018-12-23T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R300" t="s">
+        <v>0</v>
+      </c>
+      <c r="S300" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":234,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>301</v>
       </c>
@@ -18728,17 +19716,20 @@
         <v>San Francisco 49ers</v>
       </c>
       <c r="P301" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q301" t="s">
         <v>254</v>
       </c>
-      <c r="Q301" t="s">
-        <v>0</v>
-      </c>
-      <c r="R301" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":235,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":"2018-12-23T16:05:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R301" t="s">
+        <v>0</v>
+      </c>
+      <c r="S301" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":235,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>302</v>
       </c>
@@ -18784,17 +19775,20 @@
         <v>Arizona Cardinals</v>
       </c>
       <c r="P302" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q302" t="s">
         <v>254</v>
       </c>
-      <c r="Q302" t="s">
-        <v>0</v>
-      </c>
-      <c r="R302" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":236,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":"2018-12-23T16:05:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R302" t="s">
+        <v>0</v>
+      </c>
+      <c r="S302" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":236,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>303</v>
       </c>
@@ -18840,17 +19834,20 @@
         <v>Los Angeles Chargers</v>
       </c>
       <c r="P303" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q303" t="s">
         <v>254</v>
       </c>
-      <c r="Q303" t="s">
-        <v>0</v>
-      </c>
-      <c r="R303" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":237,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":"2018-12-23T16:05:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R303" t="s">
+        <v>0</v>
+      </c>
+      <c r="S303" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":237,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>304</v>
       </c>
@@ -18896,17 +19893,20 @@
         <v>New Orleans Saints</v>
       </c>
       <c r="P304" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q304" t="s">
         <v>255</v>
       </c>
-      <c r="Q304" t="s">
-        <v>0</v>
-      </c>
-      <c r="R304" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":238,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":"2018-12-23T16:25:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R304" t="s">
+        <v>0</v>
+      </c>
+      <c r="S304" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":238,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>305</v>
       </c>
@@ -18952,17 +19952,20 @@
         <v>Seattle Seahawks</v>
       </c>
       <c r="P305" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q305" t="s">
         <v>256</v>
       </c>
-      <c r="Q305" t="s">
-        <v>0</v>
-      </c>
-      <c r="R305" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":239,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":"2018-12-23T20:20:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R305" t="s">
+        <v>0</v>
+      </c>
+      <c r="S305" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":239,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>306</v>
       </c>
@@ -19008,17 +20011,20 @@
         <v>Oakland Raiders</v>
       </c>
       <c r="P306" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q306" t="s">
         <v>257</v>
       </c>
-      <c r="Q306" t="s">
-        <v>0</v>
-      </c>
-      <c r="R306" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":240,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":"2018-12-24T20:15:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R306" t="s">
+        <v>0</v>
+      </c>
+      <c r="S306" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":240,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-24T20:15:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>307</v>
       </c>
@@ -19064,17 +20070,20 @@
         <v>Buffalo Bills</v>
       </c>
       <c r="P307" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q307" t="s">
         <v>258</v>
       </c>
-      <c r="Q307" t="s">
-        <v>0</v>
-      </c>
-      <c r="R307" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":241,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":"2018-12-30T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R307" t="s">
+        <v>0</v>
+      </c>
+      <c r="S307" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":241,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>308</v>
       </c>
@@ -19120,17 +20129,20 @@
         <v>Green Bay Packers</v>
       </c>
       <c r="P308" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q308" t="s">
         <v>258</v>
       </c>
-      <c r="Q308" t="s">
-        <v>0</v>
-      </c>
-      <c r="R308" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":242,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":"2018-12-30T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R308" t="s">
+        <v>0</v>
+      </c>
+      <c r="S308" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":242,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>309</v>
       </c>
@@ -19176,17 +20188,20 @@
         <v>Houston Texans</v>
       </c>
       <c r="P309" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q309" t="s">
         <v>258</v>
       </c>
-      <c r="Q309" t="s">
-        <v>0</v>
-      </c>
-      <c r="R309" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":243,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":"2018-12-30T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R309" t="s">
+        <v>0</v>
+      </c>
+      <c r="S309" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":243,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>310</v>
       </c>
@@ -19232,17 +20247,20 @@
         <v>Kansas City Chiefs</v>
       </c>
       <c r="P310" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q310" t="s">
         <v>258</v>
       </c>
-      <c r="Q310" t="s">
-        <v>0</v>
-      </c>
-      <c r="R310" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":244,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":"2018-12-30T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R310" t="s">
+        <v>0</v>
+      </c>
+      <c r="S310" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":244,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>311</v>
       </c>
@@ -19288,17 +20306,20 @@
         <v>Minnesota Vikings</v>
       </c>
       <c r="P311" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q311" t="s">
         <v>258</v>
       </c>
-      <c r="Q311" t="s">
-        <v>0</v>
-      </c>
-      <c r="R311" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":245,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":"2018-12-30T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R311" t="s">
+        <v>0</v>
+      </c>
+      <c r="S311" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":245,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>312</v>
       </c>
@@ -19344,17 +20365,20 @@
         <v>New England Patriots</v>
       </c>
       <c r="P312" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q312" t="s">
         <v>258</v>
       </c>
-      <c r="Q312" t="s">
-        <v>0</v>
-      </c>
-      <c r="R312" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":246,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":"2018-12-30T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R312" t="s">
+        <v>0</v>
+      </c>
+      <c r="S312" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":246,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>313</v>
       </c>
@@ -19400,17 +20424,20 @@
         <v>New Orleans Saints</v>
       </c>
       <c r="P313" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q313" t="s">
         <v>258</v>
       </c>
-      <c r="Q313" t="s">
-        <v>0</v>
-      </c>
-      <c r="R313" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":247,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":"2018-12-30T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R313" t="s">
+        <v>0</v>
+      </c>
+      <c r="S313" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":247,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>314</v>
       </c>
@@ -19456,17 +20483,20 @@
         <v>New York Giants</v>
       </c>
       <c r="P314" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q314" t="s">
         <v>258</v>
       </c>
-      <c r="Q314" t="s">
-        <v>0</v>
-      </c>
-      <c r="R314" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":248,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":"2018-12-30T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R314" t="s">
+        <v>0</v>
+      </c>
+      <c r="S314" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":248,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>315</v>
       </c>
@@ -19512,17 +20542,20 @@
         <v>Pittsburgh Steelers</v>
       </c>
       <c r="P315" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q315" t="s">
         <v>258</v>
       </c>
-      <c r="Q315" t="s">
-        <v>0</v>
-      </c>
-      <c r="R315" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":249,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":"2018-12-30T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R315" t="s">
+        <v>0</v>
+      </c>
+      <c r="S315" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":249,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>316</v>
       </c>
@@ -19568,17 +20601,20 @@
         <v>Tampa Bay Buccaneers</v>
       </c>
       <c r="P316" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q316" t="s">
         <v>258</v>
       </c>
-      <c r="Q316" t="s">
-        <v>0</v>
-      </c>
-      <c r="R316" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":250,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":"2018-12-30T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R316" t="s">
+        <v>0</v>
+      </c>
+      <c r="S316" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":250,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>317</v>
       </c>
@@ -19624,17 +20660,20 @@
         <v>Tennessee Titans</v>
       </c>
       <c r="P317" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q317" t="s">
         <v>258</v>
       </c>
-      <c r="Q317" t="s">
-        <v>0</v>
-      </c>
-      <c r="R317" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":251,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":"2018-12-30T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R317" t="s">
+        <v>0</v>
+      </c>
+      <c r="S317" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":251,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>318</v>
       </c>
@@ -19680,17 +20719,20 @@
         <v>Washington Redskins</v>
       </c>
       <c r="P318" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q318" t="s">
         <v>258</v>
       </c>
-      <c r="Q318" t="s">
-        <v>0</v>
-      </c>
-      <c r="R318" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":252,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":"2018-12-30T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R318" t="s">
+        <v>0</v>
+      </c>
+      <c r="S318" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":252,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>319</v>
       </c>
@@ -19736,17 +20778,20 @@
         <v>Baltimore Ravens</v>
       </c>
       <c r="P319" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q319" t="s">
         <v>258</v>
       </c>
-      <c r="Q319" t="s">
-        <v>0</v>
-      </c>
-      <c r="R319" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":253,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":"2018-12-30T13:00:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R319" t="s">
+        <v>0</v>
+      </c>
+      <c r="S319" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":253,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>320</v>
       </c>
@@ -19792,17 +20837,20 @@
         <v>Denver Broncos</v>
       </c>
       <c r="P320" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q320" t="s">
         <v>259</v>
       </c>
-      <c r="Q320" t="s">
-        <v>0</v>
-      </c>
-      <c r="R320" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":254,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":"2018-12-30T16:25:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R320" t="s">
+        <v>0</v>
+      </c>
+      <c r="S320" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":254,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>321</v>
       </c>
@@ -19848,17 +20896,20 @@
         <v>Seattle Seahawks</v>
       </c>
       <c r="P321" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q321" t="s">
         <v>259</v>
       </c>
-      <c r="Q321" t="s">
-        <v>0</v>
-      </c>
-      <c r="R321" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":255,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":"2018-12-30T16:25:00-05:00"}</v>
-      </c>
-    </row>
-    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R321" t="s">
+        <v>0</v>
+      </c>
+      <c r="S321" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":255,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>322</v>
       </c>
@@ -19904,14 +20955,17 @@
         <v>Los Angeles Rams</v>
       </c>
       <c r="P322" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q322" t="s">
         <v>259</v>
       </c>
-      <c r="Q322" t="s">
-        <v>0</v>
-      </c>
-      <c r="R322" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":256,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":"2018-12-30T16:25:00-05:00"}</v>
+      <c r="R322" t="s">
+        <v>0</v>
+      </c>
+      <c r="S322" t="str">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":256,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T16:25:00-05:00"}}</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Copy of nfl-schedule-2018.xlsx
+++ b/assets/Copy of nfl-schedule-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aronc004/Desktop/github/crowdsourcedscores-web/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B4755A-CD34-3244-B030-78EC1DF63A86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A4DB61-EDA7-9E49-B4F9-6C272DF20BFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22740" yWindow="2780" windowWidth="26440" windowHeight="15440" xr2:uid="{6A0A4EFD-C765-0642-93D6-F41411AE2F2F}"/>
+    <workbookView xWindow="0" yWindow="5560" windowWidth="26440" windowHeight="15440" xr2:uid="{6A0A4EFD-C765-0642-93D6-F41411AE2F2F}"/>
   </bookViews>
   <sheets>
     <sheet name="nfl-schedule-2018" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="346">
   <si>
     <t>football</t>
   </si>
@@ -1056,6 +1056,9 @@
   </si>
   <si>
     <t>notStarted</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1228,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6214A81C-B5D5-324C-8563-2D78BADBD4F4}" name="Table1" displayName="Table1" ref="A1:S322" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:S322" xr:uid="{B933B4C6-4D5C-E549-B0B6-BB0D6045EBCE}"/>
+  <autoFilter ref="A1:S322" xr:uid="{B933B4C6-4D5C-E549-B0B6-BB0D6045EBCE}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{069A91C4-3EF5-3A46-AAAF-E08D67517BA9}" name="Game ID"/>
     <tableColumn id="44" xr3:uid="{AA1DD1D9-827B-E940-8A89-4E97C5BD781A}" name="gameId" dataDxfId="7">
@@ -1256,7 +1265,7 @@
     <tableColumn id="32" xr3:uid="{5A1C37AB-5FC4-AF41-A713-00DA64B813D0}" name="startDateTime"/>
     <tableColumn id="38" xr3:uid="{F7AA31AE-2FC2-8E49-9F38-250FC90F1BEB}" name="sport"/>
     <tableColumn id="43" xr3:uid="{5F4A1E9C-C883-CD43-87E8-E9E03A67CD9C}" name="JSON" dataDxfId="0">
-      <calculatedColumnFormula>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</calculatedColumnFormula>
+      <calculatedColumnFormula>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1574,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="S99" sqref="S99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1654,7 +1663,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1709,11 +1718,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-5,"gameId":-65,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-02T20:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-5,"gameId":-65,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-02T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1768,11 +1777,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-64,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-64,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1827,11 +1836,11 @@
         <v>0</v>
       </c>
       <c r="S4" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-63,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-63,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1886,11 +1895,11 @@
         <v>0</v>
       </c>
       <c r="S5" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-62,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-62,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1945,11 +1954,11 @@
         <v>0</v>
       </c>
       <c r="S6" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-61,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-61,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2004,11 +2013,11 @@
         <v>0</v>
       </c>
       <c r="S7" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-60,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-60,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2063,11 +2072,11 @@
         <v>0</v>
       </c>
       <c r="S8" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-59,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-59,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2122,11 +2131,11 @@
         <v>0</v>
       </c>
       <c r="S9" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-58,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-58,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2181,11 +2190,11 @@
         <v>0</v>
       </c>
       <c r="S10" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-57,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-57,"sport":"nfl","status":"notStarted","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2240,11 +2249,11 @@
         <v>0</v>
       </c>
       <c r="S11" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-56,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T20:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-56,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2299,11 +2308,11 @@
         <v>0</v>
       </c>
       <c r="S12" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-55,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T20:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-55,"sport":"nfl","status":"notStarted","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T20:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2358,11 +2367,11 @@
         <v>0</v>
       </c>
       <c r="S13" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-54,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T22:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-54,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T22:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2417,11 +2426,11 @@
         <v>0</v>
       </c>
       <c r="S14" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-53,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T22:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-53,"sport":"nfl","status":"notStarted","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-09T22:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2476,11 +2485,11 @@
         <v>0</v>
       </c>
       <c r="S15" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-52,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-10T19:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-52,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-10T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2535,11 +2544,11 @@
         <v>0</v>
       </c>
       <c r="S16" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-51,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-10T22:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-51,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-10T22:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2594,11 +2603,11 @@
         <v>0</v>
       </c>
       <c r="S17" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-50,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-11T21:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-50,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-11T21:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2653,11 +2662,11 @@
         <v>0</v>
       </c>
       <c r="S18" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-4,"gameId":-49,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-11T22:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-4,"gameId":-49,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-11T22:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2712,11 +2721,11 @@
         <v>0</v>
       </c>
       <c r="S19" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-48,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-16T19:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-48,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-16T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2771,11 +2780,11 @@
         <v>0</v>
       </c>
       <c r="S20" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-47,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-16T20:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-47,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-16T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2830,11 +2839,11 @@
         <v>0</v>
       </c>
       <c r="S21" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-46,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-16T20:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-46,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-16T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2889,11 +2898,11 @@
         <v>0</v>
       </c>
       <c r="S22" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-45,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-17T19:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-45,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-17T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2948,11 +2957,11 @@
         <v>0</v>
       </c>
       <c r="S23" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-44,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-17T19:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-44,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-17T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3007,11 +3016,11 @@
         <v>0</v>
       </c>
       <c r="S24" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-43,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-17T19:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-43,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-17T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3066,11 +3075,11 @@
         <v>0</v>
       </c>
       <c r="S25" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-42,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-17T20:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-42,"sport":"nfl","status":"notStarted","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-17T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3125,11 +3134,11 @@
         <v>0</v>
       </c>
       <c r="S26" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-41,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-17T20:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-41,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-17T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3184,11 +3193,11 @@
         <v>0</v>
       </c>
       <c r="S27" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-40,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-40,"sport":"nfl","status":"notStarted","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3243,11 +3252,11 @@
         <v>0</v>
       </c>
       <c r="S28" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-39,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T16:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-39,"sport":"nfl","status":"notStarted","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T16:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3302,11 +3311,11 @@
         <v>0</v>
       </c>
       <c r="S29" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-38,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T19:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-38,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3361,11 +3370,11 @@
         <v>0</v>
       </c>
       <c r="S30" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-37,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T20:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-37,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3420,11 +3429,11 @@
         <v>0</v>
       </c>
       <c r="S31" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-36,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T20:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-36,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3479,11 +3488,11 @@
         <v>0</v>
       </c>
       <c r="S32" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-35,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T21:05:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-35,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T21:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3538,11 +3547,11 @@
         <v>0</v>
       </c>
       <c r="S33" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-34,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T22:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-34,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-18T22:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3597,11 +3606,11 @@
         <v>0</v>
       </c>
       <c r="S34" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-3,"gameId":-33,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-20T20:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-3,"gameId":-33,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-08-20T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3662,11 +3671,11 @@
         <v>0</v>
       </c>
       <c r="S35" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-32,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":-3,"total":41},"startDateTime":{"$date":"2018-08-23T20:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-32,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":-3,"total":41},"startDateTime":{"$date":"2018-08-23T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3727,11 +3736,11 @@
         <v>0</v>
       </c>
       <c r="S36" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-31,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":-2.5,"total":42},"startDateTime":{"$date":"2018-08-24T19:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-31,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":-2.5,"total":42},"startDateTime":{"$date":"2018-08-24T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3792,11 +3801,11 @@
         <v>0</v>
       </c>
       <c r="S37" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-30,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":-3,"total":43.5},"startDateTime":{"$date":"2018-08-24T19:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-30,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":-3,"total":43.5},"startDateTime":{"$date":"2018-08-24T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3857,11 +3866,11 @@
         <v>0</v>
       </c>
       <c r="S38" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-29,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":-1,"total":46},"startDateTime":{"$date":"2018-08-24T19:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-29,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":-1,"total":46},"startDateTime":{"$date":"2018-08-24T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3922,11 +3931,11 @@
         <v>0</v>
       </c>
       <c r="S39" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-28,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":-3,"total":45.5},"startDateTime":{"$date":"2018-08-24T20:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-28,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":-3,"total":45.5},"startDateTime":{"$date":"2018-08-24T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3987,11 +3996,11 @@
         <v>0</v>
       </c>
       <c r="S40" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-27,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":-3.5,"total":40},"startDateTime":{"$date":"2018-08-24T20:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-27,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":-3.5,"total":40},"startDateTime":{"$date":"2018-08-24T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4052,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="S41" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-26,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":-7,"total":41},"startDateTime":{"$date":"2018-08-24T22:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-26,"sport":"nfl","status":"notStarted","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":-7,"total":41},"startDateTime":{"$date":"2018-08-24T22:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4117,11 +4126,11 @@
         <v>0</v>
       </c>
       <c r="S42" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-25,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":-2,"total":48},"startDateTime":{"$date":"2018-08-25T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-25,"sport":"nfl","status":"notStarted","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":-2,"total":48},"startDateTime":{"$date":"2018-08-25T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4182,11 +4191,11 @@
         <v>0</v>
       </c>
       <c r="S43" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-24,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":-4,"total":45.5},"startDateTime":{"$date":"2018-08-25T16:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-24,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":-4,"total":45.5},"startDateTime":{"$date":"2018-08-25T16:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4247,11 +4256,11 @@
         <v>0</v>
       </c>
       <c r="S44" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-23,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":-3,"total":42},"startDateTime":{"$date":"2018-08-25T16:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-23,"sport":"nfl","status":"notStarted","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":-3,"total":42},"startDateTime":{"$date":"2018-08-25T16:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4312,11 +4321,11 @@
         <v>0</v>
       </c>
       <c r="S45" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-22,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":-1,"total":43.5},"startDateTime":{"$date":"2018-08-25T16:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-22,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":-1,"total":43.5},"startDateTime":{"$date":"2018-08-25T16:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4377,11 +4386,11 @@
         <v>0</v>
       </c>
       <c r="S46" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-21,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":-3,"total":40},"startDateTime":{"$date":"2018-08-25T19:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-21,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":-3,"total":40},"startDateTime":{"$date":"2018-08-25T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4442,11 +4451,11 @@
         <v>0</v>
       </c>
       <c r="S47" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-20,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":0,"total":41.5},"startDateTime":{"$date":"2018-08-25T19:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-20,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":0,"total":41.5},"startDateTime":{"$date":"2018-08-25T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4507,11 +4516,11 @@
         <v>0</v>
       </c>
       <c r="S48" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-19,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":-2.5,"total":43.5},"startDateTime":{"$date":"2018-08-25T20:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-19,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":-2.5,"total":43.5},"startDateTime":{"$date":"2018-08-25T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4572,11 +4581,11 @@
         <v>0</v>
       </c>
       <c r="S49" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-18,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":-1.5,"total":41.5},"startDateTime":{"$date":"2018-08-26T16:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-18,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":-1.5,"total":41.5},"startDateTime":{"$date":"2018-08-26T16:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4637,11 +4646,11 @@
         <v>0</v>
       </c>
       <c r="S50" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-2,"gameId":-17,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":-3,"total":43.5},"startDateTime":{"$date":"2018-08-26T20:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-2,"gameId":-17,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":-3,"total":43.5},"startDateTime":{"$date":"2018-08-26T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4702,11 +4711,11 @@
         <v>0</v>
       </c>
       <c r="S51" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-16,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":-3,"total":36},"startDateTime":{"$date":"2018-08-30T19:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-16,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":-3,"total":36},"startDateTime":{"$date":"2018-08-30T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4767,11 +4776,11 @@
         <v>0</v>
       </c>
       <c r="S52" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-15,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":-3,"total":34},"startDateTime":{"$date":"2018-08-30T19:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-15,"sport":"nfl","status":"notStarted","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":-3,"total":34},"startDateTime":{"$date":"2018-08-30T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4832,11 +4841,11 @@
         <v>0</v>
       </c>
       <c r="S53" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-14,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":1.5,"total":36.5},"startDateTime":{"$date":"2018-08-30T19:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-14,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":1.5,"total":36.5},"startDateTime":{"$date":"2018-08-30T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4897,11 +4906,11 @@
         <v>0</v>
       </c>
       <c r="S54" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-13,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":-2.5,"total":35.5},"startDateTime":{"$date":"2018-08-30T19:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-13,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":-2.5,"total":35.5},"startDateTime":{"$date":"2018-08-30T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4962,11 +4971,11 @@
         <v>0</v>
       </c>
       <c r="S55" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-12,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":-2.5,"total":38.5},"startDateTime":{"$date":"2018-08-30T19:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-12,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":-2.5,"total":38.5},"startDateTime":{"$date":"2018-08-30T19:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5027,11 +5036,11 @@
         <v>0</v>
       </c>
       <c r="S56" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-11,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":-2.5,"total":36.5},"startDateTime":{"$date":"2018-08-30T19:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-11,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":-2.5,"total":36.5},"startDateTime":{"$date":"2018-08-30T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5092,11 +5101,11 @@
         <v>0</v>
       </c>
       <c r="S57" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-10,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":-3,"total":36},"startDateTime":{"$date":"2018-08-30T19:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-10,"sport":"nfl","status":"notStarted","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":-3,"total":36},"startDateTime":{"$date":"2018-08-30T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5157,11 +5166,11 @@
         <v>0</v>
       </c>
       <c r="S58" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-9,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":-1,"total":36},"startDateTime":{"$date":"2018-08-30T19:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-9,"sport":"nfl","status":"notStarted","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":-1,"total":36},"startDateTime":{"$date":"2018-08-30T19:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5222,11 +5231,11 @@
         <v>0</v>
       </c>
       <c r="S59" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-8,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":-3,"total":37},"startDateTime":{"$date":"2018-08-30T20:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-8,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":-3,"total":37},"startDateTime":{"$date":"2018-08-30T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5287,11 +5296,11 @@
         <v>0</v>
       </c>
       <c r="S60" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-7,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":-1,"total":36},"startDateTime":{"$date":"2018-08-30T20:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-7,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":-1,"total":36},"startDateTime":{"$date":"2018-08-30T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5352,11 +5361,11 @@
         <v>0</v>
       </c>
       <c r="S61" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-6,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":-4,"total":38},"startDateTime":{"$date":"2018-08-30T20:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-6,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":-4,"total":38},"startDateTime":{"$date":"2018-08-30T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5417,11 +5426,11 @@
         <v>0</v>
       </c>
       <c r="S62" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-5,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":-4,"total":34},"startDateTime":{"$date":"2018-08-30T20:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-5,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":-4,"total":34},"startDateTime":{"$date":"2018-08-30T20:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5482,11 +5491,11 @@
         <v>0</v>
       </c>
       <c r="S63" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-4,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":-4,"total":38.5},"startDateTime":{"$date":"2018-08-30T20:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-4,"sport":"nfl","status":"notStarted","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":-4,"total":38.5},"startDateTime":{"$date":"2018-08-30T20:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5547,11 +5556,11 @@
         <v>0</v>
       </c>
       <c r="S64" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-3,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":-2.5,"total":35.5},"startDateTime":{"$date":"2018-08-30T21:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-3,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":-2.5,"total":35.5},"startDateTime":{"$date":"2018-08-30T21:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5612,11 +5621,11 @@
         <v>0</v>
       </c>
       <c r="S65" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-2,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":-3.5,"total":35},"startDateTime":{"$date":"2018-08-30T22:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-2,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":-3.5,"total":35},"startDateTime":{"$date":"2018-08-30T22:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5677,11 +5686,11 @@
         <v>0</v>
       </c>
       <c r="S66" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":-1,"gameId":-1,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":-3,"total":35},"startDateTime":{"$date":"2018-08-30T22:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":-1,"gameId":-1,"sport":"nfl","status":"notStarted","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":-3,"total":35},"startDateTime":{"$date":"2018-08-30T22:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -5742,11 +5751,11 @@
         <v>0</v>
       </c>
       <c r="S67" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":1,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":-3,"total":45.5},"startDateTime":{"$date":"2018-09-06T20:20:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":1,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":-3,"total":45.5},"startDateTime":{"$date":"2018-09-06T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -5807,11 +5816,11 @@
         <v>0</v>
       </c>
       <c r="S68" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":2,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":5.5,"total":46.5},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":2,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":5.5,"total":46.5},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -5872,11 +5881,11 @@
         <v>0</v>
       </c>
       <c r="S69" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":3,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":-3,"total":46.5},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":3,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":-3,"total":46.5},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -5937,11 +5946,11 @@
         <v>0</v>
       </c>
       <c r="S70" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":4,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":1,"total":45},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":4,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":1,"total":45},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -6002,11 +6011,11 @@
         <v>0</v>
       </c>
       <c r="S71" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":5,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":-6,"total":46},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":5,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":-6,"total":46},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -6067,11 +6076,11 @@
         <v>0</v>
       </c>
       <c r="S72" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":6,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":-6.5,"total":41},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":6,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":-6.5,"total":41},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -6132,11 +6141,11 @@
         <v>0</v>
       </c>
       <c r="S73" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":7,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":-6.5,"total":51},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":7,"sport":"nfl","status":"notStarted","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":-6.5,"total":51},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -6197,11 +6206,11 @@
         <v>0</v>
       </c>
       <c r="S74" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":8,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":3,"total":43.5},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":8,"sport":"nfl","status":"notStarted","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":3,"total":43.5},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -6262,11 +6271,11 @@
         <v>0</v>
       </c>
       <c r="S75" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":9,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":-9.5,"total":49.5},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":9,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":-9.5,"total":49.5},"startDateTime":{"$date":"2018-09-09T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -6327,11 +6336,11 @@
         <v>0</v>
       </c>
       <c r="S76" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":10,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":-3,"total":48},"startDateTime":{"$date":"2018-09-09T16:05:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":10,"sport":"nfl","status":"notStarted","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":-3,"total":48},"startDateTime":{"$date":"2018-09-09T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -6392,11 +6401,11 @@
         <v>0</v>
       </c>
       <c r="S77" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":11,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":0,"total":44},"startDateTime":{"$date":"2018-09-09T16:25:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":11,"sport":"nfl","status":"notStarted","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":0,"total":44},"startDateTime":{"$date":"2018-09-09T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -6457,11 +6466,11 @@
         <v>0</v>
       </c>
       <c r="S78" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":12,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":-3,"total":42},"startDateTime":{"$date":"2018-09-09T16:25:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":12,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":-3,"total":42},"startDateTime":{"$date":"2018-09-09T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -6522,11 +6531,11 @@
         <v>0</v>
       </c>
       <c r="S79" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":13,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":-2.5,"total":42.5},"startDateTime":{"$date":"2018-09-09T16:25:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":13,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":-2.5,"total":42.5},"startDateTime":{"$date":"2018-09-09T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -6587,11 +6596,11 @@
         <v>0</v>
       </c>
       <c r="S80" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":14,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":-8,"total":47.5},"startDateTime":{"$date":"2018-09-09T20:20:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":14,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":-8,"total":47.5},"startDateTime":{"$date":"2018-09-09T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -6652,11 +6661,11 @@
         <v>0</v>
       </c>
       <c r="S81" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":15,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":-6.5,"total":44},"startDateTime":{"$date":"2018-09-10T19:10:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":15,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":-6.5,"total":44},"startDateTime":{"$date":"2018-09-10T19:10:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>82</v>
       </c>
@@ -6717,11 +6726,11 @@
         <v>0</v>
       </c>
       <c r="S82" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":1,"gameId":16,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":3.5,"total":49.5},"startDateTime":{"$date":"2018-09-10T22:20:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":1,"gameId":16,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":3.5,"total":49.5},"startDateTime":{"$date":"2018-09-10T22:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>83</v>
       </c>
@@ -6782,11 +6791,11 @@
         <v>0</v>
       </c>
       <c r="S83" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":17,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":0,"total":44},"startDateTime":{"$date":"2018-09-13T20:20:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":17,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":0,"total":44},"startDateTime":{"$date":"2018-09-13T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>84</v>
       </c>
@@ -6844,11 +6853,11 @@
         <v>0</v>
       </c>
       <c r="S84" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":18,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":-1.5,"total":},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":18,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":-1.5,"total":},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>85</v>
       </c>
@@ -6909,11 +6918,11 @@
         <v>0</v>
       </c>
       <c r="S85" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":19,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":-8,"total":50},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":19,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":-8,"total":50},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>86</v>
       </c>
@@ -6974,11 +6983,11 @@
         <v>0</v>
       </c>
       <c r="S86" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":20,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":-3,"total":44},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":20,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":-3,"total":44},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>87</v>
       </c>
@@ -7039,11 +7048,11 @@
         <v>0</v>
       </c>
       <c r="S87" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":21,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":7,"total":42.5},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":21,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":7,"total":42.5},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>88</v>
       </c>
@@ -7104,11 +7113,11 @@
         <v>0</v>
       </c>
       <c r="S88" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":22,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":-6,"total":44},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":22,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":-6,"total":44},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>89</v>
       </c>
@@ -7169,11 +7178,11 @@
         <v>0</v>
       </c>
       <c r="S89" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":23,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":-5,"total":53},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":23,"sport":"nfl","status":"notStarted","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":-5,"total":53},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>90</v>
       </c>
@@ -7234,11 +7243,11 @@
         <v>0</v>
       </c>
       <c r="S90" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":24,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":-5.5,"total":46},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":24,"sport":"nfl","status":"notStarted","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":-5.5,"total":46},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>91</v>
       </c>
@@ -7293,11 +7302,11 @@
         <v>0</v>
       </c>
       <c r="S91" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":25,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":25,"sport":"nfl","status":"notStarted","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>92</v>
       </c>
@@ -7358,11 +7367,11 @@
         <v>0</v>
       </c>
       <c r="S92" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":26,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":3,"total":43.5},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":26,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":3,"total":43.5},"startDateTime":{"$date":"2018-09-16T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>93</v>
       </c>
@@ -7423,11 +7432,11 @@
         <v>0</v>
       </c>
       <c r="S93" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":27,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":-5.5,"total":47.5},"startDateTime":{"$date":"2018-09-16T16:05:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":27,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":-5.5,"total":47.5},"startDateTime":{"$date":"2018-09-16T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>94</v>
       </c>
@@ -7488,11 +7497,11 @@
         <v>0</v>
       </c>
       <c r="S94" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":28,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":-12.5,"total":46.5},"startDateTime":{"$date":"2018-09-16T16:05:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":28,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":-12.5,"total":46.5},"startDateTime":{"$date":"2018-09-16T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>95</v>
       </c>
@@ -7553,11 +7562,11 @@
         <v>0</v>
       </c>
       <c r="S95" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":29,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":-6,"total":45},"startDateTime":{"$date":"2018-09-16T16:25:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":29,"sport":"nfl","status":"notStarted","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":-6,"total":45},"startDateTime":{"$date":"2018-09-16T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>96</v>
       </c>
@@ -7618,11 +7627,11 @@
         <v>0</v>
       </c>
       <c r="S96" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":30,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":2,"total":45},"startDateTime":{"$date":"2018-09-16T16:25:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":30,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":2,"total":45},"startDateTime":{"$date":"2018-09-16T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>97</v>
       </c>
@@ -7683,11 +7692,11 @@
         <v>0</v>
       </c>
       <c r="S97" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":31,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":-3,"total":42},"startDateTime":{"$date":"2018-09-16T20:20:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":31,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":-3,"total":42},"startDateTime":{"$date":"2018-09-16T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>98</v>
       </c>
@@ -7748,8 +7757,8 @@
         <v>0</v>
       </c>
       <c r="S98" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":2,"gameId":32,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":-3,"total":43.5},"startDateTime":{"$date":"2018-09-17T20:15:00-04:00"}}</v>
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":2,"gameId":32,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":-3,"total":43.5},"startDateTime":{"$date":"2018-09-17T20:15:00-04:00"}}</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
@@ -7797,6 +7806,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Cleveland Browns</v>
       </c>
+      <c r="N99">
+        <v>-3</v>
+      </c>
+      <c r="O99">
+        <v>39</v>
+      </c>
       <c r="P99" t="s">
         <v>344</v>
       </c>
@@ -7807,8 +7822,8 @@
         <v>0</v>
       </c>
       <c r="S99" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":33,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-20T20:20:00-04:00"}}</v>
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":33,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":-3,"total":39},"startDateTime":{"$date":"2018-09-20T20:20:00-04:00"}}</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
@@ -7856,6 +7871,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Carolina Panthers</v>
       </c>
+      <c r="N100">
+        <v>-3</v>
+      </c>
+      <c r="O100">
+        <v>43.5</v>
+      </c>
       <c r="P100" t="s">
         <v>344</v>
       </c>
@@ -7866,8 +7887,8 @@
         <v>0</v>
       </c>
       <c r="S100" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":34,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":34,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":-3,"total":43.5},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
@@ -7915,6 +7936,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Houston Texans</v>
       </c>
+      <c r="N101">
+        <v>-6</v>
+      </c>
+      <c r="O101">
+        <v>41.5</v>
+      </c>
       <c r="P101" t="s">
         <v>344</v>
       </c>
@@ -7925,8 +7952,8 @@
         <v>0</v>
       </c>
       <c r="S101" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":35,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":35,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":-6,"total":41.5},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
@@ -7974,6 +8001,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Jacksonville Jaguars</v>
       </c>
+      <c r="N102">
+        <v>-6.5</v>
+      </c>
+      <c r="O102">
+        <v>39.5</v>
+      </c>
       <c r="P102" t="s">
         <v>344</v>
       </c>
@@ -7984,8 +8017,8 @@
         <v>0</v>
       </c>
       <c r="S102" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":36,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":36,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":-6.5,"total":39.5},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
@@ -8033,6 +8066,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Baltimore Ravens</v>
       </c>
+      <c r="N103">
+        <v>-5</v>
+      </c>
+      <c r="O103">
+        <v>43</v>
+      </c>
       <c r="P103" t="s">
         <v>344</v>
       </c>
@@ -8043,8 +8082,8 @@
         <v>0</v>
       </c>
       <c r="S103" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":37,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":37,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":-5,"total":43},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
@@ -8092,6 +8131,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Atlanta Falcons</v>
       </c>
+      <c r="N104">
+        <v>-3</v>
+      </c>
+      <c r="O104">
+        <v>53</v>
+      </c>
       <c r="P104" t="s">
         <v>344</v>
       </c>
@@ -8102,8 +8147,8 @@
         <v>0</v>
       </c>
       <c r="S104" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":38,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":38,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":-3,"total":53},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
@@ -8151,6 +8196,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Kansas City Chiefs</v>
       </c>
+      <c r="N105">
+        <v>-6.5</v>
+      </c>
+      <c r="O105">
+        <v>56</v>
+      </c>
       <c r="P105" t="s">
         <v>344</v>
       </c>
@@ -8161,8 +8212,8 @@
         <v>0</v>
       </c>
       <c r="S105" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":39,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":39,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":-6.5,"total":56},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
@@ -8210,6 +8261,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Washington Redskins</v>
       </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106">
+        <v>46</v>
+      </c>
       <c r="P106" t="s">
         <v>344</v>
       </c>
@@ -8220,8 +8277,8 @@
         <v>0</v>
       </c>
       <c r="S106" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":40,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":40,"sport":"nfl","status":"notStarted","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":3,"total":46},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
@@ -8269,6 +8326,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Philadelphia Eagles</v>
       </c>
+      <c r="N107">
+        <v>-6</v>
+      </c>
+      <c r="O107">
+        <v>47.5</v>
+      </c>
       <c r="P107" t="s">
         <v>344</v>
       </c>
@@ -8279,8 +8342,8 @@
         <v>0</v>
       </c>
       <c r="S107" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":41,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":41,"sport":"nfl","status":"notStarted","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":-6,"total":47.5},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
@@ -8328,6 +8391,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Miami Dolphins</v>
       </c>
+      <c r="N108">
+        <v>-3</v>
+      </c>
+      <c r="O108">
+        <v>44</v>
+      </c>
       <c r="P108" t="s">
         <v>344</v>
       </c>
@@ -8338,8 +8407,8 @@
         <v>0</v>
       </c>
       <c r="S108" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":42,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":42,"sport":"nfl","status":"notStarted","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":-3,"total":44},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
@@ -8387,6 +8456,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Minnesota Vikings</v>
       </c>
+      <c r="N109">
+        <v>-17</v>
+      </c>
+      <c r="O109">
+        <v>41</v>
+      </c>
       <c r="P109" t="s">
         <v>344</v>
       </c>
@@ -8397,8 +8472,8 @@
         <v>0</v>
       </c>
       <c r="S109" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":43,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":43,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":-17,"total":41},"startDateTime":{"$date":"2018-09-23T13:00:00-04:00"}}</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
@@ -8446,6 +8521,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Los Angeles Rams</v>
       </c>
+      <c r="N110">
+        <v>-6.5</v>
+      </c>
+      <c r="O110">
+        <v>48</v>
+      </c>
       <c r="P110" t="s">
         <v>344</v>
       </c>
@@ -8456,8 +8537,8 @@
         <v>0</v>
       </c>
       <c r="S110" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":44,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T16:05:00-04:00"}}</v>
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":44,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":-6.5,"total":48},"startDateTime":{"$date":"2018-09-23T16:05:00-04:00"}}</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
@@ -8505,6 +8586,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Arizona Cardinals</v>
       </c>
+      <c r="N111">
+        <v>4</v>
+      </c>
+      <c r="O111" t="s">
+        <v>345</v>
+      </c>
       <c r="P111" t="s">
         <v>344</v>
       </c>
@@ -8515,8 +8602,8 @@
         <v>0</v>
       </c>
       <c r="S111" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":45,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T16:25:00-04:00"}}</v>
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":45,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":4,"total":null},"startDateTime":{"$date":"2018-09-23T16:25:00-04:00"}}</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
@@ -8564,6 +8651,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Seattle Seahawks</v>
       </c>
+      <c r="N112">
+        <v>-3</v>
+      </c>
+      <c r="O112">
+        <v>44.5</v>
+      </c>
       <c r="P112" t="s">
         <v>344</v>
       </c>
@@ -8574,8 +8667,8 @@
         <v>0</v>
       </c>
       <c r="S112" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":46,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T16:25:00-04:00"}}</v>
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":46,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":-3,"total":44.5},"startDateTime":{"$date":"2018-09-23T16:25:00-04:00"}}</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
@@ -8623,6 +8716,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Detroit Lions</v>
       </c>
+      <c r="N113">
+        <v>6.5</v>
+      </c>
+      <c r="O113">
+        <v>51.5</v>
+      </c>
       <c r="P113" t="s">
         <v>344</v>
       </c>
@@ -8633,8 +8732,8 @@
         <v>0</v>
       </c>
       <c r="S113" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":47,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-23T20:20:00-04:00"}}</v>
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":47,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":6.5,"total":51.5},"startDateTime":{"$date":"2018-09-23T20:20:00-04:00"}}</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
@@ -8682,6 +8781,12 @@
         <f>VLOOKUP(Table1[[#This Row],[homeTeamId]],teamTable[],3,FALSE)</f>
         <v>Tampa Bay Buccaneers</v>
       </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114">
+        <v>53.5</v>
+      </c>
       <c r="P114" t="s">
         <v>344</v>
       </c>
@@ -8692,11 +8797,11 @@
         <v>0</v>
       </c>
       <c r="S114" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":3,"gameId":48,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-24T20:15:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":3,"gameId":48,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":2,"total":53.5},"startDateTime":{"$date":"2018-09-24T20:15:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>115</v>
       </c>
@@ -8751,11 +8856,11 @@
         <v>0</v>
       </c>
       <c r="S115" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":49,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-27T20:20:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":49,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-27T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>116</v>
       </c>
@@ -8810,11 +8915,11 @@
         <v>0</v>
       </c>
       <c r="S116" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":50,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":50,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>117</v>
       </c>
@@ -8869,11 +8974,11 @@
         <v>0</v>
       </c>
       <c r="S117" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":51,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":51,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>118</v>
       </c>
@@ -8928,11 +9033,11 @@
         <v>0</v>
       </c>
       <c r="S118" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":52,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":52,"sport":"nfl","status":"notStarted","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>119</v>
       </c>
@@ -8987,11 +9092,11 @@
         <v>0</v>
       </c>
       <c r="S119" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":53,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":53,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>120</v>
       </c>
@@ -9046,11 +9151,11 @@
         <v>0</v>
       </c>
       <c r="S120" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":54,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":54,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>121</v>
       </c>
@@ -9105,11 +9210,11 @@
         <v>0</v>
       </c>
       <c r="S121" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":55,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":55,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>122</v>
       </c>
@@ -9164,11 +9269,11 @@
         <v>0</v>
       </c>
       <c r="S122" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":56,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":56,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>123</v>
       </c>
@@ -9223,11 +9328,11 @@
         <v>0</v>
       </c>
       <c r="S123" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":57,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":57,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>124</v>
       </c>
@@ -9282,11 +9387,11 @@
         <v>0</v>
       </c>
       <c r="S124" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":58,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T16:05:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":58,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>125</v>
       </c>
@@ -9341,11 +9446,11 @@
         <v>0</v>
       </c>
       <c r="S125" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":59,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T16:05:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":59,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>126</v>
       </c>
@@ -9400,11 +9505,11 @@
         <v>0</v>
       </c>
       <c r="S126" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":60,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T16:25:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":60,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>127</v>
       </c>
@@ -9459,11 +9564,11 @@
         <v>0</v>
       </c>
       <c r="S127" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":61,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T16:25:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":61,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>128</v>
       </c>
@@ -9518,11 +9623,11 @@
         <v>0</v>
       </c>
       <c r="S128" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":62,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T20:20:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":62,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-09-30T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>129</v>
       </c>
@@ -9577,11 +9682,11 @@
         <v>0</v>
       </c>
       <c r="S129" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":4,"gameId":63,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-01T20:15:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":4,"gameId":63,"sport":"nfl","status":"notStarted","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-01T20:15:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>130</v>
       </c>
@@ -9636,11 +9741,11 @@
         <v>0</v>
       </c>
       <c r="S130" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":64,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-04T20:20:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":64,"sport":"nfl","status":"notStarted","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-04T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>131</v>
       </c>
@@ -9695,11 +9800,11 @@
         <v>0</v>
       </c>
       <c r="S131" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":65,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":65,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>132</v>
       </c>
@@ -9754,11 +9859,11 @@
         <v>0</v>
       </c>
       <c r="S132" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":66,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":66,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>133</v>
       </c>
@@ -9813,11 +9918,11 @@
         <v>0</v>
       </c>
       <c r="S133" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":67,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":67,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>134</v>
       </c>
@@ -9872,11 +9977,11 @@
         <v>0</v>
       </c>
       <c r="S134" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":68,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":68,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>135</v>
       </c>
@@ -9931,11 +10036,11 @@
         <v>0</v>
       </c>
       <c r="S135" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":69,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":69,"sport":"nfl","status":"notStarted","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>136</v>
       </c>
@@ -9990,11 +10095,11 @@
         <v>0</v>
       </c>
       <c r="S136" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":70,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":70,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>137</v>
       </c>
@@ -10049,11 +10154,11 @@
         <v>0</v>
       </c>
       <c r="S137" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":71,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":71,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>138</v>
       </c>
@@ -10108,11 +10213,11 @@
         <v>0</v>
       </c>
       <c r="S138" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":72,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":72,"sport":"nfl","status":"notStarted","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>139</v>
       </c>
@@ -10167,11 +10272,11 @@
         <v>0</v>
       </c>
       <c r="S139" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":73,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T16:05:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":73,"sport":"nfl","status":"notStarted","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>140</v>
       </c>
@@ -10226,11 +10331,11 @@
         <v>0</v>
       </c>
       <c r="S140" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":74,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T16:25:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":74,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>141</v>
       </c>
@@ -10285,11 +10390,11 @@
         <v>0</v>
       </c>
       <c r="S141" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":75,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T16:25:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":75,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>142</v>
       </c>
@@ -10344,11 +10449,11 @@
         <v>0</v>
       </c>
       <c r="S142" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":76,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T16:25:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":76,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>143</v>
       </c>
@@ -10403,11 +10508,11 @@
         <v>0</v>
       </c>
       <c r="S143" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":77,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T20:20:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":77,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-07T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>144</v>
       </c>
@@ -10462,11 +10567,11 @@
         <v>0</v>
       </c>
       <c r="S144" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":5,"gameId":78,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-08T20:15:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":5,"gameId":78,"sport":"nfl","status":"notStarted","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-08T20:15:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>145</v>
       </c>
@@ -10521,11 +10626,11 @@
         <v>0</v>
       </c>
       <c r="S145" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":79,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-11T20:20:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":79,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-11T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>146</v>
       </c>
@@ -10580,11 +10685,11 @@
         <v>0</v>
       </c>
       <c r="S146" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":80,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":80,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>147</v>
       </c>
@@ -10639,11 +10744,11 @@
         <v>0</v>
       </c>
       <c r="S147" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":81,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":81,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>148</v>
       </c>
@@ -10698,11 +10803,11 @@
         <v>0</v>
       </c>
       <c r="S148" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":82,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":82,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>149</v>
       </c>
@@ -10757,11 +10862,11 @@
         <v>0</v>
       </c>
       <c r="S149" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":83,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":83,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>150</v>
       </c>
@@ -10816,11 +10921,11 @@
         <v>0</v>
       </c>
       <c r="S150" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":84,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":84,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>151</v>
       </c>
@@ -10875,11 +10980,11 @@
         <v>0</v>
       </c>
       <c r="S151" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":85,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":85,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>152</v>
       </c>
@@ -10934,11 +11039,11 @@
         <v>0</v>
       </c>
       <c r="S152" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":86,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":86,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>153</v>
       </c>
@@ -10993,11 +11098,11 @@
         <v>0</v>
       </c>
       <c r="S153" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":87,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":87,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>154</v>
       </c>
@@ -11052,11 +11157,11 @@
         <v>0</v>
       </c>
       <c r="S154" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":88,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":88,"sport":"nfl","status":"notStarted","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>155</v>
       </c>
@@ -11111,11 +11216,11 @@
         <v>0</v>
       </c>
       <c r="S155" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":89,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T16:05:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":89,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>156</v>
       </c>
@@ -11170,11 +11275,11 @@
         <v>0</v>
       </c>
       <c r="S156" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":90,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T16:25:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":90,"sport":"nfl","status":"notStarted","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>157</v>
       </c>
@@ -11229,11 +11334,11 @@
         <v>0</v>
       </c>
       <c r="S157" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":91,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T16:25:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":91,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>158</v>
       </c>
@@ -11288,11 +11393,11 @@
         <v>0</v>
       </c>
       <c r="S158" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":92,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T20:20:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":92,"sport":"nfl","status":"notStarted","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-14T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>159</v>
       </c>
@@ -11347,11 +11452,11 @@
         <v>0</v>
       </c>
       <c r="S159" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":6,"gameId":93,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-15T20:15:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":6,"gameId":93,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-15T20:15:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>160</v>
       </c>
@@ -11406,11 +11511,11 @@
         <v>0</v>
       </c>
       <c r="S160" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":94,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-18T20:20:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":94,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-18T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>161</v>
       </c>
@@ -11465,11 +11570,11 @@
         <v>0</v>
       </c>
       <c r="S161" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":95,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T09:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":95,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T09:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>162</v>
       </c>
@@ -11524,11 +11629,11 @@
         <v>0</v>
       </c>
       <c r="S162" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":96,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":96,"sport":"nfl","status":"notStarted","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>163</v>
       </c>
@@ -11583,11 +11688,11 @@
         <v>0</v>
       </c>
       <c r="S163" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":97,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":97,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>164</v>
       </c>
@@ -11642,11 +11747,11 @@
         <v>0</v>
       </c>
       <c r="S164" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":98,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":98,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>165</v>
       </c>
@@ -11701,11 +11806,11 @@
         <v>0</v>
       </c>
       <c r="S165" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":99,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":99,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>166</v>
       </c>
@@ -11760,11 +11865,11 @@
         <v>0</v>
       </c>
       <c r="S166" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":100,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":100,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>167</v>
       </c>
@@ -11819,11 +11924,11 @@
         <v>0</v>
       </c>
       <c r="S167" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":101,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":101,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>168</v>
       </c>
@@ -11878,11 +11983,11 @@
         <v>0</v>
       </c>
       <c r="S168" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":102,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":102,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>169</v>
       </c>
@@ -11937,11 +12042,11 @@
         <v>0</v>
       </c>
       <c r="S169" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":103,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":103,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>170</v>
       </c>
@@ -11996,11 +12101,11 @@
         <v>0</v>
       </c>
       <c r="S170" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":104,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T16:05:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":104,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>171</v>
       </c>
@@ -12055,11 +12160,11 @@
         <v>0</v>
       </c>
       <c r="S171" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":105,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T16:25:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":105,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>172</v>
       </c>
@@ -12114,11 +12219,11 @@
         <v>0</v>
       </c>
       <c r="S172" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":106,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T20:20:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":106,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-21T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>173</v>
       </c>
@@ -12173,11 +12278,11 @@
         <v>0</v>
       </c>
       <c r="S173" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":7,"gameId":107,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-22T20:15:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":7,"gameId":107,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-22T20:15:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>174</v>
       </c>
@@ -12232,11 +12337,11 @@
         <v>0</v>
       </c>
       <c r="S174" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":108,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-25T20:20:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":108,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-25T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>175</v>
       </c>
@@ -12291,11 +12396,11 @@
         <v>0</v>
       </c>
       <c r="S175" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":109,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T09:30:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":109,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T09:30:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>176</v>
       </c>
@@ -12350,11 +12455,11 @@
         <v>0</v>
       </c>
       <c r="S176" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":110,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":110,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>177</v>
       </c>
@@ -12409,11 +12514,11 @@
         <v>0</v>
       </c>
       <c r="S177" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":111,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":111,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>178</v>
       </c>
@@ -12468,11 +12573,11 @@
         <v>0</v>
       </c>
       <c r="S178" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":112,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":112,"sport":"nfl","status":"notStarted","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>179</v>
       </c>
@@ -12527,11 +12632,11 @@
         <v>0</v>
       </c>
       <c r="S179" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":113,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":113,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>180</v>
       </c>
@@ -12586,11 +12691,11 @@
         <v>0</v>
       </c>
       <c r="S180" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":114,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":114,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>181</v>
       </c>
@@ -12645,11 +12750,11 @@
         <v>0</v>
       </c>
       <c r="S181" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":115,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":115,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>182</v>
       </c>
@@ -12704,11 +12809,11 @@
         <v>0</v>
       </c>
       <c r="S182" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":116,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":116,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T13:00:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>183</v>
       </c>
@@ -12763,11 +12868,11 @@
         <v>0</v>
       </c>
       <c r="S183" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":117,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T16:05:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":117,"sport":"nfl","status":"notStarted","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T16:05:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>184</v>
       </c>
@@ -12822,11 +12927,11 @@
         <v>0</v>
       </c>
       <c r="S184" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":118,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T16:25:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":118,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>185</v>
       </c>
@@ -12881,11 +12986,11 @@
         <v>0</v>
       </c>
       <c r="S185" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":119,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T16:25:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":119,"sport":"nfl","status":"notStarted","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T16:25:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>186</v>
       </c>
@@ -12940,11 +13045,11 @@
         <v>0</v>
       </c>
       <c r="S186" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":120,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T20:20:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":120,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-28T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>187</v>
       </c>
@@ -12999,11 +13104,11 @@
         <v>0</v>
       </c>
       <c r="S187" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":8,"gameId":121,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-29T20:15:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":8,"gameId":121,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-10-29T20:15:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>188</v>
       </c>
@@ -13058,11 +13163,11 @@
         <v>0</v>
       </c>
       <c r="S188" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":122,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-01T20:20:00-04:00"}}</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":122,"sport":"nfl","status":"notStarted","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-01T20:20:00-04:00"}}</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>189</v>
       </c>
@@ -13117,11 +13222,11 @@
         <v>0</v>
       </c>
       <c r="S189" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":123,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":123,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>190</v>
       </c>
@@ -13176,11 +13281,11 @@
         <v>0</v>
       </c>
       <c r="S190" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":124,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":124,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>191</v>
       </c>
@@ -13235,11 +13340,11 @@
         <v>0</v>
       </c>
       <c r="S191" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":125,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":125,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>192</v>
       </c>
@@ -13294,11 +13399,11 @@
         <v>0</v>
       </c>
       <c r="S192" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":126,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":126,"sport":"nfl","status":"notStarted","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>193</v>
       </c>
@@ -13353,11 +13458,11 @@
         <v>0</v>
       </c>
       <c r="S193" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":127,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":127,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>194</v>
       </c>
@@ -13412,11 +13517,11 @@
         <v>0</v>
       </c>
       <c r="S194" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":128,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":128,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>195</v>
       </c>
@@ -13471,11 +13576,11 @@
         <v>0</v>
       </c>
       <c r="S195" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":129,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":129,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>196</v>
       </c>
@@ -13530,11 +13635,11 @@
         <v>0</v>
       </c>
       <c r="S196" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":130,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T16:05:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":130,"sport":"nfl","status":"notStarted","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>197</v>
       </c>
@@ -13589,11 +13694,11 @@
         <v>0</v>
       </c>
       <c r="S197" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":131,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T16:05:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":131,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>198</v>
       </c>
@@ -13648,11 +13753,11 @@
         <v>0</v>
       </c>
       <c r="S198" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":132,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T16:25:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":132,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>199</v>
       </c>
@@ -13707,11 +13812,11 @@
         <v>0</v>
       </c>
       <c r="S199" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":133,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T20:20:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":133,"sport":"nfl","status":"notStarted","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-04T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>200</v>
       </c>
@@ -13766,11 +13871,11 @@
         <v>0</v>
       </c>
       <c r="S200" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":9,"gameId":134,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-05T20:15:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":9,"gameId":134,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-05T20:15:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>201</v>
       </c>
@@ -13825,11 +13930,11 @@
         <v>0</v>
       </c>
       <c r="S201" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":135,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-08T20:20:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":135,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-08T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>202</v>
       </c>
@@ -13884,11 +13989,11 @@
         <v>0</v>
       </c>
       <c r="S202" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":136,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":136,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>203</v>
       </c>
@@ -13943,11 +14048,11 @@
         <v>0</v>
       </c>
       <c r="S203" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":137,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":137,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>204</v>
       </c>
@@ -14002,11 +14107,11 @@
         <v>0</v>
       </c>
       <c r="S204" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":138,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":138,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>205</v>
       </c>
@@ -14061,11 +14166,11 @@
         <v>0</v>
       </c>
       <c r="S205" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":139,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":139,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>206</v>
       </c>
@@ -14120,11 +14225,11 @@
         <v>0</v>
       </c>
       <c r="S206" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":140,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":140,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>207</v>
       </c>
@@ -14179,11 +14284,11 @@
         <v>0</v>
       </c>
       <c r="S207" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":141,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":141,"sport":"nfl","status":"notStarted","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>208</v>
       </c>
@@ -14238,11 +14343,11 @@
         <v>0</v>
       </c>
       <c r="S208" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":142,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":142,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>209</v>
       </c>
@@ -14297,11 +14402,11 @@
         <v>0</v>
       </c>
       <c r="S209" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":143,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":143,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>210</v>
       </c>
@@ -14356,11 +14461,11 @@
         <v>0</v>
       </c>
       <c r="S210" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":144,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":144,"sport":"nfl","status":"notStarted","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>211</v>
       </c>
@@ -14415,11 +14520,11 @@
         <v>0</v>
       </c>
       <c r="S211" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":145,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T16:05:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":145,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>212</v>
       </c>
@@ -14474,11 +14579,11 @@
         <v>0</v>
       </c>
       <c r="S212" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":146,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T16:25:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":146,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>213</v>
       </c>
@@ -14533,11 +14638,11 @@
         <v>0</v>
       </c>
       <c r="S213" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":147,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T20:20:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":147,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-11T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>214</v>
       </c>
@@ -14592,11 +14697,11 @@
         <v>0</v>
       </c>
       <c r="S214" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":10,"gameId":148,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-12T20:15:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":10,"gameId":148,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-12T20:15:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>215</v>
       </c>
@@ -14651,11 +14756,11 @@
         <v>0</v>
       </c>
       <c r="S215" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":149,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-15T20:20:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":149,"sport":"nfl","status":"notStarted","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-15T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>216</v>
       </c>
@@ -14710,11 +14815,11 @@
         <v>0</v>
       </c>
       <c r="S216" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":150,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":150,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>217</v>
       </c>
@@ -14769,11 +14874,11 @@
         <v>0</v>
       </c>
       <c r="S217" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":151,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":151,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>218</v>
       </c>
@@ -14828,11 +14933,11 @@
         <v>0</v>
       </c>
       <c r="S218" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":152,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":152,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>219</v>
       </c>
@@ -14887,11 +14992,11 @@
         <v>0</v>
       </c>
       <c r="S219" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":153,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":153,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>220</v>
       </c>
@@ -14946,11 +15051,11 @@
         <v>0</v>
       </c>
       <c r="S220" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":154,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":154,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>221</v>
       </c>
@@ -15005,11 +15110,11 @@
         <v>0</v>
       </c>
       <c r="S221" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":155,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":155,"sport":"nfl","status":"notStarted","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>222</v>
       </c>
@@ -15064,11 +15169,11 @@
         <v>0</v>
       </c>
       <c r="S222" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":156,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":156,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>223</v>
       </c>
@@ -15123,11 +15228,11 @@
         <v>0</v>
       </c>
       <c r="S223" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":157,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":157,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>224</v>
       </c>
@@ -15182,11 +15287,11 @@
         <v>0</v>
       </c>
       <c r="S224" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":158,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T16:05:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":158,"sport":"nfl","status":"notStarted","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>225</v>
       </c>
@@ -15241,11 +15346,11 @@
         <v>0</v>
       </c>
       <c r="S225" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":159,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T16:05:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":159,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>226</v>
       </c>
@@ -15300,11 +15405,11 @@
         <v>0</v>
       </c>
       <c r="S226" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":160,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T20:20:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":160,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-18T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>227</v>
       </c>
@@ -15359,11 +15464,11 @@
         <v>0</v>
       </c>
       <c r="S227" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":11,"gameId":161,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-19T20:15:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":11,"gameId":161,"sport":"nfl","status":"notStarted","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-19T20:15:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>228</v>
       </c>
@@ -15418,11 +15523,11 @@
         <v>0</v>
       </c>
       <c r="S228" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":162,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-22T12:30:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":162,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-22T12:30:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>229</v>
       </c>
@@ -15477,11 +15582,11 @@
         <v>0</v>
       </c>
       <c r="S229" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":163,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-22T16:30:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":163,"sport":"nfl","status":"notStarted","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-22T16:30:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>230</v>
       </c>
@@ -15536,11 +15641,11 @@
         <v>0</v>
       </c>
       <c r="S230" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":164,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-22T20:20:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":164,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-22T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>231</v>
       </c>
@@ -15595,11 +15700,11 @@
         <v>0</v>
       </c>
       <c r="S231" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":165,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":165,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>232</v>
       </c>
@@ -15654,11 +15759,11 @@
         <v>0</v>
       </c>
       <c r="S232" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":166,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":166,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>233</v>
       </c>
@@ -15713,11 +15818,11 @@
         <v>0</v>
       </c>
       <c r="S233" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":167,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":167,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>234</v>
       </c>
@@ -15772,11 +15877,11 @@
         <v>0</v>
       </c>
       <c r="S234" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":168,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":168,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>235</v>
       </c>
@@ -15831,11 +15936,11 @@
         <v>0</v>
       </c>
       <c r="S235" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":169,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":169,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>236</v>
       </c>
@@ -15890,11 +15995,11 @@
         <v>0</v>
       </c>
       <c r="S236" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":170,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":170,"sport":"nfl","status":"notStarted","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>237</v>
       </c>
@@ -15949,11 +16054,11 @@
         <v>0</v>
       </c>
       <c r="S237" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":171,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":171,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>238</v>
       </c>
@@ -16008,11 +16113,11 @@
         <v>0</v>
       </c>
       <c r="S238" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":172,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":172,"sport":"nfl","status":"notStarted","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>239</v>
       </c>
@@ -16067,11 +16172,11 @@
         <v>0</v>
       </c>
       <c r="S239" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":173,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T16:05:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":173,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>240</v>
       </c>
@@ -16126,11 +16231,11 @@
         <v>0</v>
       </c>
       <c r="S240" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":174,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T16:25:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":174,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>241</v>
       </c>
@@ -16185,11 +16290,11 @@
         <v>0</v>
       </c>
       <c r="S241" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":175,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T20:20:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":175,"sport":"nfl","status":"notStarted","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-25T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>242</v>
       </c>
@@ -16244,11 +16349,11 @@
         <v>0</v>
       </c>
       <c r="S242" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":12,"gameId":176,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-26T20:15:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":12,"gameId":176,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-26T20:15:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>243</v>
       </c>
@@ -16303,11 +16408,11 @@
         <v>0</v>
       </c>
       <c r="S243" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":177,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-29T20:20:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":177,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-11-29T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>244</v>
       </c>
@@ -16362,11 +16467,11 @@
         <v>0</v>
       </c>
       <c r="S244" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":178,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":178,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>245</v>
       </c>
@@ -16421,11 +16526,11 @@
         <v>0</v>
       </c>
       <c r="S245" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":179,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":179,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>246</v>
       </c>
@@ -16480,11 +16585,11 @@
         <v>0</v>
       </c>
       <c r="S246" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":180,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":180,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>247</v>
       </c>
@@ -16539,11 +16644,11 @@
         <v>0</v>
       </c>
       <c r="S247" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":181,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":181,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>248</v>
       </c>
@@ -16598,11 +16703,11 @@
         <v>0</v>
       </c>
       <c r="S248" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":182,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":182,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>249</v>
       </c>
@@ -16657,11 +16762,11 @@
         <v>0</v>
       </c>
       <c r="S249" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":183,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":183,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>250</v>
       </c>
@@ -16716,11 +16821,11 @@
         <v>0</v>
       </c>
       <c r="S250" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":184,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":184,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>251</v>
       </c>
@@ -16775,11 +16880,11 @@
         <v>0</v>
       </c>
       <c r="S251" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":185,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":185,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>252</v>
       </c>
@@ -16834,11 +16939,11 @@
         <v>0</v>
       </c>
       <c r="S252" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":186,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":186,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>253</v>
       </c>
@@ -16893,11 +16998,11 @@
         <v>0</v>
       </c>
       <c r="S253" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":187,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":187,"sport":"nfl","status":"notStarted","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>254</v>
       </c>
@@ -16952,11 +17057,11 @@
         <v>0</v>
       </c>
       <c r="S254" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":188,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T16:05:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":188,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>255</v>
       </c>
@@ -17011,11 +17116,11 @@
         <v>0</v>
       </c>
       <c r="S255" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":189,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T16:05:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":189,"sport":"nfl","status":"notStarted","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>256</v>
       </c>
@@ -17070,11 +17175,11 @@
         <v>0</v>
       </c>
       <c r="S256" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":190,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T16:25:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":190,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>257</v>
       </c>
@@ -17129,11 +17234,11 @@
         <v>0</v>
       </c>
       <c r="S257" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":191,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T20:20:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":191,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-02T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>258</v>
       </c>
@@ -17188,11 +17293,11 @@
         <v>0</v>
       </c>
       <c r="S258" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":13,"gameId":192,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-03T20:15:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":13,"gameId":192,"sport":"nfl","status":"notStarted","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-03T20:15:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>259</v>
       </c>
@@ -17247,11 +17352,11 @@
         <v>0</v>
       </c>
       <c r="S259" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":193,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-06T20:20:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":193,"sport":"nfl","status":"notStarted","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-06T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>260</v>
       </c>
@@ -17306,11 +17411,11 @@
         <v>0</v>
       </c>
       <c r="S260" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":194,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":194,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>261</v>
       </c>
@@ -17365,11 +17470,11 @@
         <v>0</v>
       </c>
       <c r="S261" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":195,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":195,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>262</v>
       </c>
@@ -17424,11 +17529,11 @@
         <v>0</v>
       </c>
       <c r="S262" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":196,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":196,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>263</v>
       </c>
@@ -17483,11 +17588,11 @@
         <v>0</v>
       </c>
       <c r="S263" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":197,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":197,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>264</v>
       </c>
@@ -17542,11 +17647,11 @@
         <v>0</v>
       </c>
       <c r="S264" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":198,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":198,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>265</v>
       </c>
@@ -17601,11 +17706,11 @@
         <v>0</v>
       </c>
       <c r="S265" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":199,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":199,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>266</v>
       </c>
@@ -17660,11 +17765,11 @@
         <v>0</v>
       </c>
       <c r="S266" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":200,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":200,"sport":"nfl","status":"notStarted","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>267</v>
       </c>
@@ -17719,11 +17824,11 @@
         <v>0</v>
       </c>
       <c r="S267" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":201,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":201,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>268</v>
       </c>
@@ -17778,11 +17883,11 @@
         <v>0</v>
       </c>
       <c r="S268" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":202,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":202,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>269</v>
       </c>
@@ -17837,11 +17942,11 @@
         <v>0</v>
       </c>
       <c r="S269" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":203,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T16:05:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":203,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>270</v>
       </c>
@@ -17896,11 +18001,11 @@
         <v>0</v>
       </c>
       <c r="S270" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":204,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T16:05:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":204,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>271</v>
       </c>
@@ -17955,11 +18060,11 @@
         <v>0</v>
       </c>
       <c r="S271" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":205,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T16:25:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":205,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>272</v>
       </c>
@@ -18014,11 +18119,11 @@
         <v>0</v>
       </c>
       <c r="S272" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":206,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T16:25:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":206,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>273</v>
       </c>
@@ -18073,11 +18178,11 @@
         <v>0</v>
       </c>
       <c r="S273" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":207,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T20:20:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":207,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-09T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>274</v>
       </c>
@@ -18132,11 +18237,11 @@
         <v>0</v>
       </c>
       <c r="S274" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":14,"gameId":208,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-10T20:15:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":14,"gameId":208,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-10T20:15:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>275</v>
       </c>
@@ -18191,11 +18296,11 @@
         <v>0</v>
       </c>
       <c r="S275" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":209,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-13T20:20:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":209,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-13T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>276</v>
       </c>
@@ -18250,11 +18355,11 @@
         <v>0</v>
       </c>
       <c r="S276" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":210,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-15T16:30:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":210,"sport":"nfl","status":"notStarted","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-15T16:30:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>277</v>
       </c>
@@ -18309,11 +18414,11 @@
         <v>0</v>
       </c>
       <c r="S277" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":211,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-15T16:30:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":211,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-15T16:30:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>278</v>
       </c>
@@ -18368,11 +18473,11 @@
         <v>0</v>
       </c>
       <c r="S278" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":212,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":212,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>279</v>
       </c>
@@ -18427,11 +18532,11 @@
         <v>0</v>
       </c>
       <c r="S279" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":213,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":213,"sport":"nfl","status":"notStarted","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>280</v>
       </c>
@@ -18486,11 +18591,11 @@
         <v>0</v>
       </c>
       <c r="S280" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":214,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":214,"sport":"nfl","status":"notStarted","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>281</v>
       </c>
@@ -18545,11 +18650,11 @@
         <v>0</v>
       </c>
       <c r="S281" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":215,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":215,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>282</v>
       </c>
@@ -18604,11 +18709,11 @@
         <v>0</v>
       </c>
       <c r="S282" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":216,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":216,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>283</v>
       </c>
@@ -18663,11 +18768,11 @@
         <v>0</v>
       </c>
       <c r="S283" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":217,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":217,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>284</v>
       </c>
@@ -18722,11 +18827,11 @@
         <v>0</v>
       </c>
       <c r="S284" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":218,"sport":"nfl","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":218,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>285</v>
       </c>
@@ -18781,11 +18886,11 @@
         <v>0</v>
       </c>
       <c r="S285" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":219,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":219,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>286</v>
       </c>
@@ -18840,11 +18945,11 @@
         <v>0</v>
       </c>
       <c r="S286" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":220,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":220,"sport":"nfl","status":"notStarted","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>287</v>
       </c>
@@ -18899,11 +19004,11 @@
         <v>0</v>
       </c>
       <c r="S287" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":221,"sport":"nfl","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T16:05:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":221,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>288</v>
       </c>
@@ -18958,11 +19063,11 @@
         <v>0</v>
       </c>
       <c r="S288" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":222,"sport":"nfl","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T16:25:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":222,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>289</v>
       </c>
@@ -19017,11 +19122,11 @@
         <v>0</v>
       </c>
       <c r="S289" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":223,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T20:20:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":223,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-16T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>290</v>
       </c>
@@ -19076,11 +19181,11 @@
         <v>0</v>
       </c>
       <c r="S290" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":15,"gameId":224,"sport":"nfl","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-17T20:15:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":15,"gameId":224,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-17T20:15:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>291</v>
       </c>
@@ -19135,11 +19240,11 @@
         <v>0</v>
       </c>
       <c r="S291" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":225,"sport":"nfl","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":225,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"homeTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>292</v>
       </c>
@@ -19194,11 +19299,11 @@
         <v>0</v>
       </c>
       <c r="S292" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":226,"sport":"nfl","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":226,"sport":"nfl","status":"notStarted","awayTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"homeTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>293</v>
       </c>
@@ -19253,11 +19358,11 @@
         <v>0</v>
       </c>
       <c r="S293" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":227,"sport":"nfl","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":227,"sport":"nfl","status":"notStarted","awayTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"homeTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>294</v>
       </c>
@@ -19312,11 +19417,11 @@
         <v>0</v>
       </c>
       <c r="S294" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":228,"sport":"nfl","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":228,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>295</v>
       </c>
@@ -19371,11 +19476,11 @@
         <v>0</v>
       </c>
       <c r="S295" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":229,"sport":"nfl","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":229,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"homeTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>296</v>
       </c>
@@ -19430,11 +19535,11 @@
         <v>0</v>
       </c>
       <c r="S296" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":230,"sport":"nfl","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":230,"sport":"nfl","status":"notStarted","awayTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"homeTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>297</v>
       </c>
@@ -19489,11 +19594,11 @@
         <v>0</v>
       </c>
       <c r="S297" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":231,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":231,"sport":"nfl","status":"notStarted","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>298</v>
       </c>
@@ -19548,11 +19653,11 @@
         <v>0</v>
       </c>
       <c r="S298" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":232,"sport":"nfl","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":232,"sport":"nfl","status":"notStarted","awayTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>299</v>
       </c>
@@ -19607,11 +19712,11 @@
         <v>0</v>
       </c>
       <c r="S299" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":233,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":233,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>300</v>
       </c>
@@ -19666,11 +19771,11 @@
         <v>0</v>
       </c>
       <c r="S300" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":234,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":234,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>301</v>
       </c>
@@ -19725,11 +19830,11 @@
         <v>0</v>
       </c>
       <c r="S301" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":235,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T16:05:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":235,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>302</v>
       </c>
@@ -19784,11 +19889,11 @@
         <v>0</v>
       </c>
       <c r="S302" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":236,"sport":"nfl","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T16:05:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":236,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"homeTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>303</v>
       </c>
@@ -19843,11 +19948,11 @@
         <v>0</v>
       </c>
       <c r="S303" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":237,"sport":"nfl","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T16:05:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":237,"sport":"nfl","status":"notStarted","awayTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"homeTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T16:05:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>304</v>
       </c>
@@ -19902,11 +20007,11 @@
         <v>0</v>
       </c>
       <c r="S304" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":238,"sport":"nfl","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T16:25:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":238,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>305</v>
       </c>
@@ -19961,11 +20066,11 @@
         <v>0</v>
       </c>
       <c r="S305" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":239,"sport":"nfl","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T20:20:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":239,"sport":"nfl","status":"notStarted","awayTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-23T20:20:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>306</v>
       </c>
@@ -20020,11 +20125,11 @@
         <v>0</v>
       </c>
       <c r="S306" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":16,"gameId":240,"sport":"nfl","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-24T20:15:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":16,"gameId":240,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"homeTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-24T20:15:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>307</v>
       </c>
@@ -20079,11 +20184,11 @@
         <v>0</v>
       </c>
       <c r="S307" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":241,"sport":"nfl","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":241,"sport":"nfl","status":"notStarted","awayTeam":{"code":"MIA","shortName":"Miami","fullName":"Miami Dolphins"},"homeTeam":{"code":"BUF","shortName":"Buffalo","fullName":"Buffalo Bills"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>308</v>
       </c>
@@ -20138,11 +20243,11 @@
         <v>0</v>
       </c>
       <c r="S308" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":242,"sport":"nfl","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":242,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DET","shortName":"Detroit","fullName":"Detroit Lions"},"homeTeam":{"code":"GB","shortName":"Green Bay","fullName":"Green Bay Packers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>309</v>
       </c>
@@ -20197,11 +20302,11 @@
         <v>0</v>
       </c>
       <c r="S309" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":243,"sport":"nfl","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":243,"sport":"nfl","status":"notStarted","awayTeam":{"code":"JAC","shortName":"Jacksonville","fullName":"Jacksonville Jaguars"},"homeTeam":{"code":"HOU","shortName":"Houston","fullName":"Houston Texans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>310</v>
       </c>
@@ -20256,11 +20361,11 @@
         <v>0</v>
       </c>
       <c r="S310" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":244,"sport":"nfl","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":244,"sport":"nfl","status":"notStarted","awayTeam":{"code":"OAK","shortName":"Oakland","fullName":"Oakland Raiders"},"homeTeam":{"code":"KC","shortName":"Kansas City","fullName":"Kansas City Chiefs"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>311</v>
       </c>
@@ -20315,11 +20420,11 @@
         <v>0</v>
       </c>
       <c r="S311" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":245,"sport":"nfl","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":245,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CHI","shortName":"Chicago","fullName":"Chicago Bears"},"homeTeam":{"code":"MIN","shortName":"Minnesota","fullName":"Minnesota Vikings"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>312</v>
       </c>
@@ -20374,11 +20479,11 @@
         <v>0</v>
       </c>
       <c r="S312" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":246,"sport":"nfl","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":246,"sport":"nfl","status":"notStarted","awayTeam":{"code":"NYJ","shortName":"N.Y. Jets","fullName":"New York Jets"},"homeTeam":{"code":"NE","shortName":"New England","fullName":"New England Patriots"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>313</v>
       </c>
@@ -20433,11 +20538,11 @@
         <v>0</v>
       </c>
       <c r="S313" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":247,"sport":"nfl","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":247,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CAR","shortName":"Carolina","fullName":"Carolina Panthers"},"homeTeam":{"code":"NO","shortName":"New Orleans","fullName":"New Orleans Saints"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>314</v>
       </c>
@@ -20492,11 +20597,11 @@
         <v>0</v>
       </c>
       <c r="S314" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":248,"sport":"nfl","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":248,"sport":"nfl","status":"notStarted","awayTeam":{"code":"DAL","shortName":"Dallas","fullName":"Dallas Cowboys"},"homeTeam":{"code":"NYG","shortName":"N.Y. Giants","fullName":"New York Giants"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>315</v>
       </c>
@@ -20551,11 +20656,11 @@
         <v>0</v>
       </c>
       <c r="S315" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":249,"sport":"nfl","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":249,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CIN","shortName":"Cincinnati","fullName":"Cincinnati Bengals"},"homeTeam":{"code":"PIT","shortName":"Pittsburgh","fullName":"Pittsburgh Steelers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>316</v>
       </c>
@@ -20610,11 +20715,11 @@
         <v>0</v>
       </c>
       <c r="S316" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":250,"sport":"nfl","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":250,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ATL","shortName":"Atlanta","fullName":"Atlanta Falcons"},"homeTeam":{"code":"TB","shortName":"Tampa Bay","fullName":"Tampa Bay Buccaneers"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>317</v>
       </c>
@@ -20669,11 +20774,11 @@
         <v>0</v>
       </c>
       <c r="S317" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":251,"sport":"nfl","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":251,"sport":"nfl","status":"notStarted","awayTeam":{"code":"IND","shortName":"Indianapolis","fullName":"Indianapolis Colts"},"homeTeam":{"code":"TEN","shortName":"Tennessee","fullName":"Tennessee Titans"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>318</v>
       </c>
@@ -20728,11 +20833,11 @@
         <v>0</v>
       </c>
       <c r="S318" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":252,"sport":"nfl","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":252,"sport":"nfl","status":"notStarted","awayTeam":{"code":"PHI","shortName":"Philadelphia","fullName":"Philadelphia Eagles"},"homeTeam":{"code":"WAS","shortName":"Washington","fullName":"Washington Redskins"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>319</v>
       </c>
@@ -20787,11 +20892,11 @@
         <v>0</v>
       </c>
       <c r="S319" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":253,"sport":"nfl","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":253,"sport":"nfl","status":"notStarted","awayTeam":{"code":"CLE","shortName":"Cleveland","fullName":"Cleveland Browns"},"homeTeam":{"code":"BAL","shortName":"Baltimore","fullName":"Baltimore Ravens"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T13:00:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>320</v>
       </c>
@@ -20846,11 +20951,11 @@
         <v>0</v>
       </c>
       <c r="S320" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":254,"sport":"nfl","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T16:25:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":254,"sport":"nfl","status":"notStarted","awayTeam":{"code":"LAC","shortName":"L.A. Chargers","fullName":"Los Angeles Chargers"},"homeTeam":{"code":"DEN","shortName":"Denver","fullName":"Denver Broncos"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>321</v>
       </c>
@@ -20905,11 +21010,11 @@
         <v>0</v>
       </c>
       <c r="S321" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":255,"sport":"nfl","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T16:25:00-05:00"}}</v>
-      </c>
-    </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":255,"sport":"nfl","status":"notStarted","awayTeam":{"code":"ARI","shortName":"Arizona","fullName":"Arizona Cardinals"},"homeTeam":{"code":"SEA","shortName":"Seattle","fullName":"Seattle Seahawks"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T16:25:00-05:00"}}</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>322</v>
       </c>
@@ -20964,8 +21069,8 @@
         <v>0</v>
       </c>
       <c r="S322" t="str">
-        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
-        <v>{"year":2018,"gameWeek":17,"gameId":256,"sport":"nfl","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T16:25:00-05:00"}}</v>
+        <f>"{""year"":2018,""gameWeek"":"&amp;Table1[[#This Row],[gameWeek]]&amp;",""gameId"":"&amp;Table1[[#This Row],[gameId]]&amp;",""sport"":""nfl"",""status"":""notStarted"",""awayTeam"":{""code"":"""&amp;Table1[[#This Row],[awayTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[awayTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[awayTeam.fullName]]&amp;"""},""homeTeam"":{""code"":"""&amp;Table1[[#This Row],[homeTeam.code]]&amp;""",""shortName"":"""&amp;Table1[[#This Row],[homeTeam.shortName]]&amp;""",""fullName"":"""&amp;Table1[[#This Row],[homeTeam.fullName]]&amp;"""},""odds"":{""spread"":"&amp;Table1[[#This Row],[odds.spread]]&amp;",""total"":"&amp;Table1[[#This Row],[odds.total]]&amp;"},""startDateTime"":{""$date"":"""&amp;Table1[[#This Row],[startDateTime]]&amp;"""}}"</f>
+        <v>{"year":2018,"gameWeek":17,"gameId":256,"sport":"nfl","status":"notStarted","awayTeam":{"code":"SF","shortName":"San Francisco","fullName":"San Francisco 49ers"},"homeTeam":{"code":"LAR","shortName":"L.A. Rams","fullName":"Los Angeles Rams"},"odds":{"spread":,"total":},"startDateTime":{"$date":"2018-12-30T16:25:00-05:00"}}</v>
       </c>
     </row>
   </sheetData>
